--- a/data/hotels_by_city/Dallas/Dallas_shard_686.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_686.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="762">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,2196 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/15/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r575280169-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>56161</t>
+  </si>
+  <si>
+    <t>7392321</t>
+  </si>
+  <si>
+    <t>575280169</t>
+  </si>
+  <si>
+    <t>04/23/2018</t>
+  </si>
+  <si>
+    <t>Tournament</t>
+  </si>
+  <si>
+    <t>Checked in on a Saturday evening for a weekend basketball tournament. The front desk staff are very welcoming and accomadating. I needed to wash one load of clothes (uniforms) and the Evening front desk clerk called next door to Hampton Inn and was able to secure me going next door to wash, since the guest laundry was full at Springhill. I will stay there again if i ever travel north again.</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r570210856-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>570210856</t>
+  </si>
+  <si>
+    <t>04/01/2018</t>
+  </si>
+  <si>
+    <t>Standard for Modern Hotels</t>
+  </si>
+  <si>
+    <t>Bright colors and room/lobby feels fresh and clean. Ample size room for 2-4 people, couch and desk area was very comfortable, and flexible for doing work or watching TV. Fast Wifi and good options for breakfast (eggs, strawberries, pastries, etc.). The separated bathroom can be inconvenient, but still manageable.</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r550728576-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>550728576</t>
+  </si>
+  <si>
+    <t>01/01/2018</t>
+  </si>
+  <si>
+    <t>Modern Style Hotel</t>
+  </si>
+  <si>
+    <t>When we used the hotel card to open the door it was like as huge as café or something like that! I also liked that the bathroom and the bath tub was separated!(which had a sink unlike the bathroom which was tiny) And the TV was also good with an easy remote.</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r531497422-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>531497422</t>
+  </si>
+  <si>
+    <t>10/09/2017</t>
+  </si>
+  <si>
+    <t>Very clean. Very friendly. Great location.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is a great place to stay. Comfortable rooms and beds. Great showers. Very clean hotel. Good breakfast. Reasonably helpful staff. The best part is the location. Easy access to South Lake, Coppell, Grapevine, Flower Mound, Lewisville and N Dallas. </t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r530762986-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>530762986</t>
+  </si>
+  <si>
+    <t>10/07/2017</t>
+  </si>
+  <si>
+    <t>Great hotel, elevator keeps people up at night:-(</t>
+  </si>
+  <si>
+    <t>I have left two great reviews for this hotel over the past few years. It is in a great location and the rooms are clean and spacious. However, at my most recent visit, my room was across from the elevator. The dinging noise is so loud it wakes you up at night, all night. There is no need for an elevator to be that loud. This really needs to be addressed. Personally, I will continue I stay here but insist on a room far from the elevator. MoreShow less</t>
+  </si>
+  <si>
+    <t>Sam D, General Manager at SpringHill Suites Dallas Lewisville, responded to this reviewResponded October 9, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 9, 2017</t>
+  </si>
+  <si>
+    <t>I have left two great reviews for this hotel over the past few years. It is in a great location and the rooms are clean and spacious. However, at my most recent visit, my room was across from the elevator. The dinging noise is so loud it wakes you up at night, all night. There is no need for an elevator to be that loud. This really needs to be addressed. Personally, I will continue I stay here but insist on a room far from the elevator. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r527074586-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>527074586</t>
+  </si>
+  <si>
+    <t>09/24/2017</t>
+  </si>
+  <si>
+    <t>Pleasant Surprise!</t>
+  </si>
+  <si>
+    <t>On a recent trip to visit family, we decided to try a new hotel. Found a great rate and booked the Springhill Suites. The hotel is easy to get to and had ample parking. Our check-in was quick and the desk staff was friendly and welcoming. The bathrooms have ample space and glass showers which are preferable over tub/shower combos . The beds are comfortable. They provide a delicious hot breakfast in a clean dining area.All in all we were very pleased and would definitely stay at this hotel again.</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r505531840-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>505531840</t>
+  </si>
+  <si>
+    <t>07/25/2017</t>
+  </si>
+  <si>
+    <t>They set the bar!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This place is amazing! New, clean modern and super friendly staff. The beds are extremely comfortable. We rented the family suite which consisted of one king bed, one bath (shower and toilet in different rooms) and one bedroom with two queens for the kids.The bedroom has a door separating it from the king room. Room also has a microwave, small fridge , coffee , etc.Everything was perfect. I can't say enough good things about this hotel. I will definitely stay here when I'm in the area. It's been saved to my favs! -Marriott Elite Member </t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r505521979-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>505521979</t>
+  </si>
+  <si>
+    <t>Loving this clean, comfortable, friendly hotel</t>
+  </si>
+  <si>
+    <t>My mom, son, and I stayed at this hotel for a basketball tournament. It was an amazing hotel. It's close to several eateries and the mall. Maybe 5 minutes from The Mac where we were playing. The rooms were spacious and clean. We had no problem getting anything extra that we needed. With an active 6 year old that loves wrestling, the sitting area was the perfect place for him. We had to keep extending our check out because my son's team (Arkansas Heat Elite) made it to the championship game (Dallas Main Event) that Sunday (and won). The game was at 2pm and they didn't give us any problems extending our time. Great hotel with friendly and professional service.MoreShow less</t>
+  </si>
+  <si>
+    <t>My mom, son, and I stayed at this hotel for a basketball tournament. It was an amazing hotel. It's close to several eateries and the mall. Maybe 5 minutes from The Mac where we were playing. The rooms were spacious and clean. We had no problem getting anything extra that we needed. With an active 6 year old that loves wrestling, the sitting area was the perfect place for him. We had to keep extending our check out because my son's team (Arkansas Heat Elite) made it to the championship game (Dallas Main Event) that Sunday (and won). The game was at 2pm and they didn't give us any problems extending our time. Great hotel with friendly and professional service.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r495599956-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>495599956</t>
+  </si>
+  <si>
+    <t>06/24/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clean but tight space in family suite </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quiet and clean modern rooms. Room was exactly as pictured. Easy check in/out and no problem asking for late check out as a member. Great location off of highways and 10-15 min walking distance to several restaurants and Costco. Family suite allows 7 and we had 6 in the room. But it only has one bathroom that's by the king bed!It at least has a separate toilet room from the shower room but still tight to share. Free breakfast was like any other with make your own Texas shaped waffles kids enjoyed. Free lemonade by the bar in the midday was delicious during the 99degree heat. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r486274152-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>486274152</t>
+  </si>
+  <si>
+    <t>05/21/2017</t>
+  </si>
+  <si>
+    <t>Absolutely the FINEST hotel in the Lewisville Area</t>
+  </si>
+  <si>
+    <t>Stayed here Thursday and Friday of last week. Had three rooms. I've got to say that I simply cannot imagine being treated any better by everyone in the hotel. The folks here exemplify superior customer service. The rooms were perfect, the overall property was perfect in every way. And it was clean, clean, clean. I will never stay anywhere else when I'm anywhere close.Highly Recommended</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r483628704-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>483628704</t>
+  </si>
+  <si>
+    <t>05/12/2017</t>
+  </si>
+  <si>
+    <t>A great hotel, until you have a problem!</t>
+  </si>
+  <si>
+    <t>The Springhill Suites in Lewisville is a great hotel, that is until you have a problem.  I travel to the area often and Springhill Suites had become my hotel of choice until my last visit.
+I checked in late and the next morning examining a shower towel I noticed stains that looked like someone had used the towel to clean up bodily fluids. Appalled and disgusted I was on my way to the front desk  to bring to their attention what I had found when I decided to check the bed. When I pulled back the covers I found a spot of blood!! 
+When I went to the front desk I showed Jacklyn the towel and told her about the blood on the bed expecting her to be as appalled and disgusted as I was, she said simply would you like clean towels or your bed changed? I said I would have preferred the sheets changed BEFORE I arrived but yes I'd like my bed changed and new towels! Then I left for the day. Now you'd think they would immediately send housekeeping to the room in a situation like this to change the bed and change out all the towels for good measure, but no! When I returned hours later the room had been made up, but the original towels were there and the bed made but not changed!! Very upset now I went back to the front desk,...The Springhill Suites in Lewisville is a great hotel, that is until you have a problem.  I travel to the area often and Springhill Suites had become my hotel of choice until my last visit.I checked in late and the next morning examining a shower towel I noticed stains that looked like someone had used the towel to clean up bodily fluids. Appalled and disgusted I was on my way to the front desk  to bring to their attention what I had found when I decided to check the bed. When I pulled back the covers I found a spot of blood!! When I went to the front desk I showed Jacklyn the towel and told her about the blood on the bed expecting her to be as appalled and disgusted as I was, she said simply would you like clean towels or your bed changed? I said I would have preferred the sheets changed BEFORE I arrived but yes I'd like my bed changed and new towels! Then I left for the day. Now you'd think they would immediately send housekeeping to the room in a situation like this to change the bed and change out all the towels for good measure, but no! When I returned hours later the room had been made up, but the original towels were there and the bed made but not changed!! Very upset now I went back to the front desk, asked to speak to a manager and a sales manager was there asking if she could help. I explained my problem AGAIN and it was met with the same apathetic response, would you like new towels or the bed changed!?! I was and am dumbfounded by their lack of response to such a disgusting condition especially in this age of infectious diseases!! I had to leave again and upon returning the bed did appear to be changed but not the towels!?!As I stated before this hotel is a great hotel. Ive stayed here many times and  previously gave it a glowing review but it seems if you have a problem its your problem and they can't be bothered with it. There are many hotels in Lewisville, in fact you can stand in the parking lot of Springhill Suites and see 6 other hotels. From now on I'll be chosing one of those.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>The Springhill Suites in Lewisville is a great hotel, that is until you have a problem.  I travel to the area often and Springhill Suites had become my hotel of choice until my last visit.
+I checked in late and the next morning examining a shower towel I noticed stains that looked like someone had used the towel to clean up bodily fluids. Appalled and disgusted I was on my way to the front desk  to bring to their attention what I had found when I decided to check the bed. When I pulled back the covers I found a spot of blood!! 
+When I went to the front desk I showed Jacklyn the towel and told her about the blood on the bed expecting her to be as appalled and disgusted as I was, she said simply would you like clean towels or your bed changed? I said I would have preferred the sheets changed BEFORE I arrived but yes I'd like my bed changed and new towels! Then I left for the day. Now you'd think they would immediately send housekeeping to the room in a situation like this to change the bed and change out all the towels for good measure, but no! When I returned hours later the room had been made up, but the original towels were there and the bed made but not changed!! Very upset now I went back to the front desk,...The Springhill Suites in Lewisville is a great hotel, that is until you have a problem.  I travel to the area often and Springhill Suites had become my hotel of choice until my last visit.I checked in late and the next morning examining a shower towel I noticed stains that looked like someone had used the towel to clean up bodily fluids. Appalled and disgusted I was on my way to the front desk  to bring to their attention what I had found when I decided to check the bed. When I pulled back the covers I found a spot of blood!! When I went to the front desk I showed Jacklyn the towel and told her about the blood on the bed expecting her to be as appalled and disgusted as I was, she said simply would you like clean towels or your bed changed? I said I would have preferred the sheets changed BEFORE I arrived but yes I'd like my bed changed and new towels! Then I left for the day. Now you'd think they would immediately send housekeeping to the room in a situation like this to change the bed and change out all the towels for good measure, but no! When I returned hours later the room had been made up, but the original towels were there and the bed made but not changed!! Very upset now I went back to the front desk, asked to speak to a manager and a sales manager was there asking if she could help. I explained my problem AGAIN and it was met with the same apathetic response, would you like new towels or the bed changed!?! I was and am dumbfounded by their lack of response to such a disgusting condition especially in this age of infectious diseases!! I had to leave again and upon returning the bed did appear to be changed but not the towels!?!As I stated before this hotel is a great hotel. Ive stayed here many times and  previously gave it a glowing review but it seems if you have a problem its your problem and they can't be bothered with it. There are many hotels in Lewisville, in fact you can stand in the parking lot of Springhill Suites and see 6 other hotels. From now on I'll be chosing one of those.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r483033662-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>483033662</t>
+  </si>
+  <si>
+    <t>05/09/2017</t>
+  </si>
+  <si>
+    <t>Impressive... Excellent Value</t>
+  </si>
+  <si>
+    <t>Stayed here two nights, while in town on business. The property is immaculately maintained, both inside and out. The rooms are large &amp; comfortable, as expected. Further, the rooms are very tastefully decorated... the bathroom is very nice.There is a great seating area outside, along with a fire pit, which was very nice for an evening cocktail. I regret that I forgot to take a photo of the area.As for the staff, I found them all to be both professional and friendly.As a Platinum Elite / Platinum for Life Status holder with the Marriott brand, I can say that I would not hesitate to stay here again, if in the area. This is a lot of hotel value for the rate charged!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>Stayed here two nights, while in town on business. The property is immaculately maintained, both inside and out. The rooms are large &amp; comfortable, as expected. Further, the rooms are very tastefully decorated... the bathroom is very nice.There is a great seating area outside, along with a fire pit, which was very nice for an evening cocktail. I regret that I forgot to take a photo of the area.As for the staff, I found them all to be both professional and friendly.As a Platinum Elite / Platinum for Life Status holder with the Marriott brand, I can say that I would not hesitate to stay here again, if in the area. This is a lot of hotel value for the rate charged!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r473279714-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>473279714</t>
+  </si>
+  <si>
+    <t>04/06/2017</t>
+  </si>
+  <si>
+    <t>Very updated hotel</t>
+  </si>
+  <si>
+    <t>I enjoyed my stay at this Marriott. Bar tender Ebony was amazing at her job and it seemed that everyone enjoyed her. I'd come back just to watch her make the whole place laugh lol. Fix the elevator!!!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r470982928-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>470982928</t>
+  </si>
+  <si>
+    <t>03/28/2017</t>
+  </si>
+  <si>
+    <t>Very nice stay</t>
+  </si>
+  <si>
+    <t>HAd an excellent stay here this week. Good bright and very clean rooms , nice breakfast , workout room all very good. Does not feel like this facility is 2 years old. Ebony at bar is very cheering and fun to know. Enjoyed my evening drink talking to Ebony, awesome time</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r470002036-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>470002036</t>
+  </si>
+  <si>
+    <t>03/25/2017</t>
+  </si>
+  <si>
+    <t>Awesome Hotel and Staff</t>
+  </si>
+  <si>
+    <t>Thanks to our hostess Bea we had an awesome stay at SpringHill Dallas Lewisville. The hotel still looks new and the rooms are spacious.  The breakfast bar is included in the price, which is nice when travelling with small kids.  I highly recommend this hotel right next to Vista Ridge Shopping Mall and lots of places for dining options.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r464174177-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>464174177</t>
+  </si>
+  <si>
+    <t>03/02/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lewisville lounge area </t>
+  </si>
+  <si>
+    <t xml:space="preserve">This was my first stay at this hotel and it was outstanding. Ebony in the lounge area was friendly, accommodating, and made sure all of the patrons were taken care of in a timely manner. She greeted everyone with a smile and a great attitude. Will definitely stay here again. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r464173835-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>464173835</t>
+  </si>
+  <si>
+    <t>Lewisville location lounge area</t>
+  </si>
+  <si>
+    <t>Ebony in the lounge are took great care of me and my team.  We appreciated her great attitude and helpful nature.  We will definitely be back.  She is a great asset for this location and made our team meeting a great experience!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r463882018-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>463882018</t>
+  </si>
+  <si>
+    <t>03/01/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great place </t>
+  </si>
+  <si>
+    <t>This hotel is 2 years old but you would never know it.  It is very up to date and modern feeling. They were very accommodating to match our specific needs. We added a night and we could no get a king room so we changed room by choice after our first night.  They allowed us to stay in first room past check out until they could get us a new room for the remainder of our stay. The living area is sectioned off from the sleeping area which allowed my husband an area to work.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r462373974-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>462373974</t>
+  </si>
+  <si>
+    <t>02/23/2017</t>
+  </si>
+  <si>
+    <t>New Favorite in the Denton/Lewisville Area</t>
+  </si>
+  <si>
+    <t>Stayed here for second time President's Day weekend for three nights. First stay was a one night stop as we were passing thru the area. This time, we got upgraded to a two bedroom suite based on gold rewards status. Awesome space including, king bed, sectional sofa, and two queens in second bedroom. Nice that shower was separate from water closet, allowing four of us to share the space efficiently. My husband, two teenaged daughters and I fully enjoyed our stay as we were very comfortable. Room was clean, lighting was fresh and adequately bright, and space included a flatscreen TV in each room, a mini fridge and microwave. Breakfast hours were good and staff didn't rush to clear away the food at the end of the breakfast period, allowing latecomers a chance to grab a bite. Waffles, eggs, sausage, oatmeal, pastries, fresh fruit, yogurt, juice, coffee and milk were available daily. Staff was very friendly and helpful. There were plenty of dining and shopping spots in the immediate area, including Vista Ridge Mall just up the hill. We visited a church  about a mile down the road on Sunday morning. While this hotel is about 20-30 mins from UNT, the value was worth the distance. We will definitely return! MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>Stayed here for second time President's Day weekend for three nights. First stay was a one night stop as we were passing thru the area. This time, we got upgraded to a two bedroom suite based on gold rewards status. Awesome space including, king bed, sectional sofa, and two queens in second bedroom. Nice that shower was separate from water closet, allowing four of us to share the space efficiently. My husband, two teenaged daughters and I fully enjoyed our stay as we were very comfortable. Room was clean, lighting was fresh and adequately bright, and space included a flatscreen TV in each room, a mini fridge and microwave. Breakfast hours were good and staff didn't rush to clear away the food at the end of the breakfast period, allowing latecomers a chance to grab a bite. Waffles, eggs, sausage, oatmeal, pastries, fresh fruit, yogurt, juice, coffee and milk were available daily. Staff was very friendly and helpful. There were plenty of dining and shopping spots in the immediate area, including Vista Ridge Mall just up the hill. We visited a church  about a mile down the road on Sunday morning. While this hotel is about 20-30 mins from UNT, the value was worth the distance. We will definitely return! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r461014058-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>461014058</t>
+  </si>
+  <si>
+    <t>02/18/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pretty good over all. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The rooms are spacious and clean. Everyone is really nice. One of our kids got sick in the middle of the night and thankfully they cleaned our room the next morning. Ebony at the bar war support nice and really helpful. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r458384960-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>458384960</t>
+  </si>
+  <si>
+    <t>02/09/2017</t>
+  </si>
+  <si>
+    <t>Best in U.S.</t>
+  </si>
+  <si>
+    <t>Been staying here every time I'm in the DFW area since May 2016. As a business traveler every week away from home I find this location a home away from home. The staff treat you like family and are so friendly and professional. Rooms are very clean and modern. Bea and Wes and staff are by far the best in the USA!!! The taco night this week was awesome, some of the best I've had. Looking forward to more stays.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r457344352-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>457344352</t>
+  </si>
+  <si>
+    <t>02/05/2017</t>
+  </si>
+  <si>
+    <t>Would stay again</t>
+  </si>
+  <si>
+    <t>As a frequent traveler, I've never written a review before but I felt compelled to write on behalf of the compassion I received from Bea at the front not desk.  I regularly stay at Courtyards so this was my first Springhill visit. The hotel lived up to the comforts you would expect from a Marriot brand however it was Bea who put it over the top. My travel was personal. I was in town to say goodbye to my oldest brother (51) who suffered a fatal stroke. Bea broke the ice when my other brother and I checked in. It was then that I learned that she was even more beautiful on the inside than she was standing behind the counter. No one is guaranteed a tomorrow, but for those tomorrows that I have left I hope to meet more Beas of the world. Thank you!!MoreShow less</t>
+  </si>
+  <si>
+    <t>As a frequent traveler, I've never written a review before but I felt compelled to write on behalf of the compassion I received from Bea at the front not desk.  I regularly stay at Courtyards so this was my first Springhill visit. The hotel lived up to the comforts you would expect from a Marriot brand however it was Bea who put it over the top. My travel was personal. I was in town to say goodbye to my oldest brother (51) who suffered a fatal stroke. Bea broke the ice when my other brother and I checked in. It was then that I learned that she was even more beautiful on the inside than she was standing behind the counter. No one is guaranteed a tomorrow, but for those tomorrows that I have left I hope to meet more Beas of the world. Thank you!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r456731509-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>456731509</t>
+  </si>
+  <si>
+    <t>02/02/2017</t>
+  </si>
+  <si>
+    <t>Regular Stay/Frequent Traveler</t>
+  </si>
+  <si>
+    <t>I have a great experience without exception every time. The staff is super friendly and accommodating. Bea at the front desk always greets me with a smile and has my check in documents ready for a speedy process. Ebony at the bar is also very accommodating. I'd recommend this hotel to all business travelers or weekend vacationers.</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r456675684-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>456675684</t>
+  </si>
+  <si>
+    <t>Clean hotel. Friendly staff. Great Location</t>
+  </si>
+  <si>
+    <t>I stay here very frequently for business, and I have to say that this hotel is my favorite Marriott in the area. Bea is the most friendly manager, and Katie and Lindsey always have a smile on their faces. The rooms are always clean and the beds always comfy. Location is right near major shopping outlets too. 5/5 in my book; I love this place!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r454860411-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>454860411</t>
+  </si>
+  <si>
+    <t>01/25/2017</t>
+  </si>
+  <si>
+    <t>Great Place VERY Friendly Staff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Walking in every day and seeing the smile and enthusiasm on Bea makes this the place to stay in Lewisville. We stay here every time for work and the rooms are clean and fresh as well as everything else in the hotel. I don't usually partake in the breakfast but it is your typical fare (cereal, oatmeal, breads, etc.).  Shares part of the parking lot with Hampton Inn next door so can be tight. Will continue to stay here during trips to the Lewisville area. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r454383731-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>454383731</t>
+  </si>
+  <si>
+    <t>01/23/2017</t>
+  </si>
+  <si>
+    <t>Short Stay</t>
+  </si>
+  <si>
+    <t>All went well great place very nice.Beatrice at the front desk was great. Special Thank You for her great service. The breakfast buffet it one of the nicest I have seen.All of the staff is very courteous.</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r453228010-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>453228010</t>
+  </si>
+  <si>
+    <t>01/18/2017</t>
+  </si>
+  <si>
+    <t>SpringHill Suites Lewisville Texas</t>
+  </si>
+  <si>
+    <t>I come into DFW monthly for work and ALWAYS stay at the Marriott properties at Vista RidgeMy favorite being SpringHill - amazing front desk staff - Bernice is a star!They actually care about their guests and do all possible to make us comfortable content and happy If I have to be away from home this is where I want to be Excellent location for dining .....</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r448164876-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>448164876</t>
+  </si>
+  <si>
+    <t>12/31/2016</t>
+  </si>
+  <si>
+    <t>Customer service</t>
+  </si>
+  <si>
+    <t>Beatrice welcomed us and then proceeded to meet every need. Her friendly, sweet personality was everything Marriott was designed to be! Marriott should be very proud she represents so well! Congratulations on having such great employees! Expressive!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r447040080-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>447040080</t>
+  </si>
+  <si>
+    <t>12/27/2016</t>
+  </si>
+  <si>
+    <t>excellent front desk service from Miss Bea :)</t>
+  </si>
+  <si>
+    <t>my family and I have been here since 12.23.16 and the service is excellent and one lady in particular her name is beatrice is very nice and her smile lights up the minute you walk through the door. she greets you with a welcoming smile. :)</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r445719227-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>445719227</t>
+  </si>
+  <si>
+    <t>12/20/2016</t>
+  </si>
+  <si>
+    <t>Best Customer Service</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel last week. It is clean/modern and the service is exceptional.  I left my prescription sunglasses in the room when I checked out.  I called a day later and spoke to Bea.  She made it her priority to locate the glass.  She called me back within 15 minutes to let me know she found it and hold them until my next visit.  Her level of urgency was refreshing and reassuring.The Customer Service is best in class!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r442996178-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>442996178</t>
+  </si>
+  <si>
+    <t>12/08/2016</t>
+  </si>
+  <si>
+    <t>Overcharged me for room</t>
+  </si>
+  <si>
+    <t>Front desk rude, couldnt find my reservation number. Ended up charging me 96.04 instead of using my rewards points. Front desk refused to assist or resolve issue, I contacted corporate and still couldnt help me even thought she was a manager. I should have gone to the Hilton, dont need the dramaMoreShow less</t>
+  </si>
+  <si>
+    <t>Sam D, General Manager at SpringHill Suites Dallas Lewisville, responded to this reviewResponded December 10, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 10, 2016</t>
+  </si>
+  <si>
+    <t>Front desk rude, couldnt find my reservation number. Ended up charging me 96.04 instead of using my rewards points. Front desk refused to assist or resolve issue, I contacted corporate and still couldnt help me even thought she was a manager. I should have gone to the Hilton, dont need the dramaMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r440241883-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>440241883</t>
+  </si>
+  <si>
+    <t>11/26/2016</t>
+  </si>
+  <si>
+    <t>Soccer Tournament trip</t>
+  </si>
+  <si>
+    <t>I was pleasantly surprised by SpringHill Suites.  The staff was great:  Bea welcomed us with a glowing smile and easy check-in, and continued to be helpful and gracious our entire stay.  Megan was delightful despite working a double shift &amp; Ebony skillfully and calmly worked the bar full of soccer parents. The rooms were amazing -- very spacious (2 queen beds, a small sectional couch, a desk to work at and a nice bathroom with toilet separate from shower) and clean.  It was nice to have a small fridge &amp; microwave too.And, the location is great - so close to everything!Overall, I would highly recommend this hotel and plan to stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>I was pleasantly surprised by SpringHill Suites.  The staff was great:  Bea welcomed us with a glowing smile and easy check-in, and continued to be helpful and gracious our entire stay.  Megan was delightful despite working a double shift &amp; Ebony skillfully and calmly worked the bar full of soccer parents. The rooms were amazing -- very spacious (2 queen beds, a small sectional couch, a desk to work at and a nice bathroom with toilet separate from shower) and clean.  It was nice to have a small fridge &amp; microwave too.And, the location is great - so close to everything!Overall, I would highly recommend this hotel and plan to stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r439326866-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>439326866</t>
+  </si>
+  <si>
+    <t>11/22/2016</t>
+  </si>
+  <si>
+    <t>Nice hotel</t>
+  </si>
+  <si>
+    <t>The staff was really nice, especially Ebony and Bea. The bar was really clean and there was a fireplace outside. Clean hotel. Comfortable beds and the suites are nice for extra room and office space. I would go back.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r436662504-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>436662504</t>
+  </si>
+  <si>
+    <t>11/12/2016</t>
+  </si>
+  <si>
+    <t>Bea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We enjoyed our stay. The room was clean and service was great. Bea was very welcoming and provided excellent customer service. She is the model of what an employee in hospitality should be. She is excellent. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r436659834-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>436659834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Associates make the difference - Great Service! </t>
+  </si>
+  <si>
+    <t>I had a great experience at Springhill Suites this weekend.  1st - the location is a great and is surround by a number of amenities. 2nd - the hotel is very clean, and room are great . Finally &amp; Most important their customer service is incredible.  I work for a company were we always count on two things! Our Associates make the difference, and the customer is number 1! That's what I experience at this hotel!  Bea!  Is an amazing associate at this hotel and took great care of us!  She had smile on her face, and welcome us a guest with the up most respect!  Amazing Job!  Thank You Bea! MoreShow less</t>
+  </si>
+  <si>
+    <t>I had a great experience at Springhill Suites this weekend.  1st - the location is a great and is surround by a number of amenities. 2nd - the hotel is very clean, and room are great . Finally &amp; Most important their customer service is incredible.  I work for a company were we always count on two things! Our Associates make the difference, and the customer is number 1! That's what I experience at this hotel!  Bea!  Is an amazing associate at this hotel and took great care of us!  She had smile on her face, and welcome us a guest with the up most respect!  Amazing Job!  Thank You Bea! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r435206460-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>435206460</t>
+  </si>
+  <si>
+    <t>11/06/2016</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>hotel accomodation were great.. clean, the food was great in the morning for the continental breakfast which was all inclusive. Nakia was extremely helpful during my checkin and stay.  I applaud her for taking care of us.The clean staff and food staff very well organized and friendly. Will definitely stay here again ....</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r434696750-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>434696750</t>
+  </si>
+  <si>
+    <t>11/04/2016</t>
+  </si>
+  <si>
+    <t>Soccer Trip</t>
+  </si>
+  <si>
+    <t>Just checked in and the rooms are clean and tons of room; Katie was great, friendly and expedited our checkin... she was alone very patient with a slow customer.  Dropped our bags off and went to get a drink at the bar in the lobby- Ebony was Very Friendly and made the atmosphere lively with only three people at three bar.  Impressive small hotel that I would recommend to anyone!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r434449638-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>434449638</t>
+  </si>
+  <si>
+    <t>11/03/2016</t>
+  </si>
+  <si>
+    <t>The ABC's of SpringHill Suites in Lewisville</t>
+  </si>
+  <si>
+    <t>There are several hotels in this area...But I can think of 3 reasons to choose this property: ATMOSPHERE is modern &amp; relaxing.  BEA at the front desk is phenomenal &amp; accommodating. COMFORT &amp; CLEANLINESS is the standard expectation. This property has much to offer from an amazing staff to exceptional service.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r431654999-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>431654999</t>
+  </si>
+  <si>
+    <t>10/25/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nice place to stay </t>
+  </si>
+  <si>
+    <t>There are several Marriott hotels in this area. This one is my fav. Nice and clean. You got to experience the elevator. Somehow this place reminds me of Europe.Bra and Katie make me feel at home every time I stay. Keep up with the personal connections! I will come back</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r430732512-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>430732512</t>
+  </si>
+  <si>
+    <t>10/22/2016</t>
+  </si>
+  <si>
+    <t>Loved it!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ebony was amazing. She kept the atmosphere great. Very attentive to customers. When I come back to Dallas in a few weeks I will stay here again just because of Ebony's service. The hotel staff was amazing as well. Katie at the front desk was wonderful too! </t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r430322261-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>430322261</t>
+  </si>
+  <si>
+    <t>10/21/2016</t>
+  </si>
+  <si>
+    <t>Great Customer Service</t>
+  </si>
+  <si>
+    <t>Bea - one of the front desk professionals - is amazing!  She remembers me every time (and I witnessed her even remember the name of a first time guest) and goes out of her way to take care of the guests.  I stay regularly and one of the reasons is her ability to make everyone feel welcome and special with small, but notable gestures of caring and going above and beyond.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r423867279-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>423867279</t>
+  </si>
+  <si>
+    <t>09/30/2016</t>
+  </si>
+  <si>
+    <t>Consistant excellent experience</t>
+  </si>
+  <si>
+    <t>As a business traveler, I stay at this location monthly, and am always impressed by the friendliness of the staff and how easy they make it. A special note to Bea, the afternoon manager, who always greets me with her award winning smile.</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r419244485-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>419244485</t>
+  </si>
+  <si>
+    <t>09/16/2016</t>
+  </si>
+  <si>
+    <t>Nice enough</t>
+  </si>
+  <si>
+    <t>I was there this week on business. Room looks nice and beds are comfortable enough though not the best. Slow noisy elevators. A/c somewhat widely swinging temps which is the thermostat. Shower is  not great, though adequate. I didn't like that the toilet is in a separate room with the cutesy sliding doors, from the shower and vanity area. Both separated by a separate closet. And what is with the mirror on top of the main vanity mirror. Good enough if you are tall enough but my face and hair was right in the middle of the 3 inch opaque border. I either had to squat or haul all my makeup and hair care into the toilet area, which has a very tiny lav and NO place to set even a hairbrush!  The most bothersome was that I could hear everything that went on in my neighbor's toilet area (and vice versa I am sure)! There also was some noise from another room that made it sound like someone was walking around my room (not from above as I was on the top floor). Wonderful staff and the breakfast was good.MoreShow less</t>
+  </si>
+  <si>
+    <t>Sam D, General Manager at SpringHill Suites Dallas Lewisville, responded to this reviewResponded September 17, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 17, 2016</t>
+  </si>
+  <si>
+    <t>I was there this week on business. Room looks nice and beds are comfortable enough though not the best. Slow noisy elevators. A/c somewhat widely swinging temps which is the thermostat. Shower is  not great, though adequate. I didn't like that the toilet is in a separate room with the cutesy sliding doors, from the shower and vanity area. Both separated by a separate closet. And what is with the mirror on top of the main vanity mirror. Good enough if you are tall enough but my face and hair was right in the middle of the 3 inch opaque border. I either had to squat or haul all my makeup and hair care into the toilet area, which has a very tiny lav and NO place to set even a hairbrush!  The most bothersome was that I could hear everything that went on in my neighbor's toilet area (and vice versa I am sure)! There also was some noise from another room that made it sound like someone was walking around my room (not from above as I was on the top floor). Wonderful staff and the breakfast was good.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r418480009-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>418480009</t>
+  </si>
+  <si>
+    <t>09/14/2016</t>
+  </si>
+  <si>
+    <t>Great hotel, great staff</t>
+  </si>
+  <si>
+    <t>Such a nice new Springhill. Everything is so modern and clean, and the staff is so great to work with. Thanks Katie, Bea, and Lindsley! I'll definitely be staying here again the next time I'm in town.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r415780254-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>415780254</t>
+  </si>
+  <si>
+    <t>09/07/2016</t>
+  </si>
+  <si>
+    <t>Great place to stay!</t>
+  </si>
+  <si>
+    <t>I stay at this hotel nearly every time I visit the DFW area. I have tried several other hotels nearby, but this one is consistently the best I have used. The staff is friendly, price is ideal, breakfast is great and the location is ideal with easy major highway access. It is far enough off the main roads to reduce any traffic noise. I appreciate having this location as an option when I travel.</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r415318582-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>415318582</t>
+  </si>
+  <si>
+    <t>09/06/2016</t>
+  </si>
+  <si>
+    <t>Great SERVICE, Gret location</t>
+  </si>
+  <si>
+    <t>everything was perfect, including all of the staff and accommodations. Conducting meeting there as well, flawless!Bea was awesome at the front desk,a dn made sure we were taken care of from the moment we arrived, until the moment we left!</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r413823518-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>413823518</t>
+  </si>
+  <si>
+    <t>09/02/2016</t>
+  </si>
+  <si>
+    <t>Nice Hotel Staff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is a newer facility and is nice. I have reported maintenance issues over the coarse of my stay. I must say Bea and Megan who work the desk are friendly and helpful. They both make you feel welcome and greet you every time they see you. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r413713289-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>413713289</t>
+  </si>
+  <si>
+    <t>09/01/2016</t>
+  </si>
+  <si>
+    <t>This Hotel Rocks!</t>
+  </si>
+  <si>
+    <t>Great location.  Great quality rooms.  The staff is top notch.  Bea and Megan are extremely helpful and pleasant and good-lookin to boot!  Nearly every time I come to Dallas, I stay at this hotel.  I've never had a bad experience.  This brand and this location are my go-to.  Bea and Megan are the icing on the cake.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r410762847-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>410762847</t>
+  </si>
+  <si>
+    <t>08/25/2016</t>
+  </si>
+  <si>
+    <t>Great Stay!</t>
+  </si>
+  <si>
+    <t>Nothing like a welcoming smile and pleasant hello after a long day of travel, thank you Bea and Alexa, you guys are so sweet! The staff was great, the ladies making breakfast, the housekeeping, all were fabulous. Very nice room, comfy bed and nicely appointed. My only suggestion would be a few USB ports instead of so many electrical outlets.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r410571128-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>410571128</t>
+  </si>
+  <si>
+    <t>Great place to stay</t>
+  </si>
+  <si>
+    <t>Love staying here on my trips to the DFW area.  Bea always greets me with a BIG smile and always welcomes me back by name. Very clean and a nice liitle bar to unwind. great location to visit all my accounts from FT. Worth to Mesquite</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r408867074-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>408867074</t>
+  </si>
+  <si>
+    <t>08/22/2016</t>
+  </si>
+  <si>
+    <t>Beautiful Hotel and Great Value</t>
+  </si>
+  <si>
+    <t>I would have thought this hotel was brand new; it's 15 months old. Dea (or Bea) at the front desk is a gem. She was totally welcoming and a great provider of first impressions. I am thoroughly impressed with the cleanliness and the quality of furnishings. I spend many nights a month in hotels. This is the first I plan to make a point to revisit.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r406848196-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>406848196</t>
+  </si>
+  <si>
+    <t>08/17/2016</t>
+  </si>
+  <si>
+    <t>Best hotel on the strip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I've been staying here on this hotel row practically every week since April. Courtyard at first until I discovered this Springhill Suites. Still feels new. Clean spacious rooms with decent free breakfast. Could do with a little more variety. (After 20 nights here it gets a bit repetitive.) Most rooms are shower only so if you need a bath tub make sure to ask. I prefer the shower myself. Modern &amp; spacious. Great staff especially Bea. She's quick with a smile and always one to make you feel at home.  </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r398203713-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>398203713</t>
+  </si>
+  <si>
+    <t>07/27/2016</t>
+  </si>
+  <si>
+    <t>Awesome Team</t>
+  </si>
+  <si>
+    <t>Very friendly staff with great customer service. Lindsey, Bea and Alexia were awesome. Hotel was very clean and breakfast was fresh and stocked. I would totally recommend staying at this location and move to number 1 on my list every time I'm in town.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r397892983-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>397892983</t>
+  </si>
+  <si>
+    <t>I stay at this hotel every week and have since the beginning of the year.</t>
+  </si>
+  <si>
+    <t>The girls at the front desk ALWAYS go above and beyond to take care of me.  I especially like dealing with Bea.  Chrissy and Lindsey are very helpful as well.  They make having to stay away from home 4 nights a week enjoyable.Great Job Marriott Springhill Lewisville.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r390041450-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>390041450</t>
+  </si>
+  <si>
+    <t>07/07/2016</t>
+  </si>
+  <si>
+    <t>Comfortable</t>
+  </si>
+  <si>
+    <t>Bea and Nashali are wonderful when you walk through the front door.  They greet you with a smile and make a long day of travel worth it.  Rooms are clean and the bed is comfortable.  Facility has all the amenities you will need for all types of travelers.  This is a brand new hotel and my first choice when I'm in the area for business!MoreShow less</t>
+  </si>
+  <si>
+    <t>Sam D, General Manager at SpringHill Suites Dallas Lewisville, responded to this reviewResponded July 14, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 14, 2016</t>
+  </si>
+  <si>
+    <t>Bea and Nashali are wonderful when you walk through the front door.  They greet you with a smile and make a long day of travel worth it.  Rooms are clean and the bed is comfortable.  Facility has all the amenities you will need for all types of travelers.  This is a brand new hotel and my first choice when I'm in the area for business!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r388437274-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>388437274</t>
+  </si>
+  <si>
+    <t>07/02/2016</t>
+  </si>
+  <si>
+    <t>Horrible management</t>
+  </si>
+  <si>
+    <t>I honestly don't know where to begin. I love Marriott as a company &amp; most of the properties but this one is only nice a first glance. The front desk staff are no help, key card system must not work properly because they had to make a key card three different times. No pool towels, bathroom door locks itself. And to top it all off it seems there's never a manager on siteMoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>I honestly don't know where to begin. I love Marriott as a company &amp; most of the properties but this one is only nice a first glance. The front desk staff are no help, key card system must not work properly because they had to make a key card three different times. No pool towels, bathroom door locks itself. And to top it all off it seems there's never a manager on siteMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r383165089-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>383165089</t>
+  </si>
+  <si>
+    <t>06/16/2016</t>
+  </si>
+  <si>
+    <t>Stay with Softball Team</t>
+  </si>
+  <si>
+    <t>The hotel was nice.  Staff was helpful in setting out cold breakfast stuff early so our team could eat prior to heading to the fields.  My only issue was they gave my room # to someone else at 2a.m. and those people opened and entered my room at 2 a.m.!! The next day I couldn't reenter my room and was told it was assigned to someone else, even though my stuff was in it.  Rather than reassign the room to me (they said that was impossible since the room needed cleaned), they moved me to another room.  Strange inconvenience due to an error on the front desk's part.MoreShow less</t>
+  </si>
+  <si>
+    <t>Nick H, General Manager at SpringHill Suites Dallas Lewisville, responded to this reviewResponded June 19, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 19, 2016</t>
+  </si>
+  <si>
+    <t>The hotel was nice.  Staff was helpful in setting out cold breakfast stuff early so our team could eat prior to heading to the fields.  My only issue was they gave my room # to someone else at 2a.m. and those people opened and entered my room at 2 a.m.!! The next day I couldn't reenter my room and was told it was assigned to someone else, even though my stuff was in it.  Rather than reassign the room to me (they said that was impossible since the room needed cleaned), they moved me to another room.  Strange inconvenience due to an error on the front desk's part.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r382307785-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>382307785</t>
+  </si>
+  <si>
+    <t>06/13/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disappointment </t>
+  </si>
+  <si>
+    <t>We have stayed at multiple Marriott and we're excited to stay at the new Springhill Suites in Lewisville.  We have stayed across the street at the Town Plaza every time we are in town and thought it would be nice to stay at the new property.  Well I must say we have been very disappointed.  First off I was questioned on my Govt ID because it was not TX.  I guess only TX govt employees have business in Lewisville and NM Govt employees don't count.  I have never had that problem ever at any of the multiple Marriott properties I have stayed at.  I was told they would make an exception "this time", which to me meant don't come back again and expect your ID to ever work here again. Second, the toilet seat was about to fall off.  I took it upon myself to fix by tightening the screws because I didn't want nor have the time to wait for a maintenance person to come address. Third, the fan in the bathroom didn't work for the entire trip.  When you are sharing a bathroom with someone, that is an important feature to have.  Forth, the shower door was not put on straight and when taking a shower the water would get out on the floor  causing a potential risk of falling on a wet slippery floor.  Fifth, the door to the bathroom rolls back and forth on rollers to...We have stayed at multiple Marriott and we're excited to stay at the new Springhill Suites in Lewisville.  We have stayed across the street at the Town Plaza every time we are in town and thought it would be nice to stay at the new property.  Well I must say we have been very disappointed.  First off I was questioned on my Govt ID because it was not TX.  I guess only TX govt employees have business in Lewisville and NM Govt employees don't count.  I have never had that problem ever at any of the multiple Marriott properties I have stayed at.  I was told they would make an exception "this time", which to me meant don't come back again and expect your ID to ever work here again. Second, the toilet seat was about to fall off.  I took it upon myself to fix by tightening the screws because I didn't want nor have the time to wait for a maintenance person to come address. Third, the fan in the bathroom didn't work for the entire trip.  When you are sharing a bathroom with someone, that is an important feature to have.  Forth, the shower door was not put on straight and when taking a shower the water would get out on the floor  causing a potential risk of falling on a wet slippery floor.  Fifth, the door to the bathroom rolls back and forth on rollers to open and shut.  It was the hardest door I have ever encountered to try it shut and equally as hard to get open.  If an elderly person were here I am certain they would not be able to operate it at all. Sixth, we decided to enjoy some time at the pool.  It was 2:00 o'clock in the afternoon and there were no towels at all.  I called the front desk and they sent a man that brought one towel and said sorry but all our towels are dirty.  But the worst part of the pool was the multiple globs of gum that people had either spit out or placed on the ground had not been picked up. Nothing like coming up at the edge of the pool and then put your hand right on top of someone's spent gum wad.  Last, there must be a problem with their key system because it crapped out on me three times.  And yes I was carful to keep them separated from my phone.  It gave me good exercise tho I guess. Once walking out the back door to my vehicle only to find I couldn't get back in and had to walk all around the building and twice getting to my room and finding that the key wouldn't work, getting to walk back to the front desk to retrieve another.I stay at multiple Marriott properties and am not going to hold the entire chain responsible for this poorly managed property.  The next time I am in Lewisville, which is 4-5 times a year, I can guarantee I will not be staying at this property while it is under the current management.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>Nick H, General Manager at SpringHill Suites Dallas Lewisville, responded to this reviewResponded June 14, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 14, 2016</t>
+  </si>
+  <si>
+    <t>We have stayed at multiple Marriott and we're excited to stay at the new Springhill Suites in Lewisville.  We have stayed across the street at the Town Plaza every time we are in town and thought it would be nice to stay at the new property.  Well I must say we have been very disappointed.  First off I was questioned on my Govt ID because it was not TX.  I guess only TX govt employees have business in Lewisville and NM Govt employees don't count.  I have never had that problem ever at any of the multiple Marriott properties I have stayed at.  I was told they would make an exception "this time", which to me meant don't come back again and expect your ID to ever work here again. Second, the toilet seat was about to fall off.  I took it upon myself to fix by tightening the screws because I didn't want nor have the time to wait for a maintenance person to come address. Third, the fan in the bathroom didn't work for the entire trip.  When you are sharing a bathroom with someone, that is an important feature to have.  Forth, the shower door was not put on straight and when taking a shower the water would get out on the floor  causing a potential risk of falling on a wet slippery floor.  Fifth, the door to the bathroom rolls back and forth on rollers to...We have stayed at multiple Marriott and we're excited to stay at the new Springhill Suites in Lewisville.  We have stayed across the street at the Town Plaza every time we are in town and thought it would be nice to stay at the new property.  Well I must say we have been very disappointed.  First off I was questioned on my Govt ID because it was not TX.  I guess only TX govt employees have business in Lewisville and NM Govt employees don't count.  I have never had that problem ever at any of the multiple Marriott properties I have stayed at.  I was told they would make an exception "this time", which to me meant don't come back again and expect your ID to ever work here again. Second, the toilet seat was about to fall off.  I took it upon myself to fix by tightening the screws because I didn't want nor have the time to wait for a maintenance person to come address. Third, the fan in the bathroom didn't work for the entire trip.  When you are sharing a bathroom with someone, that is an important feature to have.  Forth, the shower door was not put on straight and when taking a shower the water would get out on the floor  causing a potential risk of falling on a wet slippery floor.  Fifth, the door to the bathroom rolls back and forth on rollers to open and shut.  It was the hardest door I have ever encountered to try it shut and equally as hard to get open.  If an elderly person were here I am certain they would not be able to operate it at all. Sixth, we decided to enjoy some time at the pool.  It was 2:00 o'clock in the afternoon and there were no towels at all.  I called the front desk and they sent a man that brought one towel and said sorry but all our towels are dirty.  But the worst part of the pool was the multiple globs of gum that people had either spit out or placed on the ground had not been picked up. Nothing like coming up at the edge of the pool and then put your hand right on top of someone's spent gum wad.  Last, there must be a problem with their key system because it crapped out on me three times.  And yes I was carful to keep them separated from my phone.  It gave me good exercise tho I guess. Once walking out the back door to my vehicle only to find I couldn't get back in and had to walk all around the building and twice getting to my room and finding that the key wouldn't work, getting to walk back to the front desk to retrieve another.I stay at multiple Marriott properties and am not going to hold the entire chain responsible for this poorly managed property.  The next time I am in Lewisville, which is 4-5 times a year, I can guarantee I will not be staying at this property while it is under the current management.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r381269860-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>381269860</t>
+  </si>
+  <si>
+    <t>06/09/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Makes me feel like home </t>
+  </si>
+  <si>
+    <t>I've been staying here off and on for over a year and can't express how wonderful the staff makes you feel. Have to throw a special shout out to Bea she's amazing and make you feel like you're coming home every time you come through those sliding glass doors. Ashley and Kacl are always so helpful... I will miss you all after this last tripMoreShow less</t>
+  </si>
+  <si>
+    <t>Nick H, General Manager at SpringHill Suites Dallas Lewisville, responded to this reviewResponded June 11, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 11, 2016</t>
+  </si>
+  <si>
+    <t>I've been staying here off and on for over a year and can't express how wonderful the staff makes you feel. Have to throw a special shout out to Bea she's amazing and make you feel like you're coming home every time you come through those sliding glass doors. Ashley and Kacl are always so helpful... I will miss you all after this last tripMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r380410901-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>380410901</t>
+  </si>
+  <si>
+    <t>06/06/2016</t>
+  </si>
+  <si>
+    <t>GREAT HOTEL</t>
+  </si>
+  <si>
+    <t>I recently returned back to the Dallas area and stayed again at the SpringHill Suites in Lewisville.  My first visit was outstanding and I wanted to see if it has changed at all.  It has not... The service and staff are excellent.Breakfast was good ...and the lobby area during the evening provides a place to meet with friends.  The attendant Alexia was very nice and made everyone feel welcomed.Bea at the front desk was also extremely helpful with anything the guests needed.Nick the GM does an outstanding job managing this hotel and you'll not be disappointed.MoreShow less</t>
+  </si>
+  <si>
+    <t>Nick H, General Manager at SpringHill Suites Dallas Lewisville, responded to this reviewResponded June 7, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 7, 2016</t>
+  </si>
+  <si>
+    <t>I recently returned back to the Dallas area and stayed again at the SpringHill Suites in Lewisville.  My first visit was outstanding and I wanted to see if it has changed at all.  It has not... The service and staff are excellent.Breakfast was good ...and the lobby area during the evening provides a place to meet with friends.  The attendant Alexia was very nice and made everyone feel welcomed.Bea at the front desk was also extremely helpful with anything the guests needed.Nick the GM does an outstanding job managing this hotel and you'll not be disappointed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r379204381-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>379204381</t>
+  </si>
+  <si>
+    <t>06/02/2016</t>
+  </si>
+  <si>
+    <t>Great hotel!  Definitely recommend.</t>
+  </si>
+  <si>
+    <t>Great hotel with clean rooms and awesome service!  Bea Talley, Chris and Nick in the front desk welcome you like family and treat you the same.  In fact, one night when I was working on a report for work and needed a drink from the market place in the lobby - but didn't have the time to spare to actually go get it  -  Bea brought it to my door. with a smile   It was SO APPRECIATED!!  Better service than provided by this hotel will be hard to find.MoreShow less</t>
+  </si>
+  <si>
+    <t>Nick H, General Manager at SpringHill Suites Dallas Lewisville, responded to this reviewResponded June 4, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 4, 2016</t>
+  </si>
+  <si>
+    <t>Great hotel with clean rooms and awesome service!  Bea Talley, Chris and Nick in the front desk welcome you like family and treat you the same.  In fact, one night when I was working on a report for work and needed a drink from the market place in the lobby - but didn't have the time to spare to actually go get it  -  Bea brought it to my door. with a smile   It was SO APPRECIATED!!  Better service than provided by this hotel will be hard to find.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r377450155-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>377450155</t>
+  </si>
+  <si>
+    <t>05/28/2016</t>
+  </si>
+  <si>
+    <t>Nice find</t>
+  </si>
+  <si>
+    <t>Yay what a great overnight stay! Used our points to stay and loved how nice and new this hotel was! We had a wedding to go to so stayed here and it was perfect and comfortable. Albeit a bit far from downtown where the wedding was and bad construction from here to downtown-horrid roads but didn't deter from the stay. It was nice and clean. Breakfast ample and quaint. No complaints. Was very comfortable. It was near enough to our friends around this area and church the next day. Great suburbs area, felt safe and great locale and ease to get on the freeway to head out. Will definitely consider staying here again if in this part of Dallas!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>Yay what a great overnight stay! Used our points to stay and loved how nice and new this hotel was! We had a wedding to go to so stayed here and it was perfect and comfortable. Albeit a bit far from downtown where the wedding was and bad construction from here to downtown-horrid roads but didn't deter from the stay. It was nice and clean. Breakfast ample and quaint. No complaints. Was very comfortable. It was near enough to our friends around this area and church the next day. Great suburbs area, felt safe and great locale and ease to get on the freeway to head out. Will definitely consider staying here again if in this part of Dallas!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r376390293-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>376390293</t>
+  </si>
+  <si>
+    <t>05/25/2016</t>
+  </si>
+  <si>
+    <t>Friendly staff, Great breakfast, Very nice comfortable rooms</t>
+  </si>
+  <si>
+    <t>I had a great experience while staying in the area for an extended weekend.  Bea met me at the front desk and was extremely helpful and made me feel right at home.  I had friends staying at the Hampton Inn and Suites next door and they wished they would have stayed at the Springhill Suites because of the A+ treatment the staff at Springhill Suites gave me.  They also have a bar in the main lobby which other hotels in the area did not have.  The rooms are excellent and laid out like no other hotel, very modern and comfortable.  The bed was extremely comfortable and no back pain for me which is unusual. Highly recommend this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>Nick H, General Manager at SpringHill Suites Dallas Lewisville, responded to this reviewResponded May 25, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 25, 2016</t>
+  </si>
+  <si>
+    <t>I had a great experience while staying in the area for an extended weekend.  Bea met me at the front desk and was extremely helpful and made me feel right at home.  I had friends staying at the Hampton Inn and Suites next door and they wished they would have stayed at the Springhill Suites because of the A+ treatment the staff at Springhill Suites gave me.  They also have a bar in the main lobby which other hotels in the area did not have.  The rooms are excellent and laid out like no other hotel, very modern and comfortable.  The bed was extremely comfortable and no back pain for me which is unusual. Highly recommend this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r372681560-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>372681560</t>
+  </si>
+  <si>
+    <t>05/13/2016</t>
+  </si>
+  <si>
+    <t>Okay stay...</t>
+  </si>
+  <si>
+    <t>We stayed at the SpringHill Suites Dallas Lewisville the weekend of April 29th. This would have been my 2nd time staying at a SpringHill Suites. The inside and outside were clean and I, again, liked how spacious the suites were. However, as I was settling in for the night, I noticed a flosser on the floor. Small things like that can change someone's impression of their stay. The bathroom tub looked like there was dirt in it, but it didn't wash off so I am assuming it was rust spots all over the bottom of the tub. I was quite disappointed.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>Nick H, General Manager at SpringHill Suites Dallas Lewisville, responded to this reviewResponded May 15, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 15, 2016</t>
+  </si>
+  <si>
+    <t>We stayed at the SpringHill Suites Dallas Lewisville the weekend of April 29th. This would have been my 2nd time staying at a SpringHill Suites. The inside and outside were clean and I, again, liked how spacious the suites were. However, as I was settling in for the night, I noticed a flosser on the floor. Small things like that can change someone's impression of their stay. The bathroom tub looked like there was dirt in it, but it didn't wash off so I am assuming it was rust spots all over the bottom of the tub. I was quite disappointed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r365775458-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>365775458</t>
+  </si>
+  <si>
+    <t>04/20/2016</t>
+  </si>
+  <si>
+    <t>Well located for business in Lewisville - near freeway and food/shops</t>
+  </si>
+  <si>
+    <t>I had to do some work in Lewisville and was looking for a nice, convenient Marriott to maximize my membership. =)This is a new-looking hotel with friendly staff that were ready for me (checked in via the app) as soon as I walked in.  The lobby was nice but unfortunately I was too late for the bar so I can't comment on that.  The king room was nice with a living area, desk, refrigerator, microwave, coffee maker, etc.  The bathroom with shower was nice as well, and the only knock was that the cleaning person (or previous person?) left a lot of long, brown hairs all over the floor near the sink and toilet area.Not a huge deal, obviously, but a new room should be clean.You're located very close to miscellaneous restaurants and shops (mall) as well as the freeway to get to where you need to go.Otherwise, if you have to work in the Lewisville area, this is a good choice!MoreShow less</t>
+  </si>
+  <si>
+    <t>Nick H, General Manager at SpringHill Suites Dallas Lewisville, responded to this reviewResponded April 27, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 27, 2016</t>
+  </si>
+  <si>
+    <t>I had to do some work in Lewisville and was looking for a nice, convenient Marriott to maximize my membership. =)This is a new-looking hotel with friendly staff that were ready for me (checked in via the app) as soon as I walked in.  The lobby was nice but unfortunately I was too late for the bar so I can't comment on that.  The king room was nice with a living area, desk, refrigerator, microwave, coffee maker, etc.  The bathroom with shower was nice as well, and the only knock was that the cleaning person (or previous person?) left a lot of long, brown hairs all over the floor near the sink and toilet area.Not a huge deal, obviously, but a new room should be clean.You're located very close to miscellaneous restaurants and shops (mall) as well as the freeway to get to where you need to go.Otherwise, if you have to work in the Lewisville area, this is a good choice!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r362387200-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>362387200</t>
+  </si>
+  <si>
+    <t>04/07/2016</t>
+  </si>
+  <si>
+    <t>Business trip made wonderful</t>
+  </si>
+  <si>
+    <t>This hotel is beautiful inside.  Very well decorated and extremely clean.  You can tell the staff is proud of it.  Our room was huge, with a very comfortable king size bed.  The bathroom was spotless.  The suite is very nicely laid out with a good size desk area, a fold out bed that serves as a couch/chaise and a huge closet.  All the amenities you can think of - refrigerator, microwave, hair dryer, iron and ironing board, etc.  Our room was also very quiet.  The breakfast is wonderful with a lot of healthy options.  There is a bar area that offers beer and wine on week nights so you can sit and relax either inside, or outside on the porch area that had a nice fire pit.  I liked that there were canisters for recycle as well as garbage.  My husband was in town for a meeting and I tagged along to visit friends.  His company put us up here and I was so happy they did.  I would stay here again if I am ever in the area.  Highly recommend this wonderful hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>Nick H, General Manager at SpringHill Suites Dallas Lewisville, responded to this reviewResponded April 8, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 8, 2016</t>
+  </si>
+  <si>
+    <t>This hotel is beautiful inside.  Very well decorated and extremely clean.  You can tell the staff is proud of it.  Our room was huge, with a very comfortable king size bed.  The bathroom was spotless.  The suite is very nicely laid out with a good size desk area, a fold out bed that serves as a couch/chaise and a huge closet.  All the amenities you can think of - refrigerator, microwave, hair dryer, iron and ironing board, etc.  Our room was also very quiet.  The breakfast is wonderful with a lot of healthy options.  There is a bar area that offers beer and wine on week nights so you can sit and relax either inside, or outside on the porch area that had a nice fire pit.  I liked that there were canisters for recycle as well as garbage.  My husband was in town for a meeting and I tagged along to visit friends.  His company put us up here and I was so happy they did.  I would stay here again if I am ever in the area.  Highly recommend this wonderful hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r357803982-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>357803982</t>
+  </si>
+  <si>
+    <t>03/23/2016</t>
+  </si>
+  <si>
+    <t>Great Staff and Service</t>
+  </si>
+  <si>
+    <t>My little boys and I traveled to Lewisville Texas to visit my uncle for the weekend.  This hotel was by far the best hotel we have stayed at in a very long time.  The general manger Nick H. was very nice and helpful.  I was amazed with the housekeepers and also the breakfast staff. The room was very clean and modern  with a great view. My 4 year said mommy we can see the whole world from here...lol  Also my little guys enjoyed the bubble wall as we waited for the elevator.  I highly recommend this hotel to anyone that is traveling to the area.  It is kid friendly, close to the mall, department/grocery stores and restaurants. Overall the the staff made us feel welcome and we are looking for forward to our next stay this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>Nick H, General Manager at SpringHill Suites Dallas Lewisville, responded to this reviewResponded March 24, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 24, 2016</t>
+  </si>
+  <si>
+    <t>My little boys and I traveled to Lewisville Texas to visit my uncle for the weekend.  This hotel was by far the best hotel we have stayed at in a very long time.  The general manger Nick H. was very nice and helpful.  I was amazed with the housekeepers and also the breakfast staff. The room was very clean and modern  with a great view. My 4 year said mommy we can see the whole world from here...lol  Also my little guys enjoyed the bubble wall as we waited for the elevator.  I highly recommend this hotel to anyone that is traveling to the area.  It is kid friendly, close to the mall, department/grocery stores and restaurants. Overall the the staff made us feel welcome and we are looking for forward to our next stay this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r357575344-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>357575344</t>
+  </si>
+  <si>
+    <t>03/22/2016</t>
+  </si>
+  <si>
+    <t>Staff Very Helpfull</t>
+  </si>
+  <si>
+    <t>The room is nice and clean . The location is perfect walking distance to the mall.Restaurants and coffee place walking distance too.We had a little problem check in but Claudia was so patient and helped us. We were there last weekend 3/18/16.MoreShow less</t>
+  </si>
+  <si>
+    <t>Nick H, General Manager at SpringHill Suites Dallas Lewisville, responded to this reviewResponded March 23, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 23, 2016</t>
+  </si>
+  <si>
+    <t>The room is nice and clean . The location is perfect walking distance to the mall.Restaurants and coffee place walking distance too.We had a little problem check in but Claudia was so patient and helped us. We were there last weekend 3/18/16.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r356090227-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>356090227</t>
+  </si>
+  <si>
+    <t>03/16/2016</t>
+  </si>
+  <si>
+    <t>Great Service</t>
+  </si>
+  <si>
+    <t>I have been traveling for 29 years. I stay over 60 nights a year in hotels. We stayed recently at the Springhill Suites in Lewisville Texas and their entire staff was extremely friendly and went above an beyond for us. It started with Nick the GM and continued on to Claudia and the remaining front desk staff. Each and every person was incredible! Nick even gave me his dress shirt collar stays because I forgot mine! I would recommend the place just because of that, but also because it was very modern, clean and located around anything you need. Great job all!!MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>Nick H, General Manager at SpringHill Suites Dallas Lewisville, responded to this reviewResponded March 17, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 17, 2016</t>
+  </si>
+  <si>
+    <t>I have been traveling for 29 years. I stay over 60 nights a year in hotels. We stayed recently at the Springhill Suites in Lewisville Texas and their entire staff was extremely friendly and went above an beyond for us. It started with Nick the GM and continued on to Claudia and the remaining front desk staff. Each and every person was incredible! Nick even gave me his dress shirt collar stays because I forgot mine! I would recommend the place just because of that, but also because it was very modern, clean and located around anything you need. Great job all!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r355323919-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>355323919</t>
+  </si>
+  <si>
+    <t>03/14/2016</t>
+  </si>
+  <si>
+    <t>Awesome visit. Very kind clerk.</t>
+  </si>
+  <si>
+    <t>iews5★4★3★2★1★4.410 reviewsRate and reviewJenna Fry2 weeks agoThe rooms are amazing. Clean, stylish, and spacious. My bed was comfortable and the shower was amazing. Front desk staff was friendly and helpful. I enjoyed my stay very much. I would say the breakfast could use some variation. I stayed 3 ...MoreDebora Jonesin the last weekAfter being disappointed with the reservations at another hotel Bea, the front desk clerk was very helpful, kind, and polite. I stayed for 3 nights and every evening she greeted my family with kindness. Marriott you are lucky to have Bea. How you are greeted sets the stage for your stay. She is a great asset to this company. The rooms and the rest of the property was beautiful, clean, very comfortable, spacious, so kid friendly, modern and close enough to everything. Breakfast was hot and good. The waffles and omelets needs to be an everyday item. The bar was a treat every evening. A little pricey but cool to have on sight. Although the property is fairly new and very modern, house keeping needs to give a little more attention (sliding door, vents, shower door trim) to keep this place beautiful. Enjoyed my 1st time visit to the area and this hotel. We are excited about coming back and it will most definitely be to SpringHill Suites Lewisville.MoreShow less</t>
+  </si>
+  <si>
+    <t>Nick H, General Manager at SpringHill Suites Dallas Lewisville, responded to this reviewResponded March 16, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 16, 2016</t>
+  </si>
+  <si>
+    <t>iews5★4★3★2★1★4.410 reviewsRate and reviewJenna Fry2 weeks agoThe rooms are amazing. Clean, stylish, and spacious. My bed was comfortable and the shower was amazing. Front desk staff was friendly and helpful. I enjoyed my stay very much. I would say the breakfast could use some variation. I stayed 3 ...MoreDebora Jonesin the last weekAfter being disappointed with the reservations at another hotel Bea, the front desk clerk was very helpful, kind, and polite. I stayed for 3 nights and every evening she greeted my family with kindness. Marriott you are lucky to have Bea. How you are greeted sets the stage for your stay. She is a great asset to this company. The rooms and the rest of the property was beautiful, clean, very comfortable, spacious, so kid friendly, modern and close enough to everything. Breakfast was hot and good. The waffles and omelets needs to be an everyday item. The bar was a treat every evening. A little pricey but cool to have on sight. Although the property is fairly new and very modern, house keeping needs to give a little more attention (sliding door, vents, shower door trim) to keep this place beautiful. Enjoyed my 1st time visit to the area and this hotel. We are excited about coming back and it will most definitely be to SpringHill Suites Lewisville.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r355145988-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>355145988</t>
+  </si>
+  <si>
+    <t>03/13/2016</t>
+  </si>
+  <si>
+    <t>Great place for a short or long stay in far north Dallas</t>
+  </si>
+  <si>
+    <t>This is an extremely clean and newish hotel. They have free breakfast with scrambled eggs and several other fresh items to start your day off right (and free). Both the lobby and rooms are very stylish with a European boutique feel to it. The rooms are very functional for business with plenty of plugs, strong wifi and a good work station. The beds are the usual high-comfort ones that Marriott is known for. Great staff, easy parking and a great location next to I-35E. The gym is okay for cardio and basic dumbbell work. If you want a better gym, there's an LA Fitness 5-minute walk away. There's a good selection of chain restaurants within a 5-minute drive and the Vista Ridge Mall if you want to do some shopping (walking distance). I highly recommend this place if you want to be in far north Dallas. Getting in to Dallas will take you about 30-45 minutes driving depending on traffic. There's also the light rail if you like public transportation.MoreShow less</t>
+  </si>
+  <si>
+    <t>Nick H, General Manager at SpringHill Suites Dallas Lewisville, responded to this reviewResponded March 14, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 14, 2016</t>
+  </si>
+  <si>
+    <t>This is an extremely clean and newish hotel. They have free breakfast with scrambled eggs and several other fresh items to start your day off right (and free). Both the lobby and rooms are very stylish with a European boutique feel to it. The rooms are very functional for business with plenty of plugs, strong wifi and a good work station. The beds are the usual high-comfort ones that Marriott is known for. Great staff, easy parking and a great location next to I-35E. The gym is okay for cardio and basic dumbbell work. If you want a better gym, there's an LA Fitness 5-minute walk away. There's a good selection of chain restaurants within a 5-minute drive and the Vista Ridge Mall if you want to do some shopping (walking distance). I highly recommend this place if you want to be in far north Dallas. Getting in to Dallas will take you about 30-45 minutes driving depending on traffic. There's also the light rail if you like public transportation.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r354855077-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>354855077</t>
+  </si>
+  <si>
+    <t>03/12/2016</t>
+  </si>
+  <si>
+    <t>Excellent Hotel and Service-- great accomodations for the dollars</t>
+  </si>
+  <si>
+    <t>Recently I reserved several rooms for a group I had visiting.  I chose this hotel for location and had another event where guests came in and  stayed here with a good experience.
+The hotel is newer and located close to chopping, highways and easy access to airports.
+The staff is excellent .  these people should be commended for their service above and beyond expectations and certainly above what is typical at a hotel of this type.
+The General Manager is Nick.  Nick went out of his way to help one particular guest with some personal items he forgot to bring with him.  he also made sue=re that my room got great rooms and maid service during the week they stayed.
+the assistant manager is Chrissy,  I cannot say enough about her friendliness and service.  she really cares about her guests and is in a perfect job in my opinion .  She in other words, is perfect for the position.
+there is also Vini.  she made arrangements the last time I had a group in for my meetings scheduling our meeting room and having help with all our needs.   this time she made sure my guests were all taken care of .  
+All of these people do a great job.  I highly recommend this hotel if visiting Dallas for business or pleasure.
+I will definitely hold my meetings here in the future and continue to recommend this hotel for my guests...Recently I reserved several rooms for a group I had visiting.  I chose this hotel for location and had another event where guests came in and  stayed here with a good experience.The hotel is newer and located close to chopping, highways and easy access to airports.The staff is excellent .  these people should be commended for their service above and beyond expectations and certainly above what is typical at a hotel of this type.The General Manager is Nick.  Nick went out of his way to help one particular guest with some personal items he forgot to bring with him.  he also made sue=re that my room got great rooms and maid service during the week they stayed.the assistant manager is Chrissy,  I cannot say enough about her friendliness and service.  she really cares about her guests and is in a perfect job in my opinion .  She in other words, is perfect for the position.there is also Vini.  she made arrangements the last time I had a group in for my meetings scheduling our meeting room and having help with all our needs.   this time she made sure my guests were all taken care of .  All of these people do a great job.  I highly recommend this hotel if visiting Dallas for business or pleasure.I will definitely hold my meetings here in the future and continue to recommend this hotel for my guests coming inMoreShow less</t>
+  </si>
+  <si>
+    <t>Recently I reserved several rooms for a group I had visiting.  I chose this hotel for location and had another event where guests came in and  stayed here with a good experience.
+The hotel is newer and located close to chopping, highways and easy access to airports.
+The staff is excellent .  these people should be commended for their service above and beyond expectations and certainly above what is typical at a hotel of this type.
+The General Manager is Nick.  Nick went out of his way to help one particular guest with some personal items he forgot to bring with him.  he also made sue=re that my room got great rooms and maid service during the week they stayed.
+the assistant manager is Chrissy,  I cannot say enough about her friendliness and service.  she really cares about her guests and is in a perfect job in my opinion .  She in other words, is perfect for the position.
+there is also Vini.  she made arrangements the last time I had a group in for my meetings scheduling our meeting room and having help with all our needs.   this time she made sure my guests were all taken care of .  
+All of these people do a great job.  I highly recommend this hotel if visiting Dallas for business or pleasure.
+I will definitely hold my meetings here in the future and continue to recommend this hotel for my guests...Recently I reserved several rooms for a group I had visiting.  I chose this hotel for location and had another event where guests came in and  stayed here with a good experience.The hotel is newer and located close to chopping, highways and easy access to airports.The staff is excellent .  these people should be commended for their service above and beyond expectations and certainly above what is typical at a hotel of this type.The General Manager is Nick.  Nick went out of his way to help one particular guest with some personal items he forgot to bring with him.  he also made sue=re that my room got great rooms and maid service during the week they stayed.the assistant manager is Chrissy,  I cannot say enough about her friendliness and service.  she really cares about her guests and is in a perfect job in my opinion .  She in other words, is perfect for the position.there is also Vini.  she made arrangements the last time I had a group in for my meetings scheduling our meeting room and having help with all our needs.   this time she made sure my guests were all taken care of .  All of these people do a great job.  I highly recommend this hotel if visiting Dallas for business or pleasure.I will definitely hold my meetings here in the future and continue to recommend this hotel for my guests coming inMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r352230802-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>352230802</t>
+  </si>
+  <si>
+    <t>03/01/2016</t>
+  </si>
+  <si>
+    <t>I hope you're taller than me</t>
+  </si>
+  <si>
+    <t>New hotel. Clean. Modern. But the bathroom mirror has a giant white stripe in it an it literally runs right across my face. I can't see to put on my makeup. POOR DESIGN by whoever thought this was a good idea. This is me standing in the bathroom.  Really????MoreShow less</t>
+  </si>
+  <si>
+    <t>Nick H, General Manager at SpringHill Suites Dallas Lewisville, responded to this reviewResponded March 2, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 2, 2016</t>
+  </si>
+  <si>
+    <t>New hotel. Clean. Modern. But the bathroom mirror has a giant white stripe in it an it literally runs right across my face. I can't see to put on my makeup. POOR DESIGN by whoever thought this was a good idea. This is me standing in the bathroom.  Really????More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r352178902-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>352178902</t>
+  </si>
+  <si>
+    <t>The One To Stay At In Lewisville</t>
+  </si>
+  <si>
+    <t>I have stayed at many of the hotels in Lewsville's Vista Ridge Mall Dr area. To me this is the one to stay at. The clerk at the front desk was very helpful. Went out of her way to get me on the top floor as I requested. The hotel looked new and was decorated in a very modern style. The suite had a seating area with a very nice work area. There was a bath and a half. The bed was comfortable and the A/C heater worked well. Morning complementary breakfast was well done with a nice assortment of choices.MoreShow less</t>
+  </si>
+  <si>
+    <t>I have stayed at many of the hotels in Lewsville's Vista Ridge Mall Dr area. To me this is the one to stay at. The clerk at the front desk was very helpful. Went out of her way to get me on the top floor as I requested. The hotel looked new and was decorated in a very modern style. The suite had a seating area with a very nice work area. There was a bath and a half. The bed was comfortable and the A/C heater worked well. Morning complementary breakfast was well done with a nice assortment of choices.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r351724740-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>351724740</t>
+  </si>
+  <si>
+    <t>02/28/2016</t>
+  </si>
+  <si>
+    <t>Very Convenient Hotel!</t>
+  </si>
+  <si>
+    <t>This hotel is located by Vista Ridge Mall, very convenient to highways making many parts of the DFW area easily accessible.  You need a car, of course.  I liked that Costco was also a block or two away.  The hotel is newer and stylish.  It was priced as a basic hotel but excelled in friendliness of its staff.  The room was a good size.  It had 2 beds and a separate sitting area with a desk.  It also had separate "rooms" for the toilet and the shower which would come in handy for multiple occupants.  The bedding was comfortable and clean.  I would gladly stay here again!MoreShow less</t>
+  </si>
+  <si>
+    <t>Nick H, General Manager at SpringHill Suites Dallas Lewisville, responded to this reviewResponded March 1, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 1, 2016</t>
+  </si>
+  <si>
+    <t>This hotel is located by Vista Ridge Mall, very convenient to highways making many parts of the DFW area easily accessible.  You need a car, of course.  I liked that Costco was also a block or two away.  The hotel is newer and stylish.  It was priced as a basic hotel but excelled in friendliness of its staff.  The room was a good size.  It had 2 beds and a separate sitting area with a desk.  It also had separate "rooms" for the toilet and the shower which would come in handy for multiple occupants.  The bedding was comfortable and clean.  I would gladly stay here again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r349221363-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>349221363</t>
+  </si>
+  <si>
+    <t>02/19/2016</t>
+  </si>
+  <si>
+    <t>Very Modern Style. Great Staff!!</t>
+  </si>
+  <si>
+    <t>Very crisp and clean feel and look inside. The room has a sliding glass window to the bedroom. Very unique. Outside surrounded by other hotels making late night parking a little issue. The room is great for business travelers. Breakfast each morning was fresh, clean  and ready. No crowds or young kids.MoreShow less</t>
+  </si>
+  <si>
+    <t>Nick H, General Manager at SpringHill Suites Dallas Lewisville, responded to this reviewResponded February 21, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 21, 2016</t>
+  </si>
+  <si>
+    <t>Very crisp and clean feel and look inside. The room has a sliding glass window to the bedroom. Very unique. Outside surrounded by other hotels making late night parking a little issue. The room is great for business travelers. Breakfast each morning was fresh, clean  and ready. No crowds or young kids.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r346184624-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>346184624</t>
+  </si>
+  <si>
+    <t>02/09/2016</t>
+  </si>
+  <si>
+    <t>Great customer service!</t>
+  </si>
+  <si>
+    <t>Brand new hotel with great customer service.  Bekah welcomed me by name and always acknowledges my loyalty and makes me feel welcome.  It is my "go to" hotel in the Lewisville area. Highly recommend this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>Nick H, General Manager at SpringHill Suites Dallas Lewisville, responded to this reviewResponded February 10, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 10, 2016</t>
+  </si>
+  <si>
+    <t>Brand new hotel with great customer service.  Bekah welcomed me by name and always acknowledges my loyalty and makes me feel welcome.  It is my "go to" hotel in the Lewisville area. Highly recommend this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r343637554-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>343637554</t>
+  </si>
+  <si>
+    <t>01/29/2016</t>
+  </si>
+  <si>
+    <t>Beautiful Property</t>
+  </si>
+  <si>
+    <t>Brand New, Clean, Modern Decor, Fantastic Customer Service, Very Pleased With The Room. At the entrance to the hotel they had welcome in about 30 different languages!I highly recommend this hotel to any traveler.MoreShow less</t>
+  </si>
+  <si>
+    <t>Brand New, Clean, Modern Decor, Fantastic Customer Service, Very Pleased With The Room. At the entrance to the hotel they had welcome in about 30 different languages!I highly recommend this hotel to any traveler.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r343397198-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>343397198</t>
+  </si>
+  <si>
+    <t>01/28/2016</t>
+  </si>
+  <si>
+    <t>Great Stay</t>
+  </si>
+  <si>
+    <t>Property was very modern; décor was very contemporary; outside patio &amp; firepit was a big hit for me.  Staff was very friendly, welcoming &amp; responsive to request, questions &amp; concerns.  Room was clean; spacious, very comfortable and had very modern features &amp; décor.  I also appreciated their concern for energy efficiency (lights would turn off if room key was not in slot by door).  Priced economically; well worth the stay.  Highly recommend.MoreShow less</t>
+  </si>
+  <si>
+    <t>Nick H, General Manager at SpringHill Suites Dallas Lewisville, responded to this reviewResponded January 29, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 29, 2016</t>
+  </si>
+  <si>
+    <t>Property was very modern; décor was very contemporary; outside patio &amp; firepit was a big hit for me.  Staff was very friendly, welcoming &amp; responsive to request, questions &amp; concerns.  Room was clean; spacious, very comfortable and had very modern features &amp; décor.  I also appreciated their concern for energy efficiency (lights would turn off if room key was not in slot by door).  Priced economically; well worth the stay.  Highly recommend.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r342605336-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>342605336</t>
+  </si>
+  <si>
+    <t>01/25/2016</t>
+  </si>
+  <si>
+    <t>I love the hotel -- not the water . . .</t>
+  </si>
+  <si>
+    <t>This is a near perfect business hotel -- new, clean, convenient, great customer service, decent gym, free breakfast.  Unfortunately, the water is extremely SOFT and greasy.  I wish management could address this issue.MoreShow less</t>
+  </si>
+  <si>
+    <t>Nick H, General Manager at SpringHill Suites Dallas Lewisville, responded to this reviewResponded January 26, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 26, 2016</t>
+  </si>
+  <si>
+    <t>This is a near perfect business hotel -- new, clean, convenient, great customer service, decent gym, free breakfast.  Unfortunately, the water is extremely SOFT and greasy.  I wish management could address this issue.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r339269915-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>339269915</t>
+  </si>
+  <si>
+    <t>01/11/2016</t>
+  </si>
+  <si>
+    <t>Exceptional customer service</t>
+  </si>
+  <si>
+    <t>I had a great stay in Lewisville. Dominique provided exceptional customer service. She knew I was tired and just wanted to get back to the hotel. She provided shuttle services from where I was working and offered recommendations on where to grab dinner. Then, instead of dropping me off at the hotel, she took me to a restaurant and waited while I ran in to grab some takeout. Great service!MoreShow less</t>
+  </si>
+  <si>
+    <t>I had a great stay in Lewisville. Dominique provided exceptional customer service. She knew I was tired and just wanted to get back to the hotel. She provided shuttle services from where I was working and offered recommendations on where to grab dinner. Then, instead of dropping me off at the hotel, she took me to a restaurant and waited while I ran in to grab some takeout. Great service!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r334290945-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>334290945</t>
+  </si>
+  <si>
+    <t>12/21/2015</t>
+  </si>
+  <si>
+    <t>Great Clean Hotel</t>
+  </si>
+  <si>
+    <t>Its not in the downtown area of Dallas but there are plenty of restaurants within walking distance if you don't mind walking a half mile. The property is new and clean and the room decor kinda chic. The bathroom is a bit too close to the bed and the TV is off center from the bed if you like to watch TV in bed its kinda awkward. The staff was great and friendly and very helpful and parking was plentiful and free and you're close to the highway so getting to where you need to go does not take long.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>Nick H, General Manager at SpringHill Suites Dallas Lewisville, responded to this reviewResponded December 28, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 28, 2015</t>
+  </si>
+  <si>
+    <t>Its not in the downtown area of Dallas but there are plenty of restaurants within walking distance if you don't mind walking a half mile. The property is new and clean and the room decor kinda chic. The bathroom is a bit too close to the bed and the TV is off center from the bed if you like to watch TV in bed its kinda awkward. The staff was great and friendly and very helpful and parking was plentiful and free and you're close to the highway so getting to where you need to go does not take long.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r332337800-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>332337800</t>
+  </si>
+  <si>
+    <t>12/12/2015</t>
+  </si>
+  <si>
+    <t>One of the nicest hotels ever</t>
+  </si>
+  <si>
+    <t>One of the best cheap/moderate priced hotels I've ever stayed in. It had a very clean lobby and rooms, everything was modern and nice looking inside and out, fire pit and pool outside, great gym with modern/new equipment and office computers with free internet and printing. Breakfast was outstanding and their was a lot to choose from. If I am ever in Dallas again I will stay here again without even thinking twice. It's worth the drive up from the airport (15-20 min).Only complaints is that the breakfast should have more healthy selections, but its not a big deal since its free. Also my room, the door frame was sticking out and I wasn't able to lock and close the door all the way. The wood needs to be trimmed down so it can fit in the slot, I tried pulling it up and theirs no room.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>Nick H, General Manager at SpringHill Suites Dallas Lewisville, responded to this reviewResponded December 13, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 13, 2015</t>
+  </si>
+  <si>
+    <t>One of the best cheap/moderate priced hotels I've ever stayed in. It had a very clean lobby and rooms, everything was modern and nice looking inside and out, fire pit and pool outside, great gym with modern/new equipment and office computers with free internet and printing. Breakfast was outstanding and their was a lot to choose from. If I am ever in Dallas again I will stay here again without even thinking twice. It's worth the drive up from the airport (15-20 min).Only complaints is that the breakfast should have more healthy selections, but its not a big deal since its free. Also my room, the door frame was sticking out and I wasn't able to lock and close the door all the way. The wood needs to be trimmed down so it can fit in the slot, I tried pulling it up and theirs no room.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r331913117-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>331913117</t>
+  </si>
+  <si>
+    <t>12/10/2015</t>
+  </si>
+  <si>
+    <t>Better than expected.</t>
+  </si>
+  <si>
+    <t>When searching online for moderately price hotel in the area this car up with three stars on another website. Well I can only say it was wrong. I enjoyed my stay other than a broken elevator which was a bit of an inconvenience when in a hurry, but that's what stairs are for right? Clean comfortable rooms and a courteous staff. Good location with many restaurants to choose from. Some construction on the access road to 35 but as long as you avoid rush hour or know back ways in and out its no big deal. I will be back to Lewisville in the coming months I am sure and I will stay here again...MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>Nick H, General Manager at SpringHill Suites Dallas Lewisville, responded to this reviewResponded December 12, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 12, 2015</t>
+  </si>
+  <si>
+    <t>When searching online for moderately price hotel in the area this car up with three stars on another website. Well I can only say it was wrong. I enjoyed my stay other than a broken elevator which was a bit of an inconvenience when in a hurry, but that's what stairs are for right? Clean comfortable rooms and a courteous staff. Good location with many restaurants to choose from. Some construction on the access road to 35 but as long as you avoid rush hour or know back ways in and out its no big deal. I will be back to Lewisville in the coming months I am sure and I will stay here again...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r329845696-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>329845696</t>
+  </si>
+  <si>
+    <t>11/29/2015</t>
+  </si>
+  <si>
+    <t>Thanksgiving Trip</t>
+  </si>
+  <si>
+    <t>My family and I traveled to Texas to visit family for the holidays, and this was a great place to stay with an amazing lobby and workers. It was very clean and very modern,  I would recommend it for anyone coming through town. Chrissy at the desk was awesome helping with anything you needed help with.MoreShow less</t>
+  </si>
+  <si>
+    <t>Nick H, General Manager at SpringHill Suites Dallas Lewisville, responded to this reviewResponded December 2, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 2, 2015</t>
+  </si>
+  <si>
+    <t>My family and I traveled to Texas to visit family for the holidays, and this was a great place to stay with an amazing lobby and workers. It was very clean and very modern,  I would recommend it for anyone coming through town. Chrissy at the desk was awesome helping with anything you needed help with.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r329702204-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>329702204</t>
+  </si>
+  <si>
+    <t>Modern, Clean, New and Friendly Service</t>
+  </si>
+  <si>
+    <t>There are a lot of hotels in the small area off 35E, but this one really stands out. Upon entering you will see the modern, newness of this Marriott property. The staff is very friendly and helpful. The modern theme is carried into the rooms and I really like that they use the card key to power the room when you enter, thus saving energy. Excellent bed and plenty of plugs around the room for your electronics!I think this is probably my first stay at a SpringHill Suites, but it will not be my last.MoreShow less</t>
+  </si>
+  <si>
+    <t>Nick H, General Manager at SpringHill Suites Dallas Lewisville, responded to this reviewResponded November 30, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 30, 2015</t>
+  </si>
+  <si>
+    <t>There are a lot of hotels in the small area off 35E, but this one really stands out. Upon entering you will see the modern, newness of this Marriott property. The staff is very friendly and helpful. The modern theme is carried into the rooms and I really like that they use the card key to power the room when you enter, thus saving energy. Excellent bed and plenty of plugs around the room for your electronics!I think this is probably my first stay at a SpringHill Suites, but it will not be my last.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r326912222-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>326912222</t>
+  </si>
+  <si>
+    <t>11/15/2015</t>
+  </si>
+  <si>
+    <t>Great clean and shiny new, but be aware of the toll roads.</t>
+  </si>
+  <si>
+    <t>This is a brand new hotel with a great breakfast and workout room.  There were conference and meeting rooms available and there were a couple of businesses having their meetings there the week I stayed. The toilet and shower were in separate rooms in the double queen room in which I stayed.  The hotel is next to several restaurants and between Dallas and Ft. Worth if you have business in both, which I did when I stayed here in October of 2015.  Be aware that there are many toll roads around so if you can travel in a rental that will help you avoid the annoying fees you'll be mailed.MoreShow less</t>
+  </si>
+  <si>
+    <t>Nick H, General Manager at SpringHill Suites Dallas Lewisville, responded to this reviewResponded November 16, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 16, 2015</t>
+  </si>
+  <si>
+    <t>This is a brand new hotel with a great breakfast and workout room.  There were conference and meeting rooms available and there were a couple of businesses having their meetings there the week I stayed. The toilet and shower were in separate rooms in the double queen room in which I stayed.  The hotel is next to several restaurants and between Dallas and Ft. Worth if you have business in both, which I did when I stayed here in October of 2015.  Be aware that there are many toll roads around so if you can travel in a rental that will help you avoid the annoying fees you'll be mailed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r321244855-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>321244855</t>
+  </si>
+  <si>
+    <t>10/23/2015</t>
+  </si>
+  <si>
+    <t>Awesome Service/Stay</t>
+  </si>
+  <si>
+    <t>This is one of the best hotels I have been in. Clean rooms, clean sheets, clean bathroom and great room all around. The staff is very helpful and eager to listen. Bekah Wilburn (front counter) was very helpful with places to eat and eager to please. We had our reservation but it was not entered correctly by Booking.com. She fixed it without question and honored the quoted price that was printed prior to arrival. When we come back to the area I am staying here again with out a doubt. Best place to stay for a darn good price.MoreShow less</t>
+  </si>
+  <si>
+    <t>Nick H, General Manager at SpringHill Suites Dallas Lewisville, responded to this reviewResponded October 25, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 25, 2015</t>
+  </si>
+  <si>
+    <t>This is one of the best hotels I have been in. Clean rooms, clean sheets, clean bathroom and great room all around. The staff is very helpful and eager to listen. Bekah Wilburn (front counter) was very helpful with places to eat and eager to please. We had our reservation but it was not entered correctly by Booking.com. She fixed it without question and honored the quoted price that was printed prior to arrival. When we come back to the area I am staying here again with out a doubt. Best place to stay for a darn good price.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r320951551-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>320951551</t>
+  </si>
+  <si>
+    <t>10/22/2015</t>
+  </si>
+  <si>
+    <t>Great stay</t>
+  </si>
+  <si>
+    <t>Room was really bigger than what I needed and very nicely appointed.  I heard someone say it just opened this year.  I had 2 queen beds, sitting area with a couch and desk with office chair, fridge, water closet with sink separate from bathtub/shower with sink.Lobby was nice.  There was also a nice outdoor area with what looked like a gas firepit.Bea that worked the front desk on 10/20 was helpful and very engaging.MoreShow less</t>
+  </si>
+  <si>
+    <t>Nick H, General Manager at SpringHill Suites Dallas Lewisville, responded to this reviewResponded October 23, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 23, 2015</t>
+  </si>
+  <si>
+    <t>Room was really bigger than what I needed and very nicely appointed.  I heard someone say it just opened this year.  I had 2 queen beds, sitting area with a couch and desk with office chair, fridge, water closet with sink separate from bathtub/shower with sink.Lobby was nice.  There was also a nice outdoor area with what looked like a gas firepit.Bea that worked the front desk on 10/20 was helpful and very engaging.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r320805341-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>320805341</t>
+  </si>
+  <si>
+    <t>10/21/2015</t>
+  </si>
+  <si>
+    <t>Excellent</t>
+  </si>
+  <si>
+    <t>I can't say enough for the management and staff. Super engaged and caring. Dominique and Chrissy were great. Really enjoyed my stay here. The bar is really great and actually has some local brews on tap. Great location with lots of decent restaurant choices around. MoreShow less</t>
+  </si>
+  <si>
+    <t>I can't say enough for the management and staff. Super engaged and caring. Dominique and Chrissy were great. Really enjoyed my stay here. The bar is really great and actually has some local brews on tap. Great location with lots of decent restaurant choices around. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r318669308-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>318669308</t>
+  </si>
+  <si>
+    <t>10/14/2015</t>
+  </si>
+  <si>
+    <t>Well appointed SpringHill Suites</t>
+  </si>
+  <si>
+    <t>Great setup in the lobby, friendly staff, and a room that was very clean.  I was upgraded for unknown reasons to a family suite which had two double beds in a room that was off the sitting area of another full room with a king.  Bathroom was oddly split into a small powder room (toilet and mini-sink) and shower room with standard sink (no toilet).MoreShow less</t>
+  </si>
+  <si>
+    <t>Nick H, General Manager at SpringHill Suites Dallas Lewisville, responded to this reviewResponded October 16, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 16, 2015</t>
+  </si>
+  <si>
+    <t>Great setup in the lobby, friendly staff, and a room that was very clean.  I was upgraded for unknown reasons to a family suite which had two double beds in a room that was off the sitting area of another full room with a king.  Bathroom was oddly split into a small powder room (toilet and mini-sink) and shower room with standard sink (no toilet).More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r316917666-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>316917666</t>
+  </si>
+  <si>
+    <t>10/07/2015</t>
+  </si>
+  <si>
+    <t>Business</t>
+  </si>
+  <si>
+    <t>Everything top notch.. New hotel ! spotless and professional. The front desk was especially helpful. Claudia went out of her way to make my experience memorable. I will be coming back every time I am in Dallas.MoreShow less</t>
+  </si>
+  <si>
+    <t>Nick H, General Manager at SpringHill Suites Dallas Lewisville, responded to this reviewResponded October 9, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 9, 2015</t>
+  </si>
+  <si>
+    <t>Everything top notch.. New hotel ! spotless and professional. The front desk was especially helpful. Claudia went out of her way to make my experience memorable. I will be coming back every time I am in Dallas.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r315444912-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>315444912</t>
+  </si>
+  <si>
+    <t>10/01/2015</t>
+  </si>
+  <si>
+    <t>Beautifully Designed New Hotel</t>
+  </si>
+  <si>
+    <t>Where do I began. The rooms are very nice and spacious. My brother and I was visiting from New York and stayed here for 2 nights. The hotel is located in a quiet area and looks amazing. The hotel is filled with Modern Décor and is wonderful. Beautiful lobby and nice staff. I would definitely stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>Nick H, General Manager at SpringHill Suites Dallas Lewisville, responded to this reviewResponded October 6, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 6, 2015</t>
+  </si>
+  <si>
+    <t>Where do I began. The rooms are very nice and spacious. My brother and I was visiting from New York and stayed here for 2 nights. The hotel is located in a quiet area and looks amazing. The hotel is filled with Modern Décor and is wonderful. Beautiful lobby and nice staff. I would definitely stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r313326518-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>313326518</t>
+  </si>
+  <si>
+    <t>09/24/2015</t>
+  </si>
+  <si>
+    <t>Very nice hotel, contemporary and comfortable</t>
+  </si>
+  <si>
+    <t>Staff is great, we were able to check in early so that we could change.  I wish the hotel would consider extending the breakfast ours an extra 30 minutes on weekends, they promptly cleaned up everything at 9:30 am.  For guests that like to sleep in a little bit on Saturday or Sunday morning, that means you need to hustle and get up quick to avail yourself of the complimentary breakfast.Bathroom doors are opaque glass, looks great but when you are a light sleeper and a family member gets up to use the bathroom late at night, turning on the lights in the bathroom is irritating...MoreShow less</t>
+  </si>
+  <si>
+    <t>Nick H, General Manager at SpringHill Suites Dallas Lewisville, responded to this reviewResponded September 25, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 25, 2015</t>
+  </si>
+  <si>
+    <t>Staff is great, we were able to check in early so that we could change.  I wish the hotel would consider extending the breakfast ours an extra 30 minutes on weekends, they promptly cleaned up everything at 9:30 am.  For guests that like to sleep in a little bit on Saturday or Sunday morning, that means you need to hustle and get up quick to avail yourself of the complimentary breakfast.Bathroom doors are opaque glass, looks great but when you are a light sleeper and a family member gets up to use the bathroom late at night, turning on the lights in the bathroom is irritating...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r311345969-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>311345969</t>
+  </si>
+  <si>
+    <t>09/17/2015</t>
+  </si>
+  <si>
+    <t>Fantastic Hotel, Great Staff, Delicious Breakfast!!!</t>
+  </si>
+  <si>
+    <t>I recently stayed at this brand new Springhill Suites location for my cousin's wedding nearby. Having recently gotten married the month before, I wanted this to go very smoothly for my wife and I. From start to finish we had a great experience. The receptionist was very welcoming and even offered to show me around. I picked up a USA newspaper, my favorite amenity of Marriott hotels, and headed up to my room. In the lobby are 3 very large, probably 50", flat screen tvs all connected, that are completely touchscreen. These can play Pandora radio, tell about the weather, and other cool stuff. My room, on the top floor as requested, was spotless. Everything was very modern and clean. My room got very cold very quickly when I turned down the thermostat. This was a big plus as I was staying during one of the hottest weekends of the year. The next morning I checked out using my mobile Marriott App on my phone and went downstairs to eat breakfast with my wife. It was delicious, hot, and fresh. We will certainly be back to this location! I rate it at 100%! SUPER crazy close to the mall. I could connect very easily to the wi-fi from my room as well.MoreShow less</t>
+  </si>
+  <si>
+    <t>Nick H, General Manager at SpringHill Suites Dallas Lewisville, responded to this reviewResponded September 18, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 18, 2015</t>
+  </si>
+  <si>
+    <t>I recently stayed at this brand new Springhill Suites location for my cousin's wedding nearby. Having recently gotten married the month before, I wanted this to go very smoothly for my wife and I. From start to finish we had a great experience. The receptionist was very welcoming and even offered to show me around. I picked up a USA newspaper, my favorite amenity of Marriott hotels, and headed up to my room. In the lobby are 3 very large, probably 50", flat screen tvs all connected, that are completely touchscreen. These can play Pandora radio, tell about the weather, and other cool stuff. My room, on the top floor as requested, was spotless. Everything was very modern and clean. My room got very cold very quickly when I turned down the thermostat. This was a big plus as I was staying during one of the hottest weekends of the year. The next morning I checked out using my mobile Marriott App on my phone and went downstairs to eat breakfast with my wife. It was delicious, hot, and fresh. We will certainly be back to this location! I rate it at 100%! SUPER crazy close to the mall. I could connect very easily to the wi-fi from my room as well.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r311125726-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>311125726</t>
+  </si>
+  <si>
+    <t>09/16/2015</t>
+  </si>
+  <si>
+    <t>Outstanding in All Respects</t>
+  </si>
+  <si>
+    <t>I travel frequently and this was my first stay at a SpringHill Suites hotel. It was my best new hotel experience in over a decade. Staff were very friendly and exceptionally helpful (Bea, Ryan, Amy, Dominique, Bekah and many others)The following were also exceptional: room design (excellent design for business, family or both), room comfort, room amenities, sound isolation (very quiet), cleanliness, housekeeping, hotel facilities, parking, location (easy access to restaurants, malls, local activities), easy access to other parts of Dallas metropolitan area by highways and main thoroughfares; all at an affordable price and an outstanding value. I mentioned room design above from a functional standpoint, but the design aesthetics of the hotel and the rooms also add substantially to the experience: creative, tasteful and pleasing. A side-lit etched glass welcome in dozens of languages at the entrance kind of says it all; it is a wonderful place to stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>Nick H, General Manager at SpringHill Suites Dallas Lewisville, responded to this reviewResponded September 17, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 17, 2015</t>
+  </si>
+  <si>
+    <t>I travel frequently and this was my first stay at a SpringHill Suites hotel. It was my best new hotel experience in over a decade. Staff were very friendly and exceptionally helpful (Bea, Ryan, Amy, Dominique, Bekah and many others)The following were also exceptional: room design (excellent design for business, family or both), room comfort, room amenities, sound isolation (very quiet), cleanliness, housekeeping, hotel facilities, parking, location (easy access to restaurants, malls, local activities), easy access to other parts of Dallas metropolitan area by highways and main thoroughfares; all at an affordable price and an outstanding value. I mentioned room design above from a functional standpoint, but the design aesthetics of the hotel and the rooms also add substantially to the experience: creative, tasteful and pleasing. A side-lit etched glass welcome in dozens of languages at the entrance kind of says it all; it is a wonderful place to stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r308285021-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>308285021</t>
+  </si>
+  <si>
+    <t>09/08/2015</t>
+  </si>
+  <si>
+    <t>Outshined Stay!</t>
+  </si>
+  <si>
+    <t>Our visit at this location for our stay on Saturday, August 15, 2015 certainly outshined our first stay. Friday, August 14, 2015, I contacted the hotel in efforts to inform them that I had a complimentary certificate that we would be using for the next night’s stay and I wanted to ensure that it was reflected in the system. Amy was the representative whom answered the phone at the Spring Hill Suites, Lewisville location and she assured me that she would notate the rate in the system to ensure we did not get charged for the night. She succeeded as there were NO errors with our stay from the financial perspective. 
+When we arrived at the hotel, immediately upon walking in, Stanley greeted me with a warm welcome. He recognized me from our last stay and addressed me by name upon my entrance. This gave for a warm feeling as it was good to know that even though we had some concerns with our last stay, staying here again was not going to be an issue. As I approached the counter, Stanley placed a beautiful gift basket on top of the counter with a note. My mouth dropped as I was extremely surprised and even more surprised when he informed me of who had put it together: AMY! (Thank you so much Amy as the gift basket was lovely). I asked for her so that I could thank her in...Our visit at this location for our stay on Saturday, August 15, 2015 certainly outshined our first stay. Friday, August 14, 2015, I contacted the hotel in efforts to inform them that I had a complimentary certificate that we would be using for the next night’s stay and I wanted to ensure that it was reflected in the system. Amy was the representative whom answered the phone at the Spring Hill Suites, Lewisville location and she assured me that she would notate the rate in the system to ensure we did not get charged for the night. She succeeded as there were NO errors with our stay from the financial perspective. When we arrived at the hotel, immediately upon walking in, Stanley greeted me with a warm welcome. He recognized me from our last stay and addressed me by name upon my entrance. This gave for a warm feeling as it was good to know that even though we had some concerns with our last stay, staying here again was not going to be an issue. As I approached the counter, Stanley placed a beautiful gift basket on top of the counter with a note. My mouth dropped as I was extremely surprised and even more surprised when he informed me of who had put it together: AMY! (Thank you so much Amy as the gift basket was lovely). I asked for her so that I could thank her in person, but she had already left for the day. Stanley then completed our check-in and gave me the keys and said that he was going to go up to the 6th floor to check on our room and place our gift basket in there. My family and I proceeded to the back of the building where we parked and entered in through the back door. Everything surrounding the parking lot and entrance appeared clean and safe for a great stay. We proceeded up to the 6th floor to our room and were able to relax. There were some cleanliness issues with the bathrooms which I did address with Stanley and another lady at the front desk during our stay. They both said that they would address those with the housekeeping staff. But our overall stay was certainly a whole lot more pleasant this time around, and because of the desire to continuously better themselves for their customers....I would definitely recommend this Springhill Suites, Lewisville to friends and family.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>Nick H, General Manager at SpringHill Suites Dallas Lewisville, responded to this reviewResponded September 10, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 10, 2015</t>
+  </si>
+  <si>
+    <t>Our visit at this location for our stay on Saturday, August 15, 2015 certainly outshined our first stay. Friday, August 14, 2015, I contacted the hotel in efforts to inform them that I had a complimentary certificate that we would be using for the next night’s stay and I wanted to ensure that it was reflected in the system. Amy was the representative whom answered the phone at the Spring Hill Suites, Lewisville location and she assured me that she would notate the rate in the system to ensure we did not get charged for the night. She succeeded as there were NO errors with our stay from the financial perspective. 
+When we arrived at the hotel, immediately upon walking in, Stanley greeted me with a warm welcome. He recognized me from our last stay and addressed me by name upon my entrance. This gave for a warm feeling as it was good to know that even though we had some concerns with our last stay, staying here again was not going to be an issue. As I approached the counter, Stanley placed a beautiful gift basket on top of the counter with a note. My mouth dropped as I was extremely surprised and even more surprised when he informed me of who had put it together: AMY! (Thank you so much Amy as the gift basket was lovely). I asked for her so that I could thank her in...Our visit at this location for our stay on Saturday, August 15, 2015 certainly outshined our first stay. Friday, August 14, 2015, I contacted the hotel in efforts to inform them that I had a complimentary certificate that we would be using for the next night’s stay and I wanted to ensure that it was reflected in the system. Amy was the representative whom answered the phone at the Spring Hill Suites, Lewisville location and she assured me that she would notate the rate in the system to ensure we did not get charged for the night. She succeeded as there were NO errors with our stay from the financial perspective. When we arrived at the hotel, immediately upon walking in, Stanley greeted me with a warm welcome. He recognized me from our last stay and addressed me by name upon my entrance. This gave for a warm feeling as it was good to know that even though we had some concerns with our last stay, staying here again was not going to be an issue. As I approached the counter, Stanley placed a beautiful gift basket on top of the counter with a note. My mouth dropped as I was extremely surprised and even more surprised when he informed me of who had put it together: AMY! (Thank you so much Amy as the gift basket was lovely). I asked for her so that I could thank her in person, but she had already left for the day. Stanley then completed our check-in and gave me the keys and said that he was going to go up to the 6th floor to check on our room and place our gift basket in there. My family and I proceeded to the back of the building where we parked and entered in through the back door. Everything surrounding the parking lot and entrance appeared clean and safe for a great stay. We proceeded up to the 6th floor to our room and were able to relax. There were some cleanliness issues with the bathrooms which I did address with Stanley and another lady at the front desk during our stay. They both said that they would address those with the housekeeping staff. But our overall stay was certainly a whole lot more pleasant this time around, and because of the desire to continuously better themselves for their customers....I would definitely recommend this Springhill Suites, Lewisville to friends and family.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r305869894-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>305869894</t>
+  </si>
+  <si>
+    <t>09/01/2015</t>
+  </si>
+  <si>
+    <t>New Property, close to mall restraurants</t>
+  </si>
+  <si>
+    <t>When staying in Lewisville, you have a great selection of hotels within walking distance.  Most Marriott brands are represented (with the exception of an actual Marriott or their premier hotels).  The Courtyard and Fairfield are the oldest, with the Springhill Suites the newest property (followed by Town Place Suites and Residence Inn).  I really like the staff at the Town Place Suites (they have periodic activities the evening), however the Springhill Suites is my second choice due to it being new and very, very large rooms (it has a very modern feel).  You won't be disappointed  (and the included breakfast was very good).MoreShow less</t>
+  </si>
+  <si>
+    <t>Nick H, General Manager at SpringHill Suites Dallas Lewisville, responded to this reviewResponded September 3, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 3, 2015</t>
+  </si>
+  <si>
+    <t>When staying in Lewisville, you have a great selection of hotels within walking distance.  Most Marriott brands are represented (with the exception of an actual Marriott or their premier hotels).  The Courtyard and Fairfield are the oldest, with the Springhill Suites the newest property (followed by Town Place Suites and Residence Inn).  I really like the staff at the Town Place Suites (they have periodic activities the evening), however the Springhill Suites is my second choice due to it being new and very, very large rooms (it has a very modern feel).  You won't be disappointed  (and the included breakfast was very good).More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r305520251-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>305520251</t>
+  </si>
+  <si>
+    <t>08/31/2015</t>
+  </si>
+  <si>
+    <t>No Two Stays are the Same</t>
+  </si>
+  <si>
+    <t>My room was dirty, had not been vacuumed, there was hair on the bathroom floor, an almond and the sheets on the bed along with the pillow casings smelled less than fresh. I asked for replacements which came promptly but the gentleman didn't know what to do with them so I simply asked him to leave them and I took care He took a bewildered look around the room as I pointed out the issues; no apology and he left. The lady at the desk was very friendly and cordial throughout the ordeal and offered to help; I just wanted to unwind my day and move on. The other thing, since the AC is motion controlled, the room was hot and took about an hour to get to an agreeable temperature. The hotel is new and nice, however, they need to get the cleaning staff up to speed on Marriott expectations.MoreShow less</t>
+  </si>
+  <si>
+    <t>My room was dirty, had not been vacuumed, there was hair on the bathroom floor, an almond and the sheets on the bed along with the pillow casings smelled less than fresh. I asked for replacements which came promptly but the gentleman didn't know what to do with them so I simply asked him to leave them and I took care He took a bewildered look around the room as I pointed out the issues; no apology and he left. The lady at the desk was very friendly and cordial throughout the ordeal and offered to help; I just wanted to unwind my day and move on. The other thing, since the AC is motion controlled, the room was hot and took about an hour to get to an agreeable temperature. The hotel is new and nice, however, they need to get the cleaning staff up to speed on Marriott expectations.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r295382491-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>295382491</t>
+  </si>
+  <si>
+    <t>08/03/2015</t>
+  </si>
+  <si>
+    <t>Located right next door from Costco and Mall</t>
+  </si>
+  <si>
+    <t>Loved the fact that the hotel is trying to save energy by  equipping the rooms with a gadget that once you place your room key in it, activates the power in your room. Our room was very spacious  with a pull out couch, comfortable king size bed, refrigerator, microwave and a pretty big size bathroom. Downside: the coffee  machine is tiny.Daily breakfast buffet is fully stocked with fresh fruits and muffins, scrambled eggs and an array of sausages/patties. On weekends you get to make Texas shaped waffles! ! Gotta make a shoutout to Mr.Juan. We missed Sunday's  breakfast with very hungry kids,he took plates out and helped to make waffles and plate  some eggs.  Made my kids very happy and us grateful! ! Thank you! !!Breakfast time downside: coffee is very weak. Pool was very clean, chairs neatly arranged with extra towels. Front desk was very friendly and attentive.One of the maintenance guys was very disappointing. After making us wait two consecutive days (morning to noon) for him to come fix a small issue in our room he never showed up. The front desk offered to move us to another room which we declined (at that point was too hard on us)Regardless, we did love our stay, definitely return again!MoreShow less</t>
+  </si>
+  <si>
+    <t>Nick H, General Manager at SpringHill Suites Dallas Lewisville, responded to this reviewResponded September 7, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 7, 2015</t>
+  </si>
+  <si>
+    <t>Loved the fact that the hotel is trying to save energy by  equipping the rooms with a gadget that once you place your room key in it, activates the power in your room. Our room was very spacious  with a pull out couch, comfortable king size bed, refrigerator, microwave and a pretty big size bathroom. Downside: the coffee  machine is tiny.Daily breakfast buffet is fully stocked with fresh fruits and muffins, scrambled eggs and an array of sausages/patties. On weekends you get to make Texas shaped waffles! ! Gotta make a shoutout to Mr.Juan. We missed Sunday's  breakfast with very hungry kids,he took plates out and helped to make waffles and plate  some eggs.  Made my kids very happy and us grateful! ! Thank you! !!Breakfast time downside: coffee is very weak. Pool was very clean, chairs neatly arranged with extra towels. Front desk was very friendly and attentive.One of the maintenance guys was very disappointing. After making us wait two consecutive days (morning to noon) for him to come fix a small issue in our room he never showed up. The front desk offered to move us to another room which we declined (at that point was too hard on us)Regardless, we did love our stay, definitely return again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r292421745-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>292421745</t>
+  </si>
+  <si>
+    <t>07/25/2015</t>
+  </si>
+  <si>
+    <t>New and Wonderful  - Marriott Does It Again</t>
+  </si>
+  <si>
+    <t>The Hotel is new and has a modern feel. Lobby and lounge area are enjoyable. Great customer service by staff, friendly and accommodating from the time I arrived.  Really nice rooms as pictured, clean and eco-friendly. Overall nice place to stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>The Hotel is new and has a modern feel. Lobby and lounge area are enjoyable. Great customer service by staff, friendly and accommodating from the time I arrived.  Really nice rooms as pictured, clean and eco-friendly. Overall nice place to stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r291913469-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>291913469</t>
+  </si>
+  <si>
+    <t>07/23/2015</t>
+  </si>
+  <si>
+    <t>Hot Night At Spring Hill Suites</t>
+  </si>
+  <si>
+    <t>My family and I had reservations to stay at the Spring Hill Suites Dallas Lewisville hotel checking in Monday, July 13, 2015 and checking out July 14, 2015. Upon making my reservations I specifically checked the box for “requesting an early check in,” because my family and I were traveling from Odessa, Texas (which is five hours away), and we were uncertain for what time we would be arriving at the hotel on the 14th.
+My family and I arrived at the hotel July 13th on or around 1 p.m. At this time there was a young lady by the name of Amy who was working the front desk. I told her my name and let her know that I was there to check in and that I had requested an early check in. I also informed her that the day before our arrival, I had contacted the hotel in efforts to ensure that an early check in would be okay. Amy informed me that they don’t allow early check-ins at this hotel. I was extremely confused considering I had just spoken to a rep the day before to confirm this matter. After sticking around for a few minutes she informed me that she found us a room and she gave us the keys for it. At that time I asked her could she please provide us with a map and a list of eateries in the area so that...My family and I had reservations to stay at the Spring Hill Suites Dallas Lewisville hotel checking in Monday, July 13, 2015 and checking out July 14, 2015. Upon making my reservations I specifically checked the box for “requesting an early check in,” because my family and I were traveling from Odessa, Texas (which is five hours away), and we were uncertain for what time we would be arriving at the hotel on the 14th.My family and I arrived at the hotel July 13th on or around 1 p.m. At this time there was a young lady by the name of Amy who was working the front desk. I told her my name and let her know that I was there to check in and that I had requested an early check in. I also informed her that the day before our arrival, I had contacted the hotel in efforts to ensure that an early check in would be okay. Amy informed me that they don’t allow early check-ins at this hotel. I was extremely confused considering I had just spoken to a rep the day before to confirm this matter. After sticking around for a few minutes she informed me that she found us a room and she gave us the keys for it. At that time I asked her could she please provide us with a map and a list of eateries in the area so that once we got settled, my family and I could go and get something to eat after our long travel. She said that the hotel had not been opened but for only one month and that they were not equipped with such lists. I asked her could she please give me ideas of places to eat in the area then since there was not a list available. She seemed very disturbed with me asking for her assistance and seemed as if she didn’t want to help me. So, I just went ahead and took my keys and proceeded with my family and luggage up to our room. She gave me the keys to room #405 and my family and I went up to the fourth floor and could not get in to our room. At this time, I saw a housekeeping representative and asked could she please help us get in to the room. She tried her key FOB and was not able to get in to the room either. So, my family and I then lugged our things down to the front desk where a gentleman by the name of Stanley and the Guest Services Manager Dominique were standing. I walked over to Stanley and explained to him that our keys did not work and that not even the housekeepers could get in to the room. I also mentioned to him that the representative Amy said that the hotel had not been open but for a month and I asked why there were no list of eateries or a map available for us. He grabbed another set of keys to that same room and went in to a drawer were he pulled out a map and a list of eateries that were in the area. I didn’t understand how he was easily able to locate them and assist us with that request when the other lady didn’t even attempt. I then slid down the counter where I addressed my concerns with Dominique. Stanley then escorted us up to our room where he too could not even get in with the new keys he made. He also tried his key FOB and was not able to enter the room. So, my family and I lugged our luggage and bodies back down to the first floor where we waited for Stanley to figure out the issue. He was kind enough to bring us each a bottle of water as we waited. Stanley ended up switching our rooms out and got us a room on the 5th floor: Room 507. He escorted us back upstairs where we were able to finally get in to a room. He let us know upon entering the room how the lights work and that the air conditioning worked off of a motion sensor which means that it only came on when it sensed people in the room.After finally getting the opportunity to put our things down and sit down for a moment, housekeeping came to the door and said that they were there to clean. The beds were made in the room so I assumed that the room had already been cleaned. The head housekeeper then checked her list and said that she was wrong and that they had already cleaned that room. I then went to the restroom to wash my face, and upon entering the restroom where the sink and shower were located, I noticed that the shower was dirty and the bathroom floor had hair on it as well as in the sink. The bathroom where the toilet was located also had pubic hair on the floor. Disgusting! My family and I then went down to the front desk where we informed Dominique of this matter and she said that she was going to send housekeeping up to clean the room while we stepped out to grab a bite to eat. When we came back to the hotel room, I saw that it appeared that the sink had been cleaned out and that the floor had been swept, but that the tub had not been touched. My family and I were just so exhausted that we took a minute to lie down and rest. We rested for a few hours to awake to the room temperature being so hot and humid. We looked at the temperature gage and it read 80 degrees. Obviously whoever thought of putting a motion sensor air conditioning system in these rooms did not think the process thorough all the way. We went down to the front desk where I mentioned to Dominique again about the bathroom and made her aware that the air conditioner was not working. She informed me at that time that she was going to send Stanley up to fix the conditioner and that if he could not fix it she could move us rooms and if we were not in the room at that time that they would move our things to the new room. I told her okay, and that we will let her know once we got back from dinner if the air conditioning still was not working. She let me know at that time that she was going to comp our room for the evening for the inconvenience of our stay and add points to my Marriott Elite rewards account. When we got back to the room for the evening it was around 10:20 p.m. or so. We went up to our room and felt that the temperature had barely even dropped as the gage still read 78 degrees. I called down to the front desk and spoke to Ryan who informed me that he was going to contact Stanley and have him come up to look at the air conditioner again. We waited for 30 to 40 minutes. No one showed, so I called back down to the front desk and was told that he should be on his way up and Dominique told me at that time that she was going to find us another room. Shortly after I talked to her, Stanley came and said that he altered something with the air conditioner that should make things cooler. Well, we waited for a good 10 to 15 minutes after he left and things did not cool down. Matter-of-fact, the temperature gage shifted back up. I called back down to the front desk where Dominique told me again that she was going to find us another room. At this point I am concerned of how many times a guest services manager can say that she is going to find you another room and it takes this many times before something happens. She calls me back about 10 to 15 minutes later to report she has found us another room. By this time my family is laid out in their beds and the thought of having to lug all of our things to another floor when it’s about midnight was outrageous. She mentioned to me that was going to find a fan that she could bring up to our room. She brought up a fan to our room and although the gesture was great, the fan did nothing but circulate all the hot air around.The next morning, Tuesday, July 14, 2015, in a rush to get out of the hotel in a timely manner, almost half way back down the road to Odessa, I noticed that I had left my curling iron in the room. I contacted the front desk at 6:30 a.m. and informed Ryan of this matter and he informed me that he would have housekeeping retrieve my curling iron and bring it to the front desk where the mangers could call me back on how they were going to get it to me. Eleven a.m. came around and I still had not heard back from a manager. I contacted the front desk again where Amy answered and I made her aware of me leaving my curling iron there in the hotel room and she informed me that she would get housekeeping to bring it down to her and she would mail it out to me free of charge. She also confirmed my address and took my phone number for the manager to call me back. No one ever called. I called over the next couple of days and left voice messages on Dominique’s v-mail and she never called me back. I contacted the hotel again on Wednesday, July 15, 2015, and spoke to Amy again. At the beginning of our conversation, Amy informed me that my curling iron had been sent off and that she would leave another message for the manager to call me. However, five more minutes in to the conversation, she asked to verify my address. This in turn let me know that she still had not sent my curling iron off. I also notified her at that time that the charge for the room was still pending on my account and that I was informed by Dominique that I would not be charged for this stay. Amy said that Dominique did not properly remove the charges from my account and that she was going to do it immediately to ensure that I would not get charged for the stay.Thursday, July 16, 2015, I looked at my bank account and noticed that there had been a hard post for the stay to my account. This let me know that no one had fixed the issue. I then contacted the hotel again and requested to speak to the hotel manager, Cynthia Young. I repeated my whole situation to Cynthia who informed me that these type of things should not be happening at her hotel and that she would ensure to get my curling iron sent off to me and that she would be sending me out an offer to stay at their hotel one night free, along with my refund for the room and points on to my Marriott Rewards account. She informed that an email would go out that same day to ensure that all this was handled. I did get the email later that afternoon for the stay and the receipt for the charges being reversed. However, I did not receive confirmation on the points being added.Monday, July 20, 2015, I finally received my payment back for the hotel but still no points and no curling iron. I contacted the hotel pertaining to this matter and was informed by Dominique that she is the one who adds the points and that she works nights and has not been able to add my points yet. She also informed me that my curling iron had been sent out, Thursday, July 16, 2015 and that it should arrive to my house by the next day. Today, is Thursday, July 23, 2015 and I still have not received my curling iron. I contacted Cynthia again this morning by email to let her know that I still have not received my item, and Dominique called me back to inform me that the tracking number shows that the curling iron is sitting at the Fed Ex facility and she provided me with the tracking number. I looked up the tracking number online and it shows that my curling iron has been sitting at Fed Ex ever since Friday, July 17, 2015, because it had wrong address on it provided by the hotel. This is outrageous. I could have drove to Dallas and got my curling iron by now.MoreShow less</t>
+  </si>
+  <si>
+    <t>Cynthia Y, General Manager at SpringHill Suites Dallas Lewisville, responded to this reviewResponded July 25, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 25, 2015</t>
+  </si>
+  <si>
+    <t>My family and I had reservations to stay at the Spring Hill Suites Dallas Lewisville hotel checking in Monday, July 13, 2015 and checking out July 14, 2015. Upon making my reservations I specifically checked the box for “requesting an early check in,” because my family and I were traveling from Odessa, Texas (which is five hours away), and we were uncertain for what time we would be arriving at the hotel on the 14th.
+My family and I arrived at the hotel July 13th on or around 1 p.m. At this time there was a young lady by the name of Amy who was working the front desk. I told her my name and let her know that I was there to check in and that I had requested an early check in. I also informed her that the day before our arrival, I had contacted the hotel in efforts to ensure that an early check in would be okay. Amy informed me that they don’t allow early check-ins at this hotel. I was extremely confused considering I had just spoken to a rep the day before to confirm this matter. After sticking around for a few minutes she informed me that she found us a room and she gave us the keys for it. At that time I asked her could she please provide us with a map and a list of eateries in the area so that...My family and I had reservations to stay at the Spring Hill Suites Dallas Lewisville hotel checking in Monday, July 13, 2015 and checking out July 14, 2015. Upon making my reservations I specifically checked the box for “requesting an early check in,” because my family and I were traveling from Odessa, Texas (which is five hours away), and we were uncertain for what time we would be arriving at the hotel on the 14th.My family and I arrived at the hotel July 13th on or around 1 p.m. At this time there was a young lady by the name of Amy who was working the front desk. I told her my name and let her know that I was there to check in and that I had requested an early check in. I also informed her that the day before our arrival, I had contacted the hotel in efforts to ensure that an early check in would be okay. Amy informed me that they don’t allow early check-ins at this hotel. I was extremely confused considering I had just spoken to a rep the day before to confirm this matter. After sticking around for a few minutes she informed me that she found us a room and she gave us the keys for it. At that time I asked her could she please provide us with a map and a list of eateries in the area so that once we got settled, my family and I could go and get something to eat after our long travel. She said that the hotel had not been opened but for only one month and that they were not equipped with such lists. I asked her could she please give me ideas of places to eat in the area then since there was not a list available. She seemed very disturbed with me asking for her assistance and seemed as if she didn’t want to help me. So, I just went ahead and took my keys and proceeded with my family and luggage up to our room. She gave me the keys to room #405 and my family and I went up to the fourth floor and could not get in to our room. At this time, I saw a housekeeping representative and asked could she please help us get in to the room. She tried her key FOB and was not able to get in to the room either. So, my family and I then lugged our things down to the front desk where a gentleman by the name of Stanley and the Guest Services Manager Dominique were standing. I walked over to Stanley and explained to him that our keys did not work and that not even the housekeepers could get in to the room. I also mentioned to him that the representative Amy said that the hotel had not been open but for a month and I asked why there were no list of eateries or a map available for us. He grabbed another set of keys to that same room and went in to a drawer were he pulled out a map and a list of eateries that were in the area. I didn’t understand how he was easily able to locate them and assist us with that request when the other lady didn’t even attempt. I then slid down the counter where I addressed my concerns with Dominique. Stanley then escorted us up to our room where he too could not even get in with the new keys he made. He also tried his key FOB and was not able to enter the room. So, my family and I lugged our luggage and bodies back down to the first floor where we waited for Stanley to figure out the issue. He was kind enough to bring us each a bottle of water as we waited. Stanley ended up switching our rooms out and got us a room on the 5th floor: Room 507. He escorted us back upstairs where we were able to finally get in to a room. He let us know upon entering the room how the lights work and that the air conditioning worked off of a motion sensor which means that it only came on when it sensed people in the room.After finally getting the opportunity to put our things down and sit down for a moment, housekeeping came to the door and said that they were there to clean. The beds were made in the room so I assumed that the room had already been cleaned. The head housekeeper then checked her list and said that she was wrong and that they had already cleaned that room. I then went to the restroom to wash my face, and upon entering the restroom where the sink and shower were located, I noticed that the shower was dirty and the bathroom floor had hair on it as well as in the sink. The bathroom where the toilet was located also had pubic hair on the floor. Disgusting! My family and I then went down to the front desk where we informed Dominique of this matter and she said that she was going to send housekeeping up to clean the room while we stepped out to grab a bite to eat. When we came back to the hotel room, I saw that it appeared that the sink had been cleaned out and that the floor had been swept, but that the tub had not been touched. My family and I were just so exhausted that we took a minute to lie down and rest. We rested for a few hours to awake to the room temperature being so hot and humid. We looked at the temperature gage and it read 80 degrees. Obviously whoever thought of putting a motion sensor air conditioning system in these rooms did not think the process thorough all the way. We went down to the front desk where I mentioned to Dominique again about the bathroom and made her aware that the air conditioner was not working. She informed me at that time that she was going to send Stanley up to fix the conditioner and that if he could not fix it she could move us rooms and if we were not in the room at that time that they would move our things to the new room. I told her okay, and that we will let her know once we got back from dinner if the air conditioning still was not working. She let me know at that time that she was going to comp our room for the evening for the inconvenience of our stay and add points to my Marriott Elite rewards account. When we got back to the room for the evening it was around 10:20 p.m. or so. We went up to our room and felt that the temperature had barely even dropped as the gage still read 78 degrees. I called down to the front desk and spoke to Ryan who informed me that he was going to contact Stanley and have him come up to look at the air conditioner again. We waited for 30 to 40 minutes. No one showed, so I called back down to the front desk and was told that he should be on his way up and Dominique told me at that time that she was going to find us another room. Shortly after I talked to her, Stanley came and said that he altered something with the air conditioner that should make things cooler. Well, we waited for a good 10 to 15 minutes after he left and things did not cool down. Matter-of-fact, the temperature gage shifted back up. I called back down to the front desk where Dominique told me again that she was going to find us another room. At this point I am concerned of how many times a guest services manager can say that she is going to find you another room and it takes this many times before something happens. She calls me back about 10 to 15 minutes later to report she has found us another room. By this time my family is laid out in their beds and the thought of having to lug all of our things to another floor when it’s about midnight was outrageous. She mentioned to me that was going to find a fan that she could bring up to our room. She brought up a fan to our room and although the gesture was great, the fan did nothing but circulate all the hot air around.The next morning, Tuesday, July 14, 2015, in a rush to get out of the hotel in a timely manner, almost half way back down the road to Odessa, I noticed that I had left my curling iron in the room. I contacted the front desk at 6:30 a.m. and informed Ryan of this matter and he informed me that he would have housekeeping retrieve my curling iron and bring it to the front desk where the mangers could call me back on how they were going to get it to me. Eleven a.m. came around and I still had not heard back from a manager. I contacted the front desk again where Amy answered and I made her aware of me leaving my curling iron there in the hotel room and she informed me that she would get housekeeping to bring it down to her and she would mail it out to me free of charge. She also confirmed my address and took my phone number for the manager to call me back. No one ever called. I called over the next couple of days and left voice messages on Dominique’s v-mail and she never called me back. I contacted the hotel again on Wednesday, July 15, 2015, and spoke to Amy again. At the beginning of our conversation, Amy informed me that my curling iron had been sent off and that she would leave another message for the manager to call me. However, five more minutes in to the conversation, she asked to verify my address. This in turn let me know that she still had not sent my curling iron off. I also notified her at that time that the charge for the room was still pending on my account and that I was informed by Dominique that I would not be charged for this stay. Amy said that Dominique did not properly remove the charges from my account and that she was going to do it immediately to ensure that I would not get charged for the stay.Thursday, July 16, 2015, I looked at my bank account and noticed that there had been a hard post for the stay to my account. This let me know that no one had fixed the issue. I then contacted the hotel again and requested to speak to the hotel manager, Cynthia Young. I repeated my whole situation to Cynthia who informed me that these type of things should not be happening at her hotel and that she would ensure to get my curling iron sent off to me and that she would be sending me out an offer to stay at their hotel one night free, along with my refund for the room and points on to my Marriott Rewards account. She informed that an email would go out that same day to ensure that all this was handled. I did get the email later that afternoon for the stay and the receipt for the charges being reversed. However, I did not receive confirmation on the points being added.Monday, July 20, 2015, I finally received my payment back for the hotel but still no points and no curling iron. I contacted the hotel pertaining to this matter and was informed by Dominique that she is the one who adds the points and that she works nights and has not been able to add my points yet. She also informed me that my curling iron had been sent out, Thursday, July 16, 2015 and that it should arrive to my house by the next day. Today, is Thursday, July 23, 2015 and I still have not received my curling iron. I contacted Cynthia again this morning by email to let her know that I still have not received my item, and Dominique called me back to inform me that the tracking number shows that the curling iron is sitting at the Fed Ex facility and she provided me with the tracking number. I looked up the tracking number online and it shows that my curling iron has been sitting at Fed Ex ever since Friday, July 17, 2015, because it had wrong address on it provided by the hotel. This is outrageous. I could have drove to Dallas and got my curling iron by now.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r284472286-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>284472286</t>
+  </si>
+  <si>
+    <t>06/30/2015</t>
+  </si>
+  <si>
+    <t>Fun, Modern Style - Need to strengthen housekeeping practices</t>
+  </si>
+  <si>
+    <t>This was my first stay at a Springhill Suites property.  The rooms at this location are very modern, very sleek, and the layout is quite appealing.
+Location - there are several restaurants within a short drive (or quite a long walk)
+The complimentary breakfast is standard fare. Hot stations of scrambled eggs, sausage/bacon, and biscuits &amp; gravy.  Cold offerings include breads, muffins, yogurts, fruit, cereals, milk and juices.  
+Recommendation: I have seen hotels do paper bag "to go" breakfasts that customers grab from the front desk on their way out - I would love to see this offered here.
+The only thing from rating this hotel higher was the housekeeping service. I am platinum with Marriott, and stay in hotels  quite a bit.  It seemed the housekeeping service was not quite firing on all cylinders just yet (I believe this is a fairly new property):
+- forgot to address the coffee station in the room on 2 straight days (old filter remained, no replacements)
+- the 2 highball glasses that were at the highball station had not been cleaned from the previous guests usage.  Lipstick and fingerprints were present. I set them aside and wrote a note to housekeeping, asking for new glassware.  The note went unnoticed / unaddressed the following day. On the following day, the glasses looked like they had been wiped off.
+- toiletries were removed from the shower stall, but the towels weren't taken care of....This was my first stay at a Springhill Suites property.  The rooms at this location are very modern, very sleek, and the layout is quite appealing.Location - there are several restaurants within a short drive (or quite a long walk)The complimentary breakfast is standard fare. Hot stations of scrambled eggs, sausage/bacon, and biscuits &amp; gravy.  Cold offerings include breads, muffins, yogurts, fruit, cereals, milk and juices.  Recommendation: I have seen hotels do paper bag "to go" breakfasts that customers grab from the front desk on their way out - I would love to see this offered here.The only thing from rating this hotel higher was the housekeeping service. I am platinum with Marriott, and stay in hotels  quite a bit.  It seemed the housekeeping service was not quite firing on all cylinders just yet (I believe this is a fairly new property):- forgot to address the coffee station in the room on 2 straight days (old filter remained, no replacements)- the 2 highball glasses that were at the highball station had not been cleaned from the previous guests usage.  Lipstick and fingerprints were present. I set them aside and wrote a note to housekeeping, asking for new glassware.  The note went unnoticed / unaddressed the following day. On the following day, the glasses looked like they had been wiped off.- toiletries were removed from the shower stall, but the towels weren't taken care of.Parking up front tends to fill up quickly.  There is additional parking behind the hotel. I had difficulties with the wifi on 2 days of my stay, where the login page would continue to refresh and not connect properly.  Wifi is comp'd for platinum guests, so I didn't complain while onsite.Overall, I had a good stay. The hotel is reasonably priced, the bar area looked like it attracted a decent crowd each night, and I would encourage management to help housekeeping up their game just a bit more to make sure some additional attention to details occur.MoreShow less</t>
+  </si>
+  <si>
+    <t>Cynthia Y, General Manager at SpringHill Suites Dallas Lewisville, responded to this reviewResponded July 1, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 1, 2015</t>
+  </si>
+  <si>
+    <t>This was my first stay at a Springhill Suites property.  The rooms at this location are very modern, very sleek, and the layout is quite appealing.
+Location - there are several restaurants within a short drive (or quite a long walk)
+The complimentary breakfast is standard fare. Hot stations of scrambled eggs, sausage/bacon, and biscuits &amp; gravy.  Cold offerings include breads, muffins, yogurts, fruit, cereals, milk and juices.  
+Recommendation: I have seen hotels do paper bag "to go" breakfasts that customers grab from the front desk on their way out - I would love to see this offered here.
+The only thing from rating this hotel higher was the housekeeping service. I am platinum with Marriott, and stay in hotels  quite a bit.  It seemed the housekeeping service was not quite firing on all cylinders just yet (I believe this is a fairly new property):
+- forgot to address the coffee station in the room on 2 straight days (old filter remained, no replacements)
+- the 2 highball glasses that were at the highball station had not been cleaned from the previous guests usage.  Lipstick and fingerprints were present. I set them aside and wrote a note to housekeeping, asking for new glassware.  The note went unnoticed / unaddressed the following day. On the following day, the glasses looked like they had been wiped off.
+- toiletries were removed from the shower stall, but the towels weren't taken care of....This was my first stay at a Springhill Suites property.  The rooms at this location are very modern, very sleek, and the layout is quite appealing.Location - there are several restaurants within a short drive (or quite a long walk)The complimentary breakfast is standard fare. Hot stations of scrambled eggs, sausage/bacon, and biscuits &amp; gravy.  Cold offerings include breads, muffins, yogurts, fruit, cereals, milk and juices.  Recommendation: I have seen hotels do paper bag "to go" breakfasts that customers grab from the front desk on their way out - I would love to see this offered here.The only thing from rating this hotel higher was the housekeeping service. I am platinum with Marriott, and stay in hotels  quite a bit.  It seemed the housekeeping service was not quite firing on all cylinders just yet (I believe this is a fairly new property):- forgot to address the coffee station in the room on 2 straight days (old filter remained, no replacements)- the 2 highball glasses that were at the highball station had not been cleaned from the previous guests usage.  Lipstick and fingerprints were present. I set them aside and wrote a note to housekeeping, asking for new glassware.  The note went unnoticed / unaddressed the following day. On the following day, the glasses looked like they had been wiped off.- toiletries were removed from the shower stall, but the towels weren't taken care of.Parking up front tends to fill up quickly.  There is additional parking behind the hotel. I had difficulties with the wifi on 2 days of my stay, where the login page would continue to refresh and not connect properly.  Wifi is comp'd for platinum guests, so I didn't complain while onsite.Overall, I had a good stay. The hotel is reasonably priced, the bar area looked like it attracted a decent crowd each night, and I would encourage management to help housekeeping up their game just a bit more to make sure some additional attention to details occur.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r283223712-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>283223712</t>
+  </si>
+  <si>
+    <t>06/26/2015</t>
+  </si>
+  <si>
+    <t>Jose Is Wrong</t>
+  </si>
+  <si>
+    <t>How dare you, Jose. I was in ear-shot of everything that transpired and you are wrong! I stayed at the Spring Hill Suites in Lewisville, Texas for two weeks and Amy is an exemplary employee. She always goes the extra mile for every guest. She works extremely hard and always has a smile on her face. It was you who were rude. Nothing she did pleased you. Here in Texas we appreciate what we have. We tend to feel blessed to stay in such a lovely hotel. Perhaps you live a much privileged life in CA, but here in Texas, we know quality lodging, staff and people when we see it. We also do not (in the seclusion of the Internet) attempt to ruin someone via their employer. Certainly, thinking more about other people's feelings and consider how hard they work would do you good, Jose from California!MoreShow less</t>
+  </si>
+  <si>
+    <t>How dare you, Jose. I was in ear-shot of everything that transpired and you are wrong! I stayed at the Spring Hill Suites in Lewisville, Texas for two weeks and Amy is an exemplary employee. She always goes the extra mile for every guest. She works extremely hard and always has a smile on her face. It was you who were rude. Nothing she did pleased you. Here in Texas we appreciate what we have. We tend to feel blessed to stay in such a lovely hotel. Perhaps you live a much privileged life in CA, but here in Texas, we know quality lodging, staff and people when we see it. We also do not (in the seclusion of the Internet) attempt to ruin someone via their employer. Certainly, thinking more about other people's feelings and consider how hard they work would do you good, Jose from California!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r282395643-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>282395643</t>
+  </si>
+  <si>
+    <t>06/23/2015</t>
+  </si>
+  <si>
+    <t>Please fire Amy at the front desk</t>
+  </si>
+  <si>
+    <t>We came late night on June 22 2015 to this hotel and were greeted by a nice lady that took care of us (don't remember the name). The next day we went to the front next to be able to check-in with a different reservation number that would extend our stay one more day. Amy completely turn our experience the other way around. Cero hospitality approach and a rude attitude. Treated us like imbeciles, was disrespectful and even throw a notebook on the desk while the other employees reacted in shock. She was so stressed and we were the only ones at the front desk. She told us that we had to be changed to another room and no rooms were available. Asked several times to be able to get a fulfilled folio for our first night until we finally received it. She was completely lost in action and never gave us full attention. Early that day my wife saw another customer arguing with Amy. Please fire Amy or move here to clean the parking lot.MoreShow less</t>
+  </si>
+  <si>
+    <t>Cynthia Y, General Manager at SpringHill Suites Dallas Lewisville, responded to this reviewResponded June 26, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 26, 2015</t>
+  </si>
+  <si>
+    <t>We came late night on June 22 2015 to this hotel and were greeted by a nice lady that took care of us (don't remember the name). The next day we went to the front next to be able to check-in with a different reservation number that would extend our stay one more day. Amy completely turn our experience the other way around. Cero hospitality approach and a rude attitude. Treated us like imbeciles, was disrespectful and even throw a notebook on the desk while the other employees reacted in shock. She was so stressed and we were the only ones at the front desk. She told us that we had to be changed to another room and no rooms were available. Asked several times to be able to get a fulfilled folio for our first night until we finally received it. She was completely lost in action and never gave us full attention. Early that day my wife saw another customer arguing with Amy. Please fire Amy or move here to clean the parking lot.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r271696798-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>271696798</t>
+  </si>
+  <si>
+    <t>05/12/2015</t>
+  </si>
+  <si>
+    <t>Brand new but horrible customer service! My shower didn't have proper hot water and they wouldn't fix it. The floors were very filthy, breakfast was absolutely horrible. Never again will I come to this hotelMoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>Cynthia Y, General Manager at SpringHill Suites Dallas Lewisville, responded to this reviewResponded May 20, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 20, 2015</t>
+  </si>
+  <si>
+    <t>Brand new but horrible customer service! My shower didn't have proper hot water and they wouldn't fix it. The floors were very filthy, breakfast was absolutely horrible. Never again will I come to this hotelMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r271461414-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>271461414</t>
+  </si>
+  <si>
+    <t>05/11/2015</t>
+  </si>
+  <si>
+    <t>Great hotel...</t>
+  </si>
+  <si>
+    <t>Loved this hotel! Brand new, just a week or so old as of May 2015! Clean obviously and in a great location. Plenty of restaurants to choose from and fairly easy access to highways/tollways. 15 mins to DFW, 10 to Grapevine Mills Mall.My only complaint is the GM wouldn't let us have a normal late checkout like other Marriott properties do. Ask for 2pm, but GM would only allow 1. Any other Marriott usually lets Platinum members stay until 2, especially if the hotel isn't very busy, like this hotel.Over all, great hotel! Will definetly stay here again!MoreShow less</t>
+  </si>
+  <si>
+    <t>Loved this hotel! Brand new, just a week or so old as of May 2015! Clean obviously and in a great location. Plenty of restaurants to choose from and fairly easy access to highways/tollways. 15 mins to DFW, 10 to Grapevine Mills Mall.My only complaint is the GM wouldn't let us have a normal late checkout like other Marriott properties do. Ask for 2pm, but GM would only allow 1. Any other Marriott usually lets Platinum members stay until 2, especially if the hotel isn't very busy, like this hotel.Over all, great hotel! Will definetly stay here again!More</t>
   </si>
 </sst>
 </file>
@@ -648,6 +2838,6653 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>63587</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>63587</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="n">
+        <v>5</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>63587</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" t="s">
+        <v>65</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>66</v>
+      </c>
+      <c r="O4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="n">
+        <v>5</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>63587</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L5" t="s">
+        <v>71</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
+        <v>72</v>
+      </c>
+      <c r="O5" t="s">
+        <v>60</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>63587</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>74</v>
+      </c>
+      <c r="J6" t="s">
+        <v>75</v>
+      </c>
+      <c r="K6" t="s">
+        <v>76</v>
+      </c>
+      <c r="L6" t="s">
+        <v>77</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" t="s">
+        <v>72</v>
+      </c>
+      <c r="O6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>78</v>
+      </c>
+      <c r="X6" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>63587</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>82</v>
+      </c>
+      <c r="J7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L7" t="s">
+        <v>85</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>86</v>
+      </c>
+      <c r="O7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>4</v>
+      </c>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>63587</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>87</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>88</v>
+      </c>
+      <c r="J8" t="s">
+        <v>89</v>
+      </c>
+      <c r="K8" t="s">
+        <v>90</v>
+      </c>
+      <c r="L8" t="s">
+        <v>91</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>92</v>
+      </c>
+      <c r="O8" t="s">
+        <v>53</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>63587</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>93</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>94</v>
+      </c>
+      <c r="J9" t="s">
+        <v>89</v>
+      </c>
+      <c r="K9" t="s">
+        <v>95</v>
+      </c>
+      <c r="L9" t="s">
+        <v>96</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s"/>
+      <c r="O9" t="s"/>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>63587</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>98</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>99</v>
+      </c>
+      <c r="J10" t="s">
+        <v>100</v>
+      </c>
+      <c r="K10" t="s">
+        <v>101</v>
+      </c>
+      <c r="L10" t="s">
+        <v>102</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s"/>
+      <c r="O10" t="s"/>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>63587</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>103</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>104</v>
+      </c>
+      <c r="J11" t="s">
+        <v>105</v>
+      </c>
+      <c r="K11" t="s">
+        <v>106</v>
+      </c>
+      <c r="L11" t="s">
+        <v>107</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>108</v>
+      </c>
+      <c r="O11" t="s">
+        <v>60</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="n">
+        <v>5</v>
+      </c>
+      <c r="S11" t="n">
+        <v>5</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>63587</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>109</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>110</v>
+      </c>
+      <c r="J12" t="s">
+        <v>111</v>
+      </c>
+      <c r="K12" t="s">
+        <v>112</v>
+      </c>
+      <c r="L12" t="s">
+        <v>113</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>108</v>
+      </c>
+      <c r="O12" t="s">
+        <v>114</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="n">
+        <v>4</v>
+      </c>
+      <c r="R12" t="s"/>
+      <c r="S12" t="n">
+        <v>4</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>1</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>63587</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>116</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>117</v>
+      </c>
+      <c r="J13" t="s">
+        <v>118</v>
+      </c>
+      <c r="K13" t="s">
+        <v>119</v>
+      </c>
+      <c r="L13" t="s">
+        <v>120</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
+        <v>121</v>
+      </c>
+      <c r="O13" t="s">
+        <v>60</v>
+      </c>
+      <c r="P13" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="n">
+        <v>5</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>4</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>63587</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>123</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>124</v>
+      </c>
+      <c r="J14" t="s">
+        <v>125</v>
+      </c>
+      <c r="K14" t="s">
+        <v>126</v>
+      </c>
+      <c r="L14" t="s">
+        <v>127</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s"/>
+      <c r="O14" t="s"/>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>63587</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>128</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>129</v>
+      </c>
+      <c r="J15" t="s">
+        <v>130</v>
+      </c>
+      <c r="K15" t="s">
+        <v>131</v>
+      </c>
+      <c r="L15" t="s">
+        <v>132</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>133</v>
+      </c>
+      <c r="O15" t="s">
+        <v>60</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="n">
+        <v>5</v>
+      </c>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>63587</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>134</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>135</v>
+      </c>
+      <c r="J16" t="s">
+        <v>136</v>
+      </c>
+      <c r="K16" t="s">
+        <v>137</v>
+      </c>
+      <c r="L16" t="s">
+        <v>138</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>133</v>
+      </c>
+      <c r="O16" t="s">
+        <v>53</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>63587</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>139</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>140</v>
+      </c>
+      <c r="J17" t="s">
+        <v>141</v>
+      </c>
+      <c r="K17" t="s">
+        <v>142</v>
+      </c>
+      <c r="L17" t="s">
+        <v>143</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>133</v>
+      </c>
+      <c r="O17" t="s">
+        <v>60</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>63587</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>144</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>145</v>
+      </c>
+      <c r="J18" t="s">
+        <v>141</v>
+      </c>
+      <c r="K18" t="s">
+        <v>146</v>
+      </c>
+      <c r="L18" t="s">
+        <v>147</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>133</v>
+      </c>
+      <c r="O18" t="s">
+        <v>60</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>63587</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>148</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>149</v>
+      </c>
+      <c r="J19" t="s">
+        <v>150</v>
+      </c>
+      <c r="K19" t="s">
+        <v>151</v>
+      </c>
+      <c r="L19" t="s">
+        <v>152</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>133</v>
+      </c>
+      <c r="O19" t="s">
+        <v>153</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>63587</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>154</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>155</v>
+      </c>
+      <c r="J20" t="s">
+        <v>156</v>
+      </c>
+      <c r="K20" t="s">
+        <v>157</v>
+      </c>
+      <c r="L20" t="s">
+        <v>158</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>159</v>
+      </c>
+      <c r="O20" t="s">
+        <v>53</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>63587</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>161</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>162</v>
+      </c>
+      <c r="J21" t="s">
+        <v>163</v>
+      </c>
+      <c r="K21" t="s">
+        <v>164</v>
+      </c>
+      <c r="L21" t="s">
+        <v>165</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" t="s">
+        <v>159</v>
+      </c>
+      <c r="O21" t="s">
+        <v>53</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>63587</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>166</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>167</v>
+      </c>
+      <c r="J22" t="s">
+        <v>168</v>
+      </c>
+      <c r="K22" t="s">
+        <v>169</v>
+      </c>
+      <c r="L22" t="s">
+        <v>170</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>159</v>
+      </c>
+      <c r="O22" t="s">
+        <v>60</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>63587</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>171</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>172</v>
+      </c>
+      <c r="J23" t="s">
+        <v>173</v>
+      </c>
+      <c r="K23" t="s">
+        <v>174</v>
+      </c>
+      <c r="L23" t="s">
+        <v>175</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>159</v>
+      </c>
+      <c r="O23" t="s">
+        <v>53</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>63587</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>177</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>178</v>
+      </c>
+      <c r="J24" t="s">
+        <v>179</v>
+      </c>
+      <c r="K24" t="s">
+        <v>180</v>
+      </c>
+      <c r="L24" t="s">
+        <v>181</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>182</v>
+      </c>
+      <c r="O24" t="s">
+        <v>60</v>
+      </c>
+      <c r="P24" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>63587</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>183</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>184</v>
+      </c>
+      <c r="J25" t="s">
+        <v>179</v>
+      </c>
+      <c r="K25" t="s">
+        <v>185</v>
+      </c>
+      <c r="L25" t="s">
+        <v>186</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>159</v>
+      </c>
+      <c r="O25" t="s">
+        <v>60</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>63587</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>187</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>188</v>
+      </c>
+      <c r="J26" t="s">
+        <v>189</v>
+      </c>
+      <c r="K26" t="s">
+        <v>190</v>
+      </c>
+      <c r="L26" t="s">
+        <v>191</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>182</v>
+      </c>
+      <c r="O26" t="s">
+        <v>60</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>63587</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>192</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>193</v>
+      </c>
+      <c r="J27" t="s">
+        <v>194</v>
+      </c>
+      <c r="K27" t="s">
+        <v>195</v>
+      </c>
+      <c r="L27" t="s">
+        <v>196</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>197</v>
+      </c>
+      <c r="O27" t="s">
+        <v>198</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>63587</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>199</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>200</v>
+      </c>
+      <c r="J28" t="s">
+        <v>201</v>
+      </c>
+      <c r="K28" t="s">
+        <v>202</v>
+      </c>
+      <c r="L28" t="s">
+        <v>203</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>182</v>
+      </c>
+      <c r="O28" t="s">
+        <v>60</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="n">
+        <v>5</v>
+      </c>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>63587</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>204</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>205</v>
+      </c>
+      <c r="J29" t="s">
+        <v>206</v>
+      </c>
+      <c r="K29" t="s">
+        <v>207</v>
+      </c>
+      <c r="L29" t="s">
+        <v>208</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>197</v>
+      </c>
+      <c r="O29" t="s">
+        <v>153</v>
+      </c>
+      <c r="P29" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="n">
+        <v>5</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>63587</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>209</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>210</v>
+      </c>
+      <c r="J30" t="s">
+        <v>211</v>
+      </c>
+      <c r="K30" t="s">
+        <v>212</v>
+      </c>
+      <c r="L30" t="s">
+        <v>213</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>197</v>
+      </c>
+      <c r="O30" t="s">
+        <v>53</v>
+      </c>
+      <c r="P30" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="n">
+        <v>5</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>63587</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>214</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>215</v>
+      </c>
+      <c r="J31" t="s">
+        <v>216</v>
+      </c>
+      <c r="K31" t="s">
+        <v>217</v>
+      </c>
+      <c r="L31" t="s">
+        <v>218</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>197</v>
+      </c>
+      <c r="O31" t="s">
+        <v>60</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="n">
+        <v>5</v>
+      </c>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>63587</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>219</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>220</v>
+      </c>
+      <c r="J32" t="s">
+        <v>221</v>
+      </c>
+      <c r="K32" t="s">
+        <v>222</v>
+      </c>
+      <c r="L32" t="s">
+        <v>223</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1</v>
+      </c>
+      <c r="N32" t="s">
+        <v>197</v>
+      </c>
+      <c r="O32" t="s">
+        <v>198</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="n">
+        <v>3</v>
+      </c>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>1</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>224</v>
+      </c>
+      <c r="X32" t="s">
+        <v>225</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>63587</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>227</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>228</v>
+      </c>
+      <c r="J33" t="s">
+        <v>229</v>
+      </c>
+      <c r="K33" t="s">
+        <v>230</v>
+      </c>
+      <c r="L33" t="s">
+        <v>231</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>232</v>
+      </c>
+      <c r="O33" t="s">
+        <v>198</v>
+      </c>
+      <c r="P33" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>5</v>
+      </c>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>63587</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>234</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>235</v>
+      </c>
+      <c r="J34" t="s">
+        <v>236</v>
+      </c>
+      <c r="K34" t="s">
+        <v>237</v>
+      </c>
+      <c r="L34" t="s">
+        <v>238</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>232</v>
+      </c>
+      <c r="O34" t="s">
+        <v>53</v>
+      </c>
+      <c r="P34" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>5</v>
+      </c>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>63587</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>239</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>240</v>
+      </c>
+      <c r="J35" t="s">
+        <v>241</v>
+      </c>
+      <c r="K35" t="s">
+        <v>242</v>
+      </c>
+      <c r="L35" t="s">
+        <v>243</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>232</v>
+      </c>
+      <c r="O35" t="s">
+        <v>198</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="s"/>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>63587</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>244</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>245</v>
+      </c>
+      <c r="J36" t="s">
+        <v>241</v>
+      </c>
+      <c r="K36" t="s">
+        <v>246</v>
+      </c>
+      <c r="L36" t="s">
+        <v>247</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>232</v>
+      </c>
+      <c r="O36" t="s">
+        <v>198</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="s"/>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>63587</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>249</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>250</v>
+      </c>
+      <c r="J37" t="s">
+        <v>251</v>
+      </c>
+      <c r="K37" t="s">
+        <v>252</v>
+      </c>
+      <c r="L37" t="s">
+        <v>253</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>232</v>
+      </c>
+      <c r="O37" t="s">
+        <v>53</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="n">
+        <v>5</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>63587</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>254</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>255</v>
+      </c>
+      <c r="J38" t="s">
+        <v>256</v>
+      </c>
+      <c r="K38" t="s">
+        <v>257</v>
+      </c>
+      <c r="L38" t="s">
+        <v>258</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>232</v>
+      </c>
+      <c r="O38" t="s">
+        <v>53</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="s"/>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>63587</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>259</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>260</v>
+      </c>
+      <c r="J39" t="s">
+        <v>261</v>
+      </c>
+      <c r="K39" t="s">
+        <v>262</v>
+      </c>
+      <c r="L39" t="s">
+        <v>263</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>232</v>
+      </c>
+      <c r="O39" t="s">
+        <v>60</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="n">
+        <v>5</v>
+      </c>
+      <c r="R39" t="s"/>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>63587</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>264</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>265</v>
+      </c>
+      <c r="J40" t="s">
+        <v>266</v>
+      </c>
+      <c r="K40" t="s">
+        <v>267</v>
+      </c>
+      <c r="L40" t="s">
+        <v>268</v>
+      </c>
+      <c r="M40" t="n">
+        <v>4</v>
+      </c>
+      <c r="N40" t="s"/>
+      <c r="O40" t="s"/>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="s"/>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>63587</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>269</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>270</v>
+      </c>
+      <c r="J41" t="s">
+        <v>271</v>
+      </c>
+      <c r="K41" t="s">
+        <v>272</v>
+      </c>
+      <c r="L41" t="s">
+        <v>273</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>274</v>
+      </c>
+      <c r="O41" t="s">
+        <v>198</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="s"/>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>63587</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>275</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>276</v>
+      </c>
+      <c r="J42" t="s">
+        <v>277</v>
+      </c>
+      <c r="K42" t="s">
+        <v>278</v>
+      </c>
+      <c r="L42" t="s">
+        <v>279</v>
+      </c>
+      <c r="M42" t="n">
+        <v>4</v>
+      </c>
+      <c r="N42" t="s">
+        <v>274</v>
+      </c>
+      <c r="O42" t="s">
+        <v>60</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="n">
+        <v>4</v>
+      </c>
+      <c r="S42" t="n">
+        <v>4</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>63587</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>280</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>281</v>
+      </c>
+      <c r="J43" t="s">
+        <v>282</v>
+      </c>
+      <c r="K43" t="s">
+        <v>283</v>
+      </c>
+      <c r="L43" t="s">
+        <v>284</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>285</v>
+      </c>
+      <c r="O43" t="s">
+        <v>60</v>
+      </c>
+      <c r="P43" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="n">
+        <v>5</v>
+      </c>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>63587</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>286</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>287</v>
+      </c>
+      <c r="J44" t="s">
+        <v>288</v>
+      </c>
+      <c r="K44" t="s">
+        <v>289</v>
+      </c>
+      <c r="L44" t="s">
+        <v>290</v>
+      </c>
+      <c r="M44" t="n">
+        <v>3</v>
+      </c>
+      <c r="N44" t="s">
+        <v>285</v>
+      </c>
+      <c r="O44" t="s">
+        <v>60</v>
+      </c>
+      <c r="P44" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>3</v>
+      </c>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>291</v>
+      </c>
+      <c r="X44" t="s">
+        <v>292</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>63587</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>294</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>295</v>
+      </c>
+      <c r="J45" t="s">
+        <v>296</v>
+      </c>
+      <c r="K45" t="s">
+        <v>297</v>
+      </c>
+      <c r="L45" t="s">
+        <v>298</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>285</v>
+      </c>
+      <c r="O45" t="s">
+        <v>60</v>
+      </c>
+      <c r="P45" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="n">
+        <v>4</v>
+      </c>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>63587</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>299</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>300</v>
+      </c>
+      <c r="J46" t="s">
+        <v>301</v>
+      </c>
+      <c r="K46" t="s">
+        <v>302</v>
+      </c>
+      <c r="L46" t="s">
+        <v>303</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>304</v>
+      </c>
+      <c r="O46" t="s">
+        <v>60</v>
+      </c>
+      <c r="P46" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>63587</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>305</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>306</v>
+      </c>
+      <c r="J47" t="s">
+        <v>307</v>
+      </c>
+      <c r="K47" t="s">
+        <v>308</v>
+      </c>
+      <c r="L47" t="s">
+        <v>309</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>310</v>
+      </c>
+      <c r="O47" t="s">
+        <v>60</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="n">
+        <v>5</v>
+      </c>
+      <c r="R47" t="s"/>
+      <c r="S47" t="n">
+        <v>5</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>63587</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>311</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>312</v>
+      </c>
+      <c r="J48" t="s">
+        <v>313</v>
+      </c>
+      <c r="K48" t="s">
+        <v>314</v>
+      </c>
+      <c r="L48" t="s">
+        <v>315</v>
+      </c>
+      <c r="M48" t="n">
+        <v>4</v>
+      </c>
+      <c r="N48" t="s">
+        <v>310</v>
+      </c>
+      <c r="O48" t="s">
+        <v>60</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="s"/>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>63587</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>316</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>317</v>
+      </c>
+      <c r="J49" t="s">
+        <v>318</v>
+      </c>
+      <c r="K49" t="s">
+        <v>319</v>
+      </c>
+      <c r="L49" t="s">
+        <v>320</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>310</v>
+      </c>
+      <c r="O49" t="s">
+        <v>60</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="n">
+        <v>5</v>
+      </c>
+      <c r="R49" t="s"/>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>63587</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>321</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>322</v>
+      </c>
+      <c r="J50" t="s">
+        <v>323</v>
+      </c>
+      <c r="K50" t="s">
+        <v>324</v>
+      </c>
+      <c r="L50" t="s">
+        <v>325</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>310</v>
+      </c>
+      <c r="O50" t="s">
+        <v>60</v>
+      </c>
+      <c r="P50" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="s"/>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>63587</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>326</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>327</v>
+      </c>
+      <c r="J51" t="s">
+        <v>323</v>
+      </c>
+      <c r="K51" t="s">
+        <v>328</v>
+      </c>
+      <c r="L51" t="s">
+        <v>329</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s">
+        <v>310</v>
+      </c>
+      <c r="O51" t="s">
+        <v>60</v>
+      </c>
+      <c r="P51" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="s"/>
+      <c r="S51" t="s"/>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>63587</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>330</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>331</v>
+      </c>
+      <c r="J52" t="s">
+        <v>332</v>
+      </c>
+      <c r="K52" t="s">
+        <v>333</v>
+      </c>
+      <c r="L52" t="s">
+        <v>334</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
+        <v>310</v>
+      </c>
+      <c r="O52" t="s">
+        <v>60</v>
+      </c>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="n">
+        <v>5</v>
+      </c>
+      <c r="R52" t="s"/>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>63587</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>335</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>336</v>
+      </c>
+      <c r="J53" t="s">
+        <v>337</v>
+      </c>
+      <c r="K53" t="s">
+        <v>338</v>
+      </c>
+      <c r="L53" t="s">
+        <v>339</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>310</v>
+      </c>
+      <c r="O53" t="s">
+        <v>60</v>
+      </c>
+      <c r="P53" t="s"/>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="s"/>
+      <c r="S53" t="s"/>
+      <c r="T53" t="s"/>
+      <c r="U53" t="s"/>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>63587</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>340</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>341</v>
+      </c>
+      <c r="J54" t="s">
+        <v>342</v>
+      </c>
+      <c r="K54" t="s">
+        <v>343</v>
+      </c>
+      <c r="L54" t="s">
+        <v>344</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>304</v>
+      </c>
+      <c r="O54" t="s">
+        <v>60</v>
+      </c>
+      <c r="P54" t="s"/>
+      <c r="Q54" t="n">
+        <v>5</v>
+      </c>
+      <c r="R54" t="n">
+        <v>5</v>
+      </c>
+      <c r="S54" t="s"/>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>63587</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>345</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>346</v>
+      </c>
+      <c r="J55" t="s">
+        <v>342</v>
+      </c>
+      <c r="K55" t="s">
+        <v>347</v>
+      </c>
+      <c r="L55" t="s">
+        <v>348</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>304</v>
+      </c>
+      <c r="O55" t="s">
+        <v>60</v>
+      </c>
+      <c r="P55" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="n">
+        <v>5</v>
+      </c>
+      <c r="S55" t="s"/>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>63587</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>349</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>350</v>
+      </c>
+      <c r="J56" t="s">
+        <v>351</v>
+      </c>
+      <c r="K56" t="s">
+        <v>352</v>
+      </c>
+      <c r="L56" t="s">
+        <v>353</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>304</v>
+      </c>
+      <c r="O56" t="s">
+        <v>60</v>
+      </c>
+      <c r="P56" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="n">
+        <v>5</v>
+      </c>
+      <c r="S56" t="s"/>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>354</v>
+      </c>
+      <c r="X56" t="s">
+        <v>355</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>63587</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>357</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>358</v>
+      </c>
+      <c r="J57" t="s">
+        <v>359</v>
+      </c>
+      <c r="K57" t="s">
+        <v>360</v>
+      </c>
+      <c r="L57" t="s">
+        <v>361</v>
+      </c>
+      <c r="M57" t="n">
+        <v>1</v>
+      </c>
+      <c r="N57" t="s">
+        <v>362</v>
+      </c>
+      <c r="O57" t="s">
+        <v>60</v>
+      </c>
+      <c r="P57" t="s"/>
+      <c r="Q57" t="s"/>
+      <c r="R57" t="s"/>
+      <c r="S57" t="s"/>
+      <c r="T57" t="s"/>
+      <c r="U57" t="s"/>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>354</v>
+      </c>
+      <c r="X57" t="s">
+        <v>355</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>63587</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>364</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>365</v>
+      </c>
+      <c r="J58" t="s">
+        <v>366</v>
+      </c>
+      <c r="K58" t="s">
+        <v>367</v>
+      </c>
+      <c r="L58" t="s">
+        <v>368</v>
+      </c>
+      <c r="M58" t="n">
+        <v>4</v>
+      </c>
+      <c r="N58" t="s">
+        <v>362</v>
+      </c>
+      <c r="O58" t="s">
+        <v>53</v>
+      </c>
+      <c r="P58" t="s"/>
+      <c r="Q58" t="s"/>
+      <c r="R58" t="s"/>
+      <c r="S58" t="s"/>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>3</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>369</v>
+      </c>
+      <c r="X58" t="s">
+        <v>370</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>63587</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>372</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>373</v>
+      </c>
+      <c r="J59" t="s">
+        <v>374</v>
+      </c>
+      <c r="K59" t="s">
+        <v>375</v>
+      </c>
+      <c r="L59" t="s">
+        <v>376</v>
+      </c>
+      <c r="M59" t="n">
+        <v>2</v>
+      </c>
+      <c r="N59" t="s">
+        <v>377</v>
+      </c>
+      <c r="O59" t="s">
+        <v>60</v>
+      </c>
+      <c r="P59" t="s"/>
+      <c r="Q59" t="s"/>
+      <c r="R59" t="s"/>
+      <c r="S59" t="s"/>
+      <c r="T59" t="s"/>
+      <c r="U59" t="s"/>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>378</v>
+      </c>
+      <c r="X59" t="s">
+        <v>379</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>63587</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>381</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>382</v>
+      </c>
+      <c r="J60" t="s">
+        <v>383</v>
+      </c>
+      <c r="K60" t="s">
+        <v>384</v>
+      </c>
+      <c r="L60" t="s">
+        <v>385</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>377</v>
+      </c>
+      <c r="O60" t="s">
+        <v>60</v>
+      </c>
+      <c r="P60" t="s"/>
+      <c r="Q60" t="s"/>
+      <c r="R60" t="s"/>
+      <c r="S60" t="s"/>
+      <c r="T60" t="s"/>
+      <c r="U60" t="s"/>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>386</v>
+      </c>
+      <c r="X60" t="s">
+        <v>387</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>63587</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>389</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>390</v>
+      </c>
+      <c r="J61" t="s">
+        <v>391</v>
+      </c>
+      <c r="K61" t="s">
+        <v>392</v>
+      </c>
+      <c r="L61" t="s">
+        <v>393</v>
+      </c>
+      <c r="M61" t="n">
+        <v>5</v>
+      </c>
+      <c r="N61" t="s">
+        <v>377</v>
+      </c>
+      <c r="O61" t="s">
+        <v>60</v>
+      </c>
+      <c r="P61" t="s"/>
+      <c r="Q61" t="s"/>
+      <c r="R61" t="n">
+        <v>5</v>
+      </c>
+      <c r="S61" t="s"/>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>394</v>
+      </c>
+      <c r="X61" t="s">
+        <v>395</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>63587</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>397</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>398</v>
+      </c>
+      <c r="J62" t="s">
+        <v>399</v>
+      </c>
+      <c r="K62" t="s">
+        <v>400</v>
+      </c>
+      <c r="L62" t="s">
+        <v>401</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s"/>
+      <c r="O62" t="s"/>
+      <c r="P62" t="s"/>
+      <c r="Q62" t="s"/>
+      <c r="R62" t="s"/>
+      <c r="S62" t="s"/>
+      <c r="T62" t="s"/>
+      <c r="U62" t="s"/>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>402</v>
+      </c>
+      <c r="X62" t="s">
+        <v>403</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>63587</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>405</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>406</v>
+      </c>
+      <c r="J63" t="s">
+        <v>407</v>
+      </c>
+      <c r="K63" t="s">
+        <v>408</v>
+      </c>
+      <c r="L63" t="s">
+        <v>409</v>
+      </c>
+      <c r="M63" t="n">
+        <v>4</v>
+      </c>
+      <c r="N63" t="s">
+        <v>410</v>
+      </c>
+      <c r="O63" t="s">
+        <v>53</v>
+      </c>
+      <c r="P63" t="s"/>
+      <c r="Q63" t="s"/>
+      <c r="R63" t="s"/>
+      <c r="S63" t="s"/>
+      <c r="T63" t="s"/>
+      <c r="U63" t="s"/>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>402</v>
+      </c>
+      <c r="X63" t="s">
+        <v>403</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>63587</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>412</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>413</v>
+      </c>
+      <c r="J64" t="s">
+        <v>414</v>
+      </c>
+      <c r="K64" t="s">
+        <v>415</v>
+      </c>
+      <c r="L64" t="s">
+        <v>416</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s">
+        <v>362</v>
+      </c>
+      <c r="O64" t="s">
+        <v>60</v>
+      </c>
+      <c r="P64" t="s"/>
+      <c r="Q64" t="n">
+        <v>5</v>
+      </c>
+      <c r="R64" t="s"/>
+      <c r="S64" t="s"/>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>417</v>
+      </c>
+      <c r="X64" t="s">
+        <v>418</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>63587</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>420</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>421</v>
+      </c>
+      <c r="J65" t="s">
+        <v>422</v>
+      </c>
+      <c r="K65" t="s">
+        <v>423</v>
+      </c>
+      <c r="L65" t="s">
+        <v>424</v>
+      </c>
+      <c r="M65" t="n">
+        <v>3</v>
+      </c>
+      <c r="N65" t="s">
+        <v>425</v>
+      </c>
+      <c r="O65" t="s">
+        <v>53</v>
+      </c>
+      <c r="P65" t="s"/>
+      <c r="Q65" t="s"/>
+      <c r="R65" t="s"/>
+      <c r="S65" t="n">
+        <v>3</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>3</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>426</v>
+      </c>
+      <c r="X65" t="s">
+        <v>427</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>63587</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>429</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>430</v>
+      </c>
+      <c r="J66" t="s">
+        <v>431</v>
+      </c>
+      <c r="K66" t="s">
+        <v>432</v>
+      </c>
+      <c r="L66" t="s">
+        <v>433</v>
+      </c>
+      <c r="M66" t="n">
+        <v>4</v>
+      </c>
+      <c r="N66" t="s">
+        <v>425</v>
+      </c>
+      <c r="O66" t="s">
+        <v>60</v>
+      </c>
+      <c r="P66" t="s"/>
+      <c r="Q66" t="s"/>
+      <c r="R66" t="s"/>
+      <c r="S66" t="n">
+        <v>4</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>434</v>
+      </c>
+      <c r="X66" t="s">
+        <v>435</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>63587</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>437</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>438</v>
+      </c>
+      <c r="J67" t="s">
+        <v>439</v>
+      </c>
+      <c r="K67" t="s">
+        <v>440</v>
+      </c>
+      <c r="L67" t="s">
+        <v>441</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s">
+        <v>425</v>
+      </c>
+      <c r="O67" t="s">
+        <v>60</v>
+      </c>
+      <c r="P67" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q67" t="s"/>
+      <c r="R67" t="s"/>
+      <c r="S67" t="n">
+        <v>5</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>4</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>442</v>
+      </c>
+      <c r="X67" t="s">
+        <v>443</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>63587</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>445</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>446</v>
+      </c>
+      <c r="J68" t="s">
+        <v>447</v>
+      </c>
+      <c r="K68" t="s">
+        <v>448</v>
+      </c>
+      <c r="L68" t="s">
+        <v>449</v>
+      </c>
+      <c r="M68" t="n">
+        <v>5</v>
+      </c>
+      <c r="N68" t="s">
+        <v>450</v>
+      </c>
+      <c r="O68" t="s">
+        <v>53</v>
+      </c>
+      <c r="P68" t="s"/>
+      <c r="Q68" t="s"/>
+      <c r="R68" t="n">
+        <v>5</v>
+      </c>
+      <c r="S68" t="s"/>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>451</v>
+      </c>
+      <c r="X68" t="s">
+        <v>452</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>63587</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>454</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>455</v>
+      </c>
+      <c r="J69" t="s">
+        <v>456</v>
+      </c>
+      <c r="K69" t="s">
+        <v>457</v>
+      </c>
+      <c r="L69" t="s">
+        <v>458</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s">
+        <v>450</v>
+      </c>
+      <c r="O69" t="s">
+        <v>53</v>
+      </c>
+      <c r="P69" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>5</v>
+      </c>
+      <c r="R69" t="s"/>
+      <c r="S69" t="s"/>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>459</v>
+      </c>
+      <c r="X69" t="s">
+        <v>460</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>63587</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>462</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>463</v>
+      </c>
+      <c r="J70" t="s">
+        <v>464</v>
+      </c>
+      <c r="K70" t="s">
+        <v>465</v>
+      </c>
+      <c r="L70" t="s">
+        <v>466</v>
+      </c>
+      <c r="M70" t="n">
+        <v>5</v>
+      </c>
+      <c r="N70" t="s">
+        <v>467</v>
+      </c>
+      <c r="O70" t="s">
+        <v>198</v>
+      </c>
+      <c r="P70" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>5</v>
+      </c>
+      <c r="R70" t="s"/>
+      <c r="S70" t="s"/>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>468</v>
+      </c>
+      <c r="X70" t="s">
+        <v>469</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>63587</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>471</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>472</v>
+      </c>
+      <c r="J71" t="s">
+        <v>473</v>
+      </c>
+      <c r="K71" t="s">
+        <v>474</v>
+      </c>
+      <c r="L71" t="s">
+        <v>475</v>
+      </c>
+      <c r="M71" t="n">
+        <v>5</v>
+      </c>
+      <c r="N71" t="s">
+        <v>450</v>
+      </c>
+      <c r="O71" t="s">
+        <v>53</v>
+      </c>
+      <c r="P71" t="s"/>
+      <c r="Q71" t="s"/>
+      <c r="R71" t="s"/>
+      <c r="S71" t="s"/>
+      <c r="T71" t="s"/>
+      <c r="U71" t="s"/>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>476</v>
+      </c>
+      <c r="X71" t="s">
+        <v>477</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>63587</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>479</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>480</v>
+      </c>
+      <c r="J72" t="s">
+        <v>481</v>
+      </c>
+      <c r="K72" t="s">
+        <v>482</v>
+      </c>
+      <c r="L72" t="s">
+        <v>483</v>
+      </c>
+      <c r="M72" t="n">
+        <v>4</v>
+      </c>
+      <c r="N72" t="s">
+        <v>450</v>
+      </c>
+      <c r="O72" t="s">
+        <v>60</v>
+      </c>
+      <c r="P72" t="s"/>
+      <c r="Q72" t="s"/>
+      <c r="R72" t="n">
+        <v>5</v>
+      </c>
+      <c r="S72" t="n">
+        <v>5</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>484</v>
+      </c>
+      <c r="X72" t="s">
+        <v>485</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>63587</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>487</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>488</v>
+      </c>
+      <c r="J73" t="s">
+        <v>489</v>
+      </c>
+      <c r="K73" t="s">
+        <v>490</v>
+      </c>
+      <c r="L73" t="s">
+        <v>491</v>
+      </c>
+      <c r="M73" t="n">
+        <v>5</v>
+      </c>
+      <c r="N73" t="s">
+        <v>467</v>
+      </c>
+      <c r="O73" t="s">
+        <v>198</v>
+      </c>
+      <c r="P73" t="s"/>
+      <c r="Q73" t="n">
+        <v>5</v>
+      </c>
+      <c r="R73" t="s"/>
+      <c r="S73" t="n">
+        <v>5</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>484</v>
+      </c>
+      <c r="X73" t="s">
+        <v>485</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>63587</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>493</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>494</v>
+      </c>
+      <c r="J74" t="s">
+        <v>495</v>
+      </c>
+      <c r="K74" t="s">
+        <v>496</v>
+      </c>
+      <c r="L74" t="s">
+        <v>497</v>
+      </c>
+      <c r="M74" t="n">
+        <v>3</v>
+      </c>
+      <c r="N74" t="s">
+        <v>450</v>
+      </c>
+      <c r="O74" t="s">
+        <v>60</v>
+      </c>
+      <c r="P74" t="s"/>
+      <c r="Q74" t="s"/>
+      <c r="R74" t="s"/>
+      <c r="S74" t="s"/>
+      <c r="T74" t="s"/>
+      <c r="U74" t="s"/>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s">
+        <v>498</v>
+      </c>
+      <c r="X74" t="s">
+        <v>499</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>63587</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>501</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>502</v>
+      </c>
+      <c r="J75" t="s">
+        <v>495</v>
+      </c>
+      <c r="K75" t="s">
+        <v>503</v>
+      </c>
+      <c r="L75" t="s">
+        <v>504</v>
+      </c>
+      <c r="M75" t="n">
+        <v>5</v>
+      </c>
+      <c r="N75" t="s">
+        <v>467</v>
+      </c>
+      <c r="O75" t="s">
+        <v>60</v>
+      </c>
+      <c r="P75" t="s"/>
+      <c r="Q75" t="s"/>
+      <c r="R75" t="s"/>
+      <c r="S75" t="n">
+        <v>5</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s">
+        <v>498</v>
+      </c>
+      <c r="X75" t="s">
+        <v>499</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>63587</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>506</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>507</v>
+      </c>
+      <c r="J76" t="s">
+        <v>508</v>
+      </c>
+      <c r="K76" t="s">
+        <v>509</v>
+      </c>
+      <c r="L76" t="s">
+        <v>510</v>
+      </c>
+      <c r="M76" t="n">
+        <v>4</v>
+      </c>
+      <c r="N76" t="s">
+        <v>467</v>
+      </c>
+      <c r="O76" t="s">
+        <v>53</v>
+      </c>
+      <c r="P76" t="s"/>
+      <c r="Q76" t="n">
+        <v>5</v>
+      </c>
+      <c r="R76" t="s"/>
+      <c r="S76" t="s"/>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s">
+        <v>511</v>
+      </c>
+      <c r="X76" t="s">
+        <v>512</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>63587</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>514</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>515</v>
+      </c>
+      <c r="J77" t="s">
+        <v>516</v>
+      </c>
+      <c r="K77" t="s">
+        <v>517</v>
+      </c>
+      <c r="L77" t="s">
+        <v>518</v>
+      </c>
+      <c r="M77" t="n">
+        <v>4</v>
+      </c>
+      <c r="N77" t="s">
+        <v>467</v>
+      </c>
+      <c r="O77" t="s">
+        <v>60</v>
+      </c>
+      <c r="P77" t="s"/>
+      <c r="Q77" t="s"/>
+      <c r="R77" t="n">
+        <v>5</v>
+      </c>
+      <c r="S77" t="n">
+        <v>5</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s">
+        <v>519</v>
+      </c>
+      <c r="X77" t="s">
+        <v>520</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>63587</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>522</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>523</v>
+      </c>
+      <c r="J78" t="s">
+        <v>524</v>
+      </c>
+      <c r="K78" t="s">
+        <v>525</v>
+      </c>
+      <c r="L78" t="s">
+        <v>526</v>
+      </c>
+      <c r="M78" t="n">
+        <v>5</v>
+      </c>
+      <c r="N78" t="s">
+        <v>527</v>
+      </c>
+      <c r="O78" t="s">
+        <v>60</v>
+      </c>
+      <c r="P78" t="s"/>
+      <c r="Q78" t="n">
+        <v>5</v>
+      </c>
+      <c r="R78" t="n">
+        <v>5</v>
+      </c>
+      <c r="S78" t="s"/>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>5</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s">
+        <v>528</v>
+      </c>
+      <c r="X78" t="s">
+        <v>529</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>63587</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>531</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>532</v>
+      </c>
+      <c r="J79" t="s">
+        <v>533</v>
+      </c>
+      <c r="K79" t="s">
+        <v>534</v>
+      </c>
+      <c r="L79" t="s">
+        <v>535</v>
+      </c>
+      <c r="M79" t="n">
+        <v>5</v>
+      </c>
+      <c r="N79" t="s">
+        <v>527</v>
+      </c>
+      <c r="O79" t="s">
+        <v>60</v>
+      </c>
+      <c r="P79" t="s"/>
+      <c r="Q79" t="s"/>
+      <c r="R79" t="n">
+        <v>5</v>
+      </c>
+      <c r="S79" t="s"/>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>5</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s">
+        <v>528</v>
+      </c>
+      <c r="X79" t="s">
+        <v>529</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>63587</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>537</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>538</v>
+      </c>
+      <c r="J80" t="s">
+        <v>539</v>
+      </c>
+      <c r="K80" t="s">
+        <v>540</v>
+      </c>
+      <c r="L80" t="s">
+        <v>541</v>
+      </c>
+      <c r="M80" t="n">
+        <v>5</v>
+      </c>
+      <c r="N80" t="s">
+        <v>527</v>
+      </c>
+      <c r="O80" t="s">
+        <v>53</v>
+      </c>
+      <c r="P80" t="s"/>
+      <c r="Q80" t="n">
+        <v>5</v>
+      </c>
+      <c r="R80" t="s"/>
+      <c r="S80" t="s"/>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>5</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s">
+        <v>542</v>
+      </c>
+      <c r="X80" t="s">
+        <v>543</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>63587</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>545</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>546</v>
+      </c>
+      <c r="J81" t="s">
+        <v>547</v>
+      </c>
+      <c r="K81" t="s">
+        <v>548</v>
+      </c>
+      <c r="L81" t="s">
+        <v>549</v>
+      </c>
+      <c r="M81" t="n">
+        <v>3</v>
+      </c>
+      <c r="N81" t="s">
+        <v>527</v>
+      </c>
+      <c r="O81" t="s">
+        <v>60</v>
+      </c>
+      <c r="P81" t="s"/>
+      <c r="Q81" t="n">
+        <v>5</v>
+      </c>
+      <c r="R81" t="s"/>
+      <c r="S81" t="n">
+        <v>5</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>5</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s">
+        <v>550</v>
+      </c>
+      <c r="X81" t="s">
+        <v>551</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>63587</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>553</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>554</v>
+      </c>
+      <c r="J82" t="s">
+        <v>555</v>
+      </c>
+      <c r="K82" t="s">
+        <v>556</v>
+      </c>
+      <c r="L82" t="s">
+        <v>557</v>
+      </c>
+      <c r="M82" t="n">
+        <v>5</v>
+      </c>
+      <c r="N82" t="s"/>
+      <c r="O82" t="s"/>
+      <c r="P82" t="s"/>
+      <c r="Q82" t="s"/>
+      <c r="R82" t="s"/>
+      <c r="S82" t="s"/>
+      <c r="T82" t="s"/>
+      <c r="U82" t="s"/>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s">
+        <v>550</v>
+      </c>
+      <c r="X82" t="s">
+        <v>551</v>
+      </c>
+      <c r="Y82" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>63587</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>559</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>560</v>
+      </c>
+      <c r="J83" t="s">
+        <v>561</v>
+      </c>
+      <c r="K83" t="s">
+        <v>562</v>
+      </c>
+      <c r="L83" t="s">
+        <v>563</v>
+      </c>
+      <c r="M83" t="n">
+        <v>5</v>
+      </c>
+      <c r="N83" t="s">
+        <v>564</v>
+      </c>
+      <c r="O83" t="s">
+        <v>60</v>
+      </c>
+      <c r="P83" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q83" t="s"/>
+      <c r="R83" t="n">
+        <v>3</v>
+      </c>
+      <c r="S83" t="s"/>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>5</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s">
+        <v>565</v>
+      </c>
+      <c r="X83" t="s">
+        <v>566</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>63587</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>568</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>569</v>
+      </c>
+      <c r="J84" t="s">
+        <v>570</v>
+      </c>
+      <c r="K84" t="s">
+        <v>571</v>
+      </c>
+      <c r="L84" t="s">
+        <v>572</v>
+      </c>
+      <c r="M84" t="n">
+        <v>5</v>
+      </c>
+      <c r="N84" t="s">
+        <v>573</v>
+      </c>
+      <c r="O84" t="s">
+        <v>114</v>
+      </c>
+      <c r="P84" t="s"/>
+      <c r="Q84" t="n">
+        <v>5</v>
+      </c>
+      <c r="R84" t="s"/>
+      <c r="S84" t="n">
+        <v>5</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>5</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s">
+        <v>574</v>
+      </c>
+      <c r="X84" t="s">
+        <v>575</v>
+      </c>
+      <c r="Y84" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>63587</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>577</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>578</v>
+      </c>
+      <c r="J85" t="s">
+        <v>579</v>
+      </c>
+      <c r="K85" t="s">
+        <v>580</v>
+      </c>
+      <c r="L85" t="s">
+        <v>581</v>
+      </c>
+      <c r="M85" t="n">
+        <v>4</v>
+      </c>
+      <c r="N85" t="s">
+        <v>582</v>
+      </c>
+      <c r="O85" t="s">
+        <v>60</v>
+      </c>
+      <c r="P85" t="s"/>
+      <c r="Q85" t="s"/>
+      <c r="R85" t="s"/>
+      <c r="S85" t="s"/>
+      <c r="T85" t="s"/>
+      <c r="U85" t="s"/>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s">
+        <v>583</v>
+      </c>
+      <c r="X85" t="s">
+        <v>584</v>
+      </c>
+      <c r="Y85" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>63587</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>586</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>587</v>
+      </c>
+      <c r="J86" t="s">
+        <v>588</v>
+      </c>
+      <c r="K86" t="s">
+        <v>589</v>
+      </c>
+      <c r="L86" t="s">
+        <v>590</v>
+      </c>
+      <c r="M86" t="n">
+        <v>5</v>
+      </c>
+      <c r="N86" t="s">
+        <v>582</v>
+      </c>
+      <c r="O86" t="s">
+        <v>53</v>
+      </c>
+      <c r="P86" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>5</v>
+      </c>
+      <c r="R86" t="s"/>
+      <c r="S86" t="s"/>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>5</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s">
+        <v>591</v>
+      </c>
+      <c r="X86" t="s">
+        <v>592</v>
+      </c>
+      <c r="Y86" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>63587</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>594</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>595</v>
+      </c>
+      <c r="J87" t="s">
+        <v>588</v>
+      </c>
+      <c r="K87" t="s">
+        <v>596</v>
+      </c>
+      <c r="L87" t="s">
+        <v>597</v>
+      </c>
+      <c r="M87" t="n">
+        <v>5</v>
+      </c>
+      <c r="N87" t="s">
+        <v>582</v>
+      </c>
+      <c r="O87" t="s">
+        <v>153</v>
+      </c>
+      <c r="P87" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q87" t="s"/>
+      <c r="R87" t="s"/>
+      <c r="S87" t="s"/>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>5</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s">
+        <v>598</v>
+      </c>
+      <c r="X87" t="s">
+        <v>599</v>
+      </c>
+      <c r="Y87" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>63587</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>601</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>602</v>
+      </c>
+      <c r="J88" t="s">
+        <v>603</v>
+      </c>
+      <c r="K88" t="s">
+        <v>604</v>
+      </c>
+      <c r="L88" t="s">
+        <v>605</v>
+      </c>
+      <c r="M88" t="n">
+        <v>5</v>
+      </c>
+      <c r="N88" t="s">
+        <v>564</v>
+      </c>
+      <c r="O88" t="s">
+        <v>60</v>
+      </c>
+      <c r="P88" t="s"/>
+      <c r="Q88" t="s"/>
+      <c r="R88" t="n">
+        <v>4</v>
+      </c>
+      <c r="S88" t="n">
+        <v>5</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>5</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s">
+        <v>606</v>
+      </c>
+      <c r="X88" t="s">
+        <v>607</v>
+      </c>
+      <c r="Y88" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>63587</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>609</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>610</v>
+      </c>
+      <c r="J89" t="s">
+        <v>611</v>
+      </c>
+      <c r="K89" t="s">
+        <v>612</v>
+      </c>
+      <c r="L89" t="s">
+        <v>613</v>
+      </c>
+      <c r="M89" t="n">
+        <v>5</v>
+      </c>
+      <c r="N89" t="s">
+        <v>564</v>
+      </c>
+      <c r="O89" t="s">
+        <v>53</v>
+      </c>
+      <c r="P89" t="s"/>
+      <c r="Q89" t="s"/>
+      <c r="R89" t="s"/>
+      <c r="S89" t="s"/>
+      <c r="T89" t="s"/>
+      <c r="U89" t="s"/>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s">
+        <v>614</v>
+      </c>
+      <c r="X89" t="s">
+        <v>615</v>
+      </c>
+      <c r="Y89" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>63587</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>617</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>618</v>
+      </c>
+      <c r="J90" t="s">
+        <v>619</v>
+      </c>
+      <c r="K90" t="s">
+        <v>620</v>
+      </c>
+      <c r="L90" t="s">
+        <v>621</v>
+      </c>
+      <c r="M90" t="n">
+        <v>5</v>
+      </c>
+      <c r="N90" t="s">
+        <v>564</v>
+      </c>
+      <c r="O90" t="s">
+        <v>60</v>
+      </c>
+      <c r="P90" t="s"/>
+      <c r="Q90" t="s"/>
+      <c r="R90" t="n">
+        <v>5</v>
+      </c>
+      <c r="S90" t="n">
+        <v>5</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>5</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s">
+        <v>622</v>
+      </c>
+      <c r="X90" t="s">
+        <v>623</v>
+      </c>
+      <c r="Y90" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>63587</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>625</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>626</v>
+      </c>
+      <c r="J91" t="s">
+        <v>627</v>
+      </c>
+      <c r="K91" t="s">
+        <v>628</v>
+      </c>
+      <c r="L91" t="s">
+        <v>629</v>
+      </c>
+      <c r="M91" t="n">
+        <v>5</v>
+      </c>
+      <c r="N91" t="s">
+        <v>564</v>
+      </c>
+      <c r="O91" t="s">
+        <v>60</v>
+      </c>
+      <c r="P91" t="s"/>
+      <c r="Q91" t="s"/>
+      <c r="R91" t="s"/>
+      <c r="S91" t="s"/>
+      <c r="T91" t="s"/>
+      <c r="U91" t="s"/>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s">
+        <v>622</v>
+      </c>
+      <c r="X91" t="s">
+        <v>623</v>
+      </c>
+      <c r="Y91" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>63587</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>631</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>632</v>
+      </c>
+      <c r="J92" t="s">
+        <v>633</v>
+      </c>
+      <c r="K92" t="s">
+        <v>634</v>
+      </c>
+      <c r="L92" t="s">
+        <v>635</v>
+      </c>
+      <c r="M92" t="n">
+        <v>5</v>
+      </c>
+      <c r="N92" t="s">
+        <v>564</v>
+      </c>
+      <c r="O92" t="s">
+        <v>60</v>
+      </c>
+      <c r="P92" t="s"/>
+      <c r="Q92" t="s"/>
+      <c r="R92" t="s"/>
+      <c r="S92" t="n">
+        <v>5</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>5</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s">
+        <v>636</v>
+      </c>
+      <c r="X92" t="s">
+        <v>637</v>
+      </c>
+      <c r="Y92" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>63587</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>639</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>640</v>
+      </c>
+      <c r="J93" t="s">
+        <v>641</v>
+      </c>
+      <c r="K93" t="s">
+        <v>642</v>
+      </c>
+      <c r="L93" t="s">
+        <v>643</v>
+      </c>
+      <c r="M93" t="n">
+        <v>5</v>
+      </c>
+      <c r="N93" t="s">
+        <v>564</v>
+      </c>
+      <c r="O93" t="s">
+        <v>60</v>
+      </c>
+      <c r="P93" t="s"/>
+      <c r="Q93" t="s"/>
+      <c r="R93" t="n">
+        <v>5</v>
+      </c>
+      <c r="S93" t="n">
+        <v>5</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>5</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s">
+        <v>644</v>
+      </c>
+      <c r="X93" t="s">
+        <v>645</v>
+      </c>
+      <c r="Y93" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>63587</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>647</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>648</v>
+      </c>
+      <c r="J94" t="s">
+        <v>649</v>
+      </c>
+      <c r="K94" t="s">
+        <v>650</v>
+      </c>
+      <c r="L94" t="s">
+        <v>651</v>
+      </c>
+      <c r="M94" t="n">
+        <v>5</v>
+      </c>
+      <c r="N94" t="s">
+        <v>652</v>
+      </c>
+      <c r="O94" t="s">
+        <v>53</v>
+      </c>
+      <c r="P94" t="s"/>
+      <c r="Q94" t="n">
+        <v>5</v>
+      </c>
+      <c r="R94" t="n">
+        <v>5</v>
+      </c>
+      <c r="S94" t="s"/>
+      <c r="T94" t="s"/>
+      <c r="U94" t="n">
+        <v>4</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s">
+        <v>653</v>
+      </c>
+      <c r="X94" t="s">
+        <v>654</v>
+      </c>
+      <c r="Y94" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>63587</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>44</v>
+      </c>
+      <c r="F95" t="s">
+        <v>656</v>
+      </c>
+      <c r="G95" t="s">
+        <v>46</v>
+      </c>
+      <c r="H95" t="s">
+        <v>47</v>
+      </c>
+      <c r="I95" t="s">
+        <v>657</v>
+      </c>
+      <c r="J95" t="s">
+        <v>658</v>
+      </c>
+      <c r="K95" t="s">
+        <v>659</v>
+      </c>
+      <c r="L95" t="s">
+        <v>660</v>
+      </c>
+      <c r="M95" t="n">
+        <v>5</v>
+      </c>
+      <c r="N95" t="s">
+        <v>652</v>
+      </c>
+      <c r="O95" t="s">
+        <v>53</v>
+      </c>
+      <c r="P95" t="s"/>
+      <c r="Q95" t="n">
+        <v>4</v>
+      </c>
+      <c r="R95" t="s"/>
+      <c r="S95" t="n">
+        <v>4</v>
+      </c>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>4</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s">
+        <v>661</v>
+      </c>
+      <c r="X95" t="s">
+        <v>662</v>
+      </c>
+      <c r="Y95" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>63587</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>44</v>
+      </c>
+      <c r="F96" t="s">
+        <v>664</v>
+      </c>
+      <c r="G96" t="s">
+        <v>46</v>
+      </c>
+      <c r="H96" t="s">
+        <v>47</v>
+      </c>
+      <c r="I96" t="s">
+        <v>665</v>
+      </c>
+      <c r="J96" t="s">
+        <v>666</v>
+      </c>
+      <c r="K96" t="s">
+        <v>667</v>
+      </c>
+      <c r="L96" t="s">
+        <v>668</v>
+      </c>
+      <c r="M96" t="n">
+        <v>5</v>
+      </c>
+      <c r="N96" t="s">
+        <v>652</v>
+      </c>
+      <c r="O96" t="s">
+        <v>53</v>
+      </c>
+      <c r="P96" t="s"/>
+      <c r="Q96" t="s"/>
+      <c r="R96" t="s"/>
+      <c r="S96" t="n">
+        <v>5</v>
+      </c>
+      <c r="T96" t="s"/>
+      <c r="U96" t="n">
+        <v>5</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s">
+        <v>669</v>
+      </c>
+      <c r="X96" t="s">
+        <v>670</v>
+      </c>
+      <c r="Y96" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>63587</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>44</v>
+      </c>
+      <c r="F97" t="s">
+        <v>672</v>
+      </c>
+      <c r="G97" t="s">
+        <v>46</v>
+      </c>
+      <c r="H97" t="s">
+        <v>47</v>
+      </c>
+      <c r="I97" t="s">
+        <v>673</v>
+      </c>
+      <c r="J97" t="s">
+        <v>674</v>
+      </c>
+      <c r="K97" t="s">
+        <v>675</v>
+      </c>
+      <c r="L97" t="s">
+        <v>676</v>
+      </c>
+      <c r="M97" t="n">
+        <v>5</v>
+      </c>
+      <c r="N97" t="s">
+        <v>652</v>
+      </c>
+      <c r="O97" t="s">
+        <v>60</v>
+      </c>
+      <c r="P97" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q97" t="s"/>
+      <c r="R97" t="s"/>
+      <c r="S97" t="n">
+        <v>5</v>
+      </c>
+      <c r="T97" t="s"/>
+      <c r="U97" t="n">
+        <v>5</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s">
+        <v>677</v>
+      </c>
+      <c r="X97" t="s">
+        <v>678</v>
+      </c>
+      <c r="Y97" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>63587</v>
+      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
+      <c r="D98" t="n">
+        <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>44</v>
+      </c>
+      <c r="F98" t="s">
+        <v>680</v>
+      </c>
+      <c r="G98" t="s">
+        <v>46</v>
+      </c>
+      <c r="H98" t="s">
+        <v>47</v>
+      </c>
+      <c r="I98" t="s">
+        <v>681</v>
+      </c>
+      <c r="J98" t="s">
+        <v>682</v>
+      </c>
+      <c r="K98" t="s">
+        <v>683</v>
+      </c>
+      <c r="L98" t="s">
+        <v>684</v>
+      </c>
+      <c r="M98" t="n">
+        <v>4</v>
+      </c>
+      <c r="N98" t="s">
+        <v>685</v>
+      </c>
+      <c r="O98" t="s">
+        <v>53</v>
+      </c>
+      <c r="P98" t="s"/>
+      <c r="Q98" t="s"/>
+      <c r="R98" t="n">
+        <v>5</v>
+      </c>
+      <c r="S98" t="n">
+        <v>3</v>
+      </c>
+      <c r="T98" t="s"/>
+      <c r="U98" t="n">
+        <v>5</v>
+      </c>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="s">
+        <v>686</v>
+      </c>
+      <c r="X98" t="s">
+        <v>687</v>
+      </c>
+      <c r="Y98" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>63587</v>
+      </c>
+      <c r="B99" t="s"/>
+      <c r="C99" t="s"/>
+      <c r="D99" t="n">
+        <v>98</v>
+      </c>
+      <c r="E99" t="s">
+        <v>44</v>
+      </c>
+      <c r="F99" t="s">
+        <v>689</v>
+      </c>
+      <c r="G99" t="s">
+        <v>46</v>
+      </c>
+      <c r="H99" t="s">
+        <v>47</v>
+      </c>
+      <c r="I99" t="s">
+        <v>690</v>
+      </c>
+      <c r="J99" t="s">
+        <v>691</v>
+      </c>
+      <c r="K99" t="s">
+        <v>692</v>
+      </c>
+      <c r="L99" t="s">
+        <v>693</v>
+      </c>
+      <c r="M99" t="n">
+        <v>5</v>
+      </c>
+      <c r="N99" t="s">
+        <v>685</v>
+      </c>
+      <c r="O99" t="s">
+        <v>60</v>
+      </c>
+      <c r="P99" t="s"/>
+      <c r="Q99" t="s"/>
+      <c r="R99" t="s"/>
+      <c r="S99" t="n">
+        <v>5</v>
+      </c>
+      <c r="T99" t="s"/>
+      <c r="U99" t="n">
+        <v>4</v>
+      </c>
+      <c r="V99" t="n">
+        <v>0</v>
+      </c>
+      <c r="W99" t="s">
+        <v>694</v>
+      </c>
+      <c r="X99" t="s">
+        <v>695</v>
+      </c>
+      <c r="Y99" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>63587</v>
+      </c>
+      <c r="B100" t="s"/>
+      <c r="C100" t="s"/>
+      <c r="D100" t="n">
+        <v>99</v>
+      </c>
+      <c r="E100" t="s">
+        <v>44</v>
+      </c>
+      <c r="F100" t="s">
+        <v>697</v>
+      </c>
+      <c r="G100" t="s">
+        <v>46</v>
+      </c>
+      <c r="H100" t="s">
+        <v>47</v>
+      </c>
+      <c r="I100" t="s">
+        <v>698</v>
+      </c>
+      <c r="J100" t="s">
+        <v>699</v>
+      </c>
+      <c r="K100" t="s">
+        <v>700</v>
+      </c>
+      <c r="L100" t="s">
+        <v>701</v>
+      </c>
+      <c r="M100" t="n">
+        <v>1</v>
+      </c>
+      <c r="N100" t="s">
+        <v>685</v>
+      </c>
+      <c r="O100" t="s">
+        <v>60</v>
+      </c>
+      <c r="P100" t="s"/>
+      <c r="Q100" t="s"/>
+      <c r="R100" t="s"/>
+      <c r="S100" t="s"/>
+      <c r="T100" t="s"/>
+      <c r="U100" t="s"/>
+      <c r="V100" t="n">
+        <v>0</v>
+      </c>
+      <c r="W100" t="s">
+        <v>694</v>
+      </c>
+      <c r="X100" t="s">
+        <v>695</v>
+      </c>
+      <c r="Y100" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>63587</v>
+      </c>
+      <c r="B101" t="s"/>
+      <c r="C101" t="s"/>
+      <c r="D101" t="n">
+        <v>100</v>
+      </c>
+      <c r="E101" t="s">
+        <v>44</v>
+      </c>
+      <c r="F101" t="s">
+        <v>703</v>
+      </c>
+      <c r="G101" t="s">
+        <v>46</v>
+      </c>
+      <c r="H101" t="s">
+        <v>47</v>
+      </c>
+      <c r="I101" t="s">
+        <v>704</v>
+      </c>
+      <c r="J101" t="s">
+        <v>705</v>
+      </c>
+      <c r="K101" t="s">
+        <v>706</v>
+      </c>
+      <c r="L101" t="s">
+        <v>707</v>
+      </c>
+      <c r="M101" t="n">
+        <v>4</v>
+      </c>
+      <c r="N101" t="s">
+        <v>685</v>
+      </c>
+      <c r="O101" t="s">
+        <v>53</v>
+      </c>
+      <c r="P101" t="s"/>
+      <c r="Q101" t="s"/>
+      <c r="R101" t="s"/>
+      <c r="S101" t="s"/>
+      <c r="T101" t="s"/>
+      <c r="U101" t="s"/>
+      <c r="V101" t="n">
+        <v>0</v>
+      </c>
+      <c r="W101" t="s">
+        <v>708</v>
+      </c>
+      <c r="X101" t="s">
+        <v>709</v>
+      </c>
+      <c r="Y101" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>63587</v>
+      </c>
+      <c r="B102" t="s"/>
+      <c r="C102" t="s"/>
+      <c r="D102" t="n">
+        <v>101</v>
+      </c>
+      <c r="E102" t="s">
+        <v>44</v>
+      </c>
+      <c r="F102" t="s">
+        <v>711</v>
+      </c>
+      <c r="G102" t="s">
+        <v>46</v>
+      </c>
+      <c r="H102" t="s">
+        <v>47</v>
+      </c>
+      <c r="I102" t="s">
+        <v>712</v>
+      </c>
+      <c r="J102" t="s">
+        <v>713</v>
+      </c>
+      <c r="K102" t="s">
+        <v>714</v>
+      </c>
+      <c r="L102" t="s">
+        <v>715</v>
+      </c>
+      <c r="M102" t="n">
+        <v>4</v>
+      </c>
+      <c r="N102" t="s">
+        <v>716</v>
+      </c>
+      <c r="O102" t="s">
+        <v>114</v>
+      </c>
+      <c r="P102" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q102" t="s"/>
+      <c r="R102" t="s"/>
+      <c r="S102" t="s"/>
+      <c r="T102" t="s"/>
+      <c r="U102" t="n">
+        <v>5</v>
+      </c>
+      <c r="V102" t="n">
+        <v>0</v>
+      </c>
+      <c r="W102" t="s">
+        <v>708</v>
+      </c>
+      <c r="X102" t="s">
+        <v>709</v>
+      </c>
+      <c r="Y102" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>63587</v>
+      </c>
+      <c r="B103" t="s"/>
+      <c r="C103" t="s"/>
+      <c r="D103" t="n">
+        <v>102</v>
+      </c>
+      <c r="E103" t="s">
+        <v>44</v>
+      </c>
+      <c r="F103" t="s">
+        <v>718</v>
+      </c>
+      <c r="G103" t="s">
+        <v>46</v>
+      </c>
+      <c r="H103" t="s">
+        <v>47</v>
+      </c>
+      <c r="I103" t="s">
+        <v>719</v>
+      </c>
+      <c r="J103" t="s">
+        <v>720</v>
+      </c>
+      <c r="K103" t="s">
+        <v>721</v>
+      </c>
+      <c r="L103" t="s">
+        <v>722</v>
+      </c>
+      <c r="M103" t="n">
+        <v>2</v>
+      </c>
+      <c r="N103" t="s">
+        <v>716</v>
+      </c>
+      <c r="O103" t="s">
+        <v>53</v>
+      </c>
+      <c r="P103" t="s"/>
+      <c r="Q103" t="s"/>
+      <c r="R103" t="s"/>
+      <c r="S103" t="n">
+        <v>2</v>
+      </c>
+      <c r="T103" t="s"/>
+      <c r="U103" t="n">
+        <v>2</v>
+      </c>
+      <c r="V103" t="n">
+        <v>0</v>
+      </c>
+      <c r="W103" t="s">
+        <v>723</v>
+      </c>
+      <c r="X103" t="s">
+        <v>724</v>
+      </c>
+      <c r="Y103" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>63587</v>
+      </c>
+      <c r="B104" t="s"/>
+      <c r="C104" t="s"/>
+      <c r="D104" t="n">
+        <v>103</v>
+      </c>
+      <c r="E104" t="s">
+        <v>44</v>
+      </c>
+      <c r="F104" t="s">
+        <v>726</v>
+      </c>
+      <c r="G104" t="s">
+        <v>46</v>
+      </c>
+      <c r="H104" t="s">
+        <v>47</v>
+      </c>
+      <c r="I104" t="s">
+        <v>727</v>
+      </c>
+      <c r="J104" t="s">
+        <v>728</v>
+      </c>
+      <c r="K104" t="s">
+        <v>729</v>
+      </c>
+      <c r="L104" t="s">
+        <v>730</v>
+      </c>
+      <c r="M104" t="n">
+        <v>3</v>
+      </c>
+      <c r="N104" t="s">
+        <v>410</v>
+      </c>
+      <c r="O104" t="s">
+        <v>60</v>
+      </c>
+      <c r="P104" t="s"/>
+      <c r="Q104" t="s"/>
+      <c r="R104" t="n">
+        <v>3</v>
+      </c>
+      <c r="S104" t="n">
+        <v>2</v>
+      </c>
+      <c r="T104" t="s"/>
+      <c r="U104" t="n">
+        <v>3</v>
+      </c>
+      <c r="V104" t="n">
+        <v>0</v>
+      </c>
+      <c r="W104" t="s">
+        <v>731</v>
+      </c>
+      <c r="X104" t="s">
+        <v>732</v>
+      </c>
+      <c r="Y104" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>63587</v>
+      </c>
+      <c r="B105" t="s"/>
+      <c r="C105" t="s"/>
+      <c r="D105" t="n">
+        <v>104</v>
+      </c>
+      <c r="E105" t="s">
+        <v>44</v>
+      </c>
+      <c r="F105" t="s">
+        <v>734</v>
+      </c>
+      <c r="G105" t="s">
+        <v>46</v>
+      </c>
+      <c r="H105" t="s">
+        <v>47</v>
+      </c>
+      <c r="I105" t="s">
+        <v>735</v>
+      </c>
+      <c r="J105" t="s">
+        <v>736</v>
+      </c>
+      <c r="K105" t="s">
+        <v>737</v>
+      </c>
+      <c r="L105" t="s">
+        <v>738</v>
+      </c>
+      <c r="M105" t="n">
+        <v>5</v>
+      </c>
+      <c r="N105" t="s">
+        <v>410</v>
+      </c>
+      <c r="O105" t="s">
+        <v>60</v>
+      </c>
+      <c r="P105" t="s"/>
+      <c r="Q105" t="s"/>
+      <c r="R105" t="s"/>
+      <c r="S105" t="n">
+        <v>5</v>
+      </c>
+      <c r="T105" t="s"/>
+      <c r="U105" t="n">
+        <v>5</v>
+      </c>
+      <c r="V105" t="n">
+        <v>0</v>
+      </c>
+      <c r="W105" t="s"/>
+      <c r="X105" t="s"/>
+      <c r="Y105" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>63587</v>
+      </c>
+      <c r="B106" t="s"/>
+      <c r="C106" t="s"/>
+      <c r="D106" t="n">
+        <v>105</v>
+      </c>
+      <c r="E106" t="s">
+        <v>44</v>
+      </c>
+      <c r="F106" t="s">
+        <v>740</v>
+      </c>
+      <c r="G106" t="s">
+        <v>46</v>
+      </c>
+      <c r="H106" t="s">
+        <v>47</v>
+      </c>
+      <c r="I106" t="s">
+        <v>741</v>
+      </c>
+      <c r="J106" t="s">
+        <v>742</v>
+      </c>
+      <c r="K106" t="s">
+        <v>743</v>
+      </c>
+      <c r="L106" t="s">
+        <v>744</v>
+      </c>
+      <c r="M106" t="n">
+        <v>1</v>
+      </c>
+      <c r="N106" t="s">
+        <v>410</v>
+      </c>
+      <c r="O106" t="s">
+        <v>60</v>
+      </c>
+      <c r="P106" t="s"/>
+      <c r="Q106" t="n">
+        <v>3</v>
+      </c>
+      <c r="R106" t="s"/>
+      <c r="S106" t="s"/>
+      <c r="T106" t="s"/>
+      <c r="U106" t="n">
+        <v>1</v>
+      </c>
+      <c r="V106" t="n">
+        <v>0</v>
+      </c>
+      <c r="W106" t="s">
+        <v>745</v>
+      </c>
+      <c r="X106" t="s">
+        <v>746</v>
+      </c>
+      <c r="Y106" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>63587</v>
+      </c>
+      <c r="B107" t="s"/>
+      <c r="C107" t="s"/>
+      <c r="D107" t="n">
+        <v>106</v>
+      </c>
+      <c r="E107" t="s">
+        <v>44</v>
+      </c>
+      <c r="F107" t="s">
+        <v>748</v>
+      </c>
+      <c r="G107" t="s">
+        <v>46</v>
+      </c>
+      <c r="H107" t="s">
+        <v>47</v>
+      </c>
+      <c r="I107" t="s">
+        <v>749</v>
+      </c>
+      <c r="J107" t="s">
+        <v>750</v>
+      </c>
+      <c r="K107" t="s">
+        <v>642</v>
+      </c>
+      <c r="L107" t="s">
+        <v>751</v>
+      </c>
+      <c r="M107" t="n">
+        <v>1</v>
+      </c>
+      <c r="N107" t="s">
+        <v>752</v>
+      </c>
+      <c r="O107" t="s">
+        <v>60</v>
+      </c>
+      <c r="P107" t="s"/>
+      <c r="Q107" t="s"/>
+      <c r="R107" t="s"/>
+      <c r="S107" t="s"/>
+      <c r="T107" t="s"/>
+      <c r="U107" t="s"/>
+      <c r="V107" t="n">
+        <v>0</v>
+      </c>
+      <c r="W107" t="s">
+        <v>753</v>
+      </c>
+      <c r="X107" t="s">
+        <v>754</v>
+      </c>
+      <c r="Y107" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>63587</v>
+      </c>
+      <c r="B108" t="s"/>
+      <c r="C108" t="s"/>
+      <c r="D108" t="n">
+        <v>107</v>
+      </c>
+      <c r="E108" t="s">
+        <v>44</v>
+      </c>
+      <c r="F108" t="s">
+        <v>756</v>
+      </c>
+      <c r="G108" t="s">
+        <v>46</v>
+      </c>
+      <c r="H108" t="s">
+        <v>47</v>
+      </c>
+      <c r="I108" t="s">
+        <v>757</v>
+      </c>
+      <c r="J108" t="s">
+        <v>758</v>
+      </c>
+      <c r="K108" t="s">
+        <v>759</v>
+      </c>
+      <c r="L108" t="s">
+        <v>760</v>
+      </c>
+      <c r="M108" t="n">
+        <v>4</v>
+      </c>
+      <c r="N108" t="s">
+        <v>752</v>
+      </c>
+      <c r="O108" t="s">
+        <v>60</v>
+      </c>
+      <c r="P108" t="s"/>
+      <c r="Q108" t="s"/>
+      <c r="R108" t="n">
+        <v>5</v>
+      </c>
+      <c r="S108" t="n">
+        <v>5</v>
+      </c>
+      <c r="T108" t="s"/>
+      <c r="U108" t="n">
+        <v>4</v>
+      </c>
+      <c r="V108" t="n">
+        <v>0</v>
+      </c>
+      <c r="W108" t="s">
+        <v>708</v>
+      </c>
+      <c r="X108" t="s">
+        <v>709</v>
+      </c>
+      <c r="Y108" t="s">
+        <v>761</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Dallas/Dallas_shard_686.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_686.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="762">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="869">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>shanelle505</t>
+  </si>
+  <si>
     <t>06/15/2018</t>
   </si>
   <si>
@@ -180,6 +183,9 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
+    <t>Branike1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r570210856-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -201,6 +207,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>haraja2006</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r550728576-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -219,6 +228,9 @@
     <t>December 2017</t>
   </si>
   <si>
+    <t>jerodb2020</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r531497422-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -237,6 +249,9 @@
     <t>October 2017</t>
   </si>
   <si>
+    <t>JMHorn</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r530762986-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -261,6 +276,9 @@
     <t>I have left two great reviews for this hotel over the past few years. It is in a great location and the rooms are clean and spacious. However, at my most recent visit, my room was across from the elevator. The dinging noise is so loud it wakes you up at night, all night. There is no need for an elevator to be that loud. This really needs to be addressed. Personally, I will continue I stay here but insist on a room far from the elevator. More</t>
   </si>
   <si>
+    <t>w_mhappytexans</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r527074586-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -279,6 +297,9 @@
     <t>September 2017</t>
   </si>
   <si>
+    <t>ShortyRau</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r505531840-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -297,6 +318,9 @@
     <t>July 2017</t>
   </si>
   <si>
+    <t>lsbryant34</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r505521979-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -312,6 +336,9 @@
     <t>My mom, son, and I stayed at this hotel for a basketball tournament. It was an amazing hotel. It's close to several eateries and the mall. Maybe 5 minutes from The Mac where we were playing. The rooms were spacious and clean. We had no problem getting anything extra that we needed. With an active 6 year old that loves wrestling, the sitting area was the perfect place for him. We had to keep extending our check out because my son's team (Arkansas Heat Elite) made it to the championship game (Dallas Main Event) that Sunday (and won). The game was at 2pm and they didn't give us any problems extending our time. Great hotel with friendly and professional service.More</t>
   </si>
   <si>
+    <t>Sunny L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r495599956-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -327,6 +354,9 @@
     <t xml:space="preserve">Quiet and clean modern rooms. Room was exactly as pictured. Easy check in/out and no problem asking for late check out as a member. Great location off of highways and 10-15 min walking distance to several restaurants and Costco. Family suite allows 7 and we had 6 in the room. But it only has one bathroom that's by the king bed!It at least has a separate toilet room from the shower room but still tight to share. Free breakfast was like any other with make your own Texas shaped waffles kids enjoyed. Free lemonade by the bar in the midday was delicious during the 99degree heat. </t>
   </si>
   <si>
+    <t>Tupelo010835</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r486274152-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -343,6 +373,9 @@
   </si>
   <si>
     <t>May 2017</t>
+  </si>
+  <si>
+    <t>Kahuna51</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r483628704-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
@@ -370,6 +403,9 @@
 When I went to the front desk I showed Jacklyn the towel and told her about the blood on the bed expecting her to be as appalled and disgusted as I was, she said simply would you like clean towels or your bed changed? I said I would have preferred the sheets changed BEFORE I arrived but yes I'd like my bed changed and new towels! Then I left for the day. Now you'd think they would immediately send housekeeping to the room in a situation like this to change the bed and change out all the towels for good measure, but no! When I returned hours later the room had been made up, but the original towels were there and the bed made but not changed!! Very upset now I went back to the front desk,...The Springhill Suites in Lewisville is a great hotel, that is until you have a problem.  I travel to the area often and Springhill Suites had become my hotel of choice until my last visit.I checked in late and the next morning examining a shower towel I noticed stains that looked like someone had used the towel to clean up bodily fluids. Appalled and disgusted I was on my way to the front desk  to bring to their attention what I had found when I decided to check the bed. When I pulled back the covers I found a spot of blood!! When I went to the front desk I showed Jacklyn the towel and told her about the blood on the bed expecting her to be as appalled and disgusted as I was, she said simply would you like clean towels or your bed changed? I said I would have preferred the sheets changed BEFORE I arrived but yes I'd like my bed changed and new towels! Then I left for the day. Now you'd think they would immediately send housekeeping to the room in a situation like this to change the bed and change out all the towels for good measure, but no! When I returned hours later the room had been made up, but the original towels were there and the bed made but not changed!! Very upset now I went back to the front desk, asked to speak to a manager and a sales manager was there asking if she could help. I explained my problem AGAIN and it was met with the same apathetic response, would you like new towels or the bed changed!?! I was and am dumbfounded by their lack of response to such a disgusting condition especially in this age of infectious diseases!! I had to leave again and upon returning the bed did appear to be changed but not the towels!?!As I stated before this hotel is a great hotel. Ive stayed here many times and  previously gave it a glowing review but it seems if you have a problem its your problem and they can't be bothered with it. There are many hotels in Lewisville, in fact you can stand in the parking lot of Springhill Suites and see 6 other hotels. From now on I'll be chosing one of those.More</t>
   </si>
   <si>
+    <t>forteiii</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r483033662-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -391,6 +427,9 @@
     <t>Stayed here two nights, while in town on business. The property is immaculately maintained, both inside and out. The rooms are large &amp; comfortable, as expected. Further, the rooms are very tastefully decorated... the bathroom is very nice.There is a great seating area outside, along with a fire pit, which was very nice for an evening cocktail. I regret that I forgot to take a photo of the area.As for the staff, I found them all to be both professional and friendly.As a Platinum Elite / Platinum for Life Status holder with the Marriott brand, I can say that I would not hesitate to stay here again, if in the area. This is a lot of hotel value for the rate charged!More</t>
   </si>
   <si>
+    <t>Kevin W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r473279714-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -406,6 +445,9 @@
     <t>I enjoyed my stay at this Marriott. Bar tender Ebony was amazing at her job and it seemed that everyone enjoyed her. I'd come back just to watch her make the whole place laugh lol. Fix the elevator!!!</t>
   </si>
   <si>
+    <t>Pramod  S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r470982928-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -424,6 +466,9 @@
     <t>March 2017</t>
   </si>
   <si>
+    <t>SupaSlim F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r470002036-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -439,6 +484,9 @@
     <t>Thanks to our hostess Bea we had an awesome stay at SpringHill Dallas Lewisville. The hotel still looks new and the rooms are spacious.  The breakfast bar is included in the price, which is nice when travelling with small kids.  I highly recommend this hotel right next to Vista Ridge Shopping Mall and lots of places for dining options.</t>
   </si>
   <si>
+    <t>TWHRider</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r464174177-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -454,6 +502,9 @@
     <t xml:space="preserve">This was my first stay at this hotel and it was outstanding. Ebony in the lounge area was friendly, accommodating, and made sure all of the patrons were taken care of in a timely manner. She greeted everyone with a smile and a great attitude. Will definitely stay here again. </t>
   </si>
   <si>
+    <t>Coya T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r464173835-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -466,6 +517,9 @@
     <t>Ebony in the lounge are took great care of me and my team.  We appreciated her great attitude and helpful nature.  We will definitely be back.  She is a great asset for this location and made our team meeting a great experience!</t>
   </si>
   <si>
+    <t>karengallegly2016</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r463882018-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -484,6 +538,9 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>Rose M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r462373974-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -505,6 +562,9 @@
     <t>Stayed here for second time President's Day weekend for three nights. First stay was a one night stop as we were passing thru the area. This time, we got upgraded to a two bedroom suite based on gold rewards status. Awesome space including, king bed, sectional sofa, and two queens in second bedroom. Nice that shower was separate from water closet, allowing four of us to share the space efficiently. My husband, two teenaged daughters and I fully enjoyed our stay as we were very comfortable. Room was clean, lighting was fresh and adequately bright, and space included a flatscreen TV in each room, a mini fridge and microwave. Breakfast hours were good and staff didn't rush to clear away the food at the end of the breakfast period, allowing latecomers a chance to grab a bite. Waffles, eggs, sausage, oatmeal, pastries, fresh fruit, yogurt, juice, coffee and milk were available daily. Staff was very friendly and helpful. There were plenty of dining and shopping spots in the immediate area, including Vista Ridge Mall just up the hill. We visited a church  about a mile down the road on Sunday morning. While this hotel is about 20-30 mins from UNT, the value was worth the distance. We will definitely return! More</t>
   </si>
   <si>
+    <t>Brandy W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r461014058-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -520,6 +580,9 @@
     <t xml:space="preserve">The rooms are spacious and clean. Everyone is really nice. One of our kids got sick in the middle of the night and thankfully they cleaned our room the next morning. Ebony at the bar war support nice and really helpful. </t>
   </si>
   <si>
+    <t>Angi D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r458384960-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -535,6 +598,9 @@
     <t>Been staying here every time I'm in the DFW area since May 2016. As a business traveler every week away from home I find this location a home away from home. The staff treat you like family and are so friendly and professional. Rooms are very clean and modern. Bea and Wes and staff are by far the best in the USA!!! The taco night this week was awesome, some of the best I've had. Looking forward to more stays.</t>
   </si>
   <si>
+    <t>Kevin H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r457344352-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -553,6 +619,9 @@
     <t>As a frequent traveler, I've never written a review before but I felt compelled to write on behalf of the compassion I received from Bea at the front not desk.  I regularly stay at Courtyards so this was my first Springhill visit. The hotel lived up to the comforts you would expect from a Marriot brand however it was Bea who put it over the top. My travel was personal. I was in town to say goodbye to my oldest brother (51) who suffered a fatal stroke. Bea broke the ice when my other brother and I checked in. It was then that I learned that she was even more beautiful on the inside than she was standing behind the counter. No one is guaranteed a tomorrow, but for those tomorrows that I have left I hope to meet more Beas of the world. Thank you!!More</t>
   </si>
   <si>
+    <t>shawnhezar</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r456731509-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -571,6 +640,9 @@
     <t>January 2017</t>
   </si>
   <si>
+    <t>mbb0007</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r456675684-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -583,6 +655,9 @@
     <t>I stay here very frequently for business, and I have to say that this hotel is my favorite Marriott in the area. Bea is the most friendly manager, and Katie and Lindsey always have a smile on their faces. The rooms are always clean and the beds always comfy. Location is right near major shopping outlets too. 5/5 in my book; I love this place!</t>
   </si>
   <si>
+    <t>Jeff R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r454860411-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -598,6 +673,9 @@
     <t xml:space="preserve">Walking in every day and seeing the smile and enthusiasm on Bea makes this the place to stay in Lewisville. We stay here every time for work and the rooms are clean and fresh as well as everything else in the hotel. I don't usually partake in the breakfast but it is your typical fare (cereal, oatmeal, breads, etc.).  Shares part of the parking lot with Hampton Inn next door so can be tight. Will continue to stay here during trips to the Lewisville area. </t>
   </si>
   <si>
+    <t>gowingman1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r454383731-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -619,6 +697,9 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
+    <t>MaryFrances 'Fr... G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r453228010-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -634,6 +715,9 @@
     <t>I come into DFW monthly for work and ALWAYS stay at the Marriott properties at Vista RidgeMy favorite being SpringHill - amazing front desk staff - Bernice is a star!They actually care about their guests and do all possible to make us comfortable content and happy If I have to be away from home this is where I want to be Excellent location for dining .....</t>
   </si>
   <si>
+    <t>rbrain2016</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r448164876-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -649,6 +733,9 @@
     <t>Beatrice welcomed us and then proceeded to meet every need. Her friendly, sweet personality was everything Marriott was designed to be! Marriott should be very proud she represents so well! Congratulations on having such great employees! Expressive!</t>
   </si>
   <si>
+    <t>shanica30</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r447040080-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -664,6 +751,9 @@
     <t>my family and I have been here since 12.23.16 and the service is excellent and one lady in particular her name is beatrice is very nice and her smile lights up the minute you walk through the door. she greets you with a welcoming smile. :)</t>
   </si>
   <si>
+    <t>garycbell</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r445719227-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -679,6 +769,9 @@
     <t>I stayed at this hotel last week. It is clean/modern and the service is exceptional.  I left my prescription sunglasses in the room when I checked out.  I called a day later and spoke to Bea.  She made it her priority to locate the glass.  She called me back within 15 minutes to let me know she found it and hold them until my next visit.  Her level of urgency was refreshing and reassuring.The Customer Service is best in class!</t>
   </si>
   <si>
+    <t>Hopper2014AUG</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r442996178-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -703,6 +796,9 @@
     <t>Front desk rude, couldnt find my reservation number. Ended up charging me 96.04 instead of using my rewards points. Front desk refused to assist or resolve issue, I contacted corporate and still couldnt help me even thought she was a manager. I should have gone to the Hilton, dont need the dramaMore</t>
   </si>
   <si>
+    <t>GuanacasteCR2011</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r440241883-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -724,6 +820,9 @@
     <t>I was pleasantly surprised by SpringHill Suites.  The staff was great:  Bea welcomed us with a glowing smile and easy check-in, and continued to be helpful and gracious our entire stay.  Megan was delightful despite working a double shift &amp; Ebony skillfully and calmly worked the bar full of soccer parents. The rooms were amazing -- very spacious (2 queen beds, a small sectional couch, a desk to work at and a nice bathroom with toilet separate from shower) and clean.  It was nice to have a small fridge &amp; microwave too.And, the location is great - so close to everything!Overall, I would highly recommend this hotel and plan to stay here again.More</t>
   </si>
   <si>
+    <t>125lily</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r439326866-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -739,6 +838,9 @@
     <t>The staff was really nice, especially Ebony and Bea. The bar was really clean and there was a fireplace outside. Clean hotel. Comfortable beds and the suites are nice for extra room and office space. I would go back.</t>
   </si>
   <si>
+    <t>jtperry05</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r436662504-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -754,6 +856,9 @@
     <t xml:space="preserve">We enjoyed our stay. The room was clean and service was great. Bea was very welcoming and provided excellent customer service. She is the model of what an employee in hospitality should be. She is excellent. </t>
   </si>
   <si>
+    <t>Alex P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r436659834-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -769,6 +874,9 @@
     <t>I had a great experience at Springhill Suites this weekend.  1st - the location is a great and is surround by a number of amenities. 2nd - the hotel is very clean, and room are great . Finally &amp; Most important their customer service is incredible.  I work for a company were we always count on two things! Our Associates make the difference, and the customer is number 1! That's what I experience at this hotel!  Bea!  Is an amazing associate at this hotel and took great care of us!  She had smile on her face, and welcome us a guest with the up most respect!  Amazing Job!  Thank You Bea! More</t>
   </si>
   <si>
+    <t>Leone L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r435206460-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -784,6 +892,9 @@
     <t>hotel accomodation were great.. clean, the food was great in the morning for the continental breakfast which was all inclusive. Nakia was extremely helpful during my checkin and stay.  I applaud her for taking care of us.The clean staff and food staff very well organized and friendly. Will definitely stay here again ....</t>
   </si>
   <si>
+    <t>841timothyk</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r434696750-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -799,6 +910,9 @@
     <t>Just checked in and the rooms are clean and tons of room; Katie was great, friendly and expedited our checkin... she was alone very patient with a slow customer.  Dropped our bags off and went to get a drink at the bar in the lobby- Ebony was Very Friendly and made the atmosphere lively with only three people at three bar.  Impressive small hotel that I would recommend to anyone!</t>
   </si>
   <si>
+    <t>dmerchant1953</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r434449638-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -814,6 +928,9 @@
     <t>There are several hotels in this area...But I can think of 3 reasons to choose this property: ATMOSPHERE is modern &amp; relaxing.  BEA at the front desk is phenomenal &amp; accommodating. COMFORT &amp; CLEANLINESS is the standard expectation. This property has much to offer from an amazing staff to exceptional service.</t>
   </si>
   <si>
+    <t>A TripAdvisor Member</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r431654999-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -829,6 +946,9 @@
     <t>There are several Marriott hotels in this area. This one is my fav. Nice and clean. You got to experience the elevator. Somehow this place reminds me of Europe.Bra and Katie make me feel at home every time I stay. Keep up with the personal connections! I will come back</t>
   </si>
   <si>
+    <t>meganharding91</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r430732512-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -847,6 +967,9 @@
     <t>October 2016</t>
   </si>
   <si>
+    <t>Chaarles F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r430322261-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -862,6 +985,9 @@
     <t>Bea - one of the front desk professionals - is amazing!  She remembers me every time (and I witnessed her even remember the name of a first time guest) and goes out of her way to take care of the guests.  I stay regularly and one of the reasons is her ability to make everyone feel welcome and special with small, but notable gestures of caring and going above and beyond.</t>
   </si>
   <si>
+    <t>V9247WYjohn</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r423867279-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -880,6 +1006,9 @@
     <t>September 2016</t>
   </si>
   <si>
+    <t>Mary N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r419244485-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -904,6 +1033,9 @@
     <t>I was there this week on business. Room looks nice and beds are comfortable enough though not the best. Slow noisy elevators. A/c somewhat widely swinging temps which is the thermostat. Shower is  not great, though adequate. I didn't like that the toilet is in a separate room with the cutesy sliding doors, from the shower and vanity area. Both separated by a separate closet. And what is with the mirror on top of the main vanity mirror. Good enough if you are tall enough but my face and hair was right in the middle of the 3 inch opaque border. I either had to squat or haul all my makeup and hair care into the toilet area, which has a very tiny lav and NO place to set even a hairbrush!  The most bothersome was that I could hear everything that went on in my neighbor's toilet area (and vice versa I am sure)! There also was some noise from another room that made it sound like someone was walking around my room (not from above as I was on the top floor). Wonderful staff and the breakfast was good.More</t>
   </si>
   <si>
+    <t>budgettraveler119</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r418480009-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -919,6 +1051,9 @@
     <t>Such a nice new Springhill. Everything is so modern and clean, and the staff is so great to work with. Thanks Katie, Bea, and Lindsley! I'll definitely be staying here again the next time I'm in town.</t>
   </si>
   <si>
+    <t>LDP80111</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r415780254-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -937,6 +1072,9 @@
     <t>July 2016</t>
   </si>
   <si>
+    <t>Jeremey R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r415318582-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -955,6 +1093,9 @@
     <t>August 2016</t>
   </si>
   <si>
+    <t>initfrfn</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r413823518-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -970,6 +1111,9 @@
     <t xml:space="preserve">This is a newer facility and is nice. I have reported maintenance issues over the coarse of my stay. I must say Bea and Megan who work the desk are friendly and helpful. They both make you feel welcome and greet you every time they see you. </t>
   </si>
   <si>
+    <t>toddbearup</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r413713289-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -985,6 +1129,9 @@
     <t>Great location.  Great quality rooms.  The staff is top notch.  Bea and Megan are extremely helpful and pleasant and good-lookin to boot!  Nearly every time I come to Dallas, I stay at this hotel.  I've never had a bad experience.  This brand and this location are my go-to.  Bea and Megan are the icing on the cake.</t>
   </si>
   <si>
+    <t>Stephen S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r410762847-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1000,6 +1147,9 @@
     <t>Nothing like a welcoming smile and pleasant hello after a long day of travel, thank you Bea and Alexa, you guys are so sweet! The staff was great, the ladies making breakfast, the housekeeping, all were fabulous. Very nice room, comfy bed and nicely appointed. My only suggestion would be a few USB ports instead of so many electrical outlets.</t>
   </si>
   <si>
+    <t>ThomasLafleurJr</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r410571128-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1012,6 +1162,9 @@
     <t>Love staying here on my trips to the DFW area.  Bea always greets me with a BIG smile and always welcomes me back by name. Very clean and a nice liitle bar to unwind. great location to visit all my accounts from FT. Worth to Mesquite</t>
   </si>
   <si>
+    <t>Benjamin F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r408867074-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1027,6 +1180,9 @@
     <t>I would have thought this hotel was brand new; it's 15 months old. Dea (or Bea) at the front desk is a gem. She was totally welcoming and a great provider of first impressions. I am thoroughly impressed with the cleanliness and the quality of furnishings. I spend many nights a month in hotels. This is the first I plan to make a point to revisit.</t>
   </si>
   <si>
+    <t>mdchachi</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r406848196-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1042,6 +1198,9 @@
     <t xml:space="preserve">I've been staying here on this hotel row practically every week since April. Courtyard at first until I discovered this Springhill Suites. Still feels new. Clean spacious rooms with decent free breakfast. Could do with a little more variety. (After 20 nights here it gets a bit repetitive.) Most rooms are shower only so if you need a bath tub make sure to ask. I prefer the shower myself. Modern &amp; spacious. Great staff especially Bea. She's quick with a smile and always one to make you feel at home.  </t>
   </si>
   <si>
+    <t>dpscout45</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r398203713-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1057,6 +1216,9 @@
     <t>Very friendly staff with great customer service. Lindsey, Bea and Alexia were awesome. Hotel was very clean and breakfast was fresh and stocked. I would totally recommend staying at this location and move to number 1 on my list every time I'm in town.</t>
   </si>
   <si>
+    <t>dapman6451</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r397892983-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1069,6 +1231,9 @@
     <t>The girls at the front desk ALWAYS go above and beyond to take care of me.  I especially like dealing with Bea.  Chrissy and Lindsey are very helpful as well.  They make having to stay away from home 4 nights a week enjoyable.Great Job Marriott Springhill Lewisville.</t>
   </si>
   <si>
+    <t>anthonycatania</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r390041450-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1093,6 +1258,9 @@
     <t>Bea and Nashali are wonderful when you walk through the front door.  They greet you with a smile and make a long day of travel worth it.  Rooms are clean and the bed is comfortable.  Facility has all the amenities you will need for all types of travelers.  This is a brand new hotel and my first choice when I'm in the area for business!More</t>
   </si>
   <si>
+    <t>notpeace911</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r388437274-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1114,6 +1282,9 @@
     <t>I honestly don't know where to begin. I love Marriott as a company &amp; most of the properties but this one is only nice a first glance. The front desk staff are no help, key card system must not work properly because they had to make a key card three different times. No pool towels, bathroom door locks itself. And to top it all off it seems there's never a manager on siteMore</t>
   </si>
   <si>
+    <t>Jayme B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r383165089-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1138,6 +1309,9 @@
     <t>The hotel was nice.  Staff was helpful in setting out cold breakfast stuff early so our team could eat prior to heading to the fields.  My only issue was they gave my room # to someone else at 2a.m. and those people opened and entered my room at 2 a.m.!! The next day I couldn't reenter my room and was told it was assigned to someone else, even though my stuff was in it.  Rather than reassign the room to me (they said that was impossible since the room needed cleaned), they moved me to another room.  Strange inconvenience due to an error on the front desk's part.More</t>
   </si>
   <si>
+    <t>Upaunoz</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r382307785-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1165,6 +1339,9 @@
     <t>We have stayed at multiple Marriott and we're excited to stay at the new Springhill Suites in Lewisville.  We have stayed across the street at the Town Plaza every time we are in town and thought it would be nice to stay at the new property.  Well I must say we have been very disappointed.  First off I was questioned on my Govt ID because it was not TX.  I guess only TX govt employees have business in Lewisville and NM Govt employees don't count.  I have never had that problem ever at any of the multiple Marriott properties I have stayed at.  I was told they would make an exception "this time", which to me meant don't come back again and expect your ID to ever work here again. Second, the toilet seat was about to fall off.  I took it upon myself to fix by tightening the screws because I didn't want nor have the time to wait for a maintenance person to come address. Third, the fan in the bathroom didn't work for the entire trip.  When you are sharing a bathroom with someone, that is an important feature to have.  Forth, the shower door was not put on straight and when taking a shower the water would get out on the floor  causing a potential risk of falling on a wet slippery floor.  Fifth, the door to the bathroom rolls back and forth on rollers to...We have stayed at multiple Marriott and we're excited to stay at the new Springhill Suites in Lewisville.  We have stayed across the street at the Town Plaza every time we are in town and thought it would be nice to stay at the new property.  Well I must say we have been very disappointed.  First off I was questioned on my Govt ID because it was not TX.  I guess only TX govt employees have business in Lewisville and NM Govt employees don't count.  I have never had that problem ever at any of the multiple Marriott properties I have stayed at.  I was told they would make an exception "this time", which to me meant don't come back again and expect your ID to ever work here again. Second, the toilet seat was about to fall off.  I took it upon myself to fix by tightening the screws because I didn't want nor have the time to wait for a maintenance person to come address. Third, the fan in the bathroom didn't work for the entire trip.  When you are sharing a bathroom with someone, that is an important feature to have.  Forth, the shower door was not put on straight and when taking a shower the water would get out on the floor  causing a potential risk of falling on a wet slippery floor.  Fifth, the door to the bathroom rolls back and forth on rollers to open and shut.  It was the hardest door I have ever encountered to try it shut and equally as hard to get open.  If an elderly person were here I am certain they would not be able to operate it at all. Sixth, we decided to enjoy some time at the pool.  It was 2:00 o'clock in the afternoon and there were no towels at all.  I called the front desk and they sent a man that brought one towel and said sorry but all our towels are dirty.  But the worst part of the pool was the multiple globs of gum that people had either spit out or placed on the ground had not been picked up. Nothing like coming up at the edge of the pool and then put your hand right on top of someone's spent gum wad.  Last, there must be a problem with their key system because it crapped out on me three times.  And yes I was carful to keep them separated from my phone.  It gave me good exercise tho I guess. Once walking out the back door to my vehicle only to find I couldn't get back in and had to walk all around the building and twice getting to my room and finding that the key wouldn't work, getting to walk back to the front desk to retrieve another.I stay at multiple Marriott properties and am not going to hold the entire chain responsible for this poorly managed property.  The next time I am in Lewisville, which is 4-5 times a year, I can guarantee I will not be staying at this property while it is under the current management.More</t>
   </si>
   <si>
+    <t>Susan T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r381269860-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1189,6 +1366,9 @@
     <t>I've been staying here off and on for over a year and can't express how wonderful the staff makes you feel. Have to throw a special shout out to Bea she's amazing and make you feel like you're coming home every time you come through those sliding glass doors. Ashley and Kacl are always so helpful... I will miss you all after this last tripMore</t>
   </si>
   <si>
+    <t>Mark S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r380410901-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1213,6 +1393,9 @@
     <t>I recently returned back to the Dallas area and stayed again at the SpringHill Suites in Lewisville.  My first visit was outstanding and I wanted to see if it has changed at all.  It has not... The service and staff are excellent.Breakfast was good ...and the lobby area during the evening provides a place to meet with friends.  The attendant Alexia was very nice and made everyone feel welcomed.Bea at the front desk was also extremely helpful with anything the guests needed.Nick the GM does an outstanding job managing this hotel and you'll not be disappointed.More</t>
   </si>
   <si>
+    <t>Zanione</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r379204381-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1237,6 +1420,9 @@
     <t>Great hotel with clean rooms and awesome service!  Bea Talley, Chris and Nick in the front desk welcome you like family and treat you the same.  In fact, one night when I was working on a report for work and needed a drink from the market place in the lobby - but didn't have the time to spare to actually go get it  -  Bea brought it to my door. with a smile   It was SO APPRECIATED!!  Better service than provided by this hotel will be hard to find.More</t>
   </si>
   <si>
+    <t>livelovex7</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r377450155-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1258,6 +1444,9 @@
     <t>Yay what a great overnight stay! Used our points to stay and loved how nice and new this hotel was! We had a wedding to go to so stayed here and it was perfect and comfortable. Albeit a bit far from downtown where the wedding was and bad construction from here to downtown-horrid roads but didn't deter from the stay. It was nice and clean. Breakfast ample and quaint. No complaints. Was very comfortable. It was near enough to our friends around this area and church the next day. Great suburbs area, felt safe and great locale and ease to get on the freeway to head out. Will definitely consider staying here again if in this part of Dallas!More</t>
   </si>
   <si>
+    <t>Reyn G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r376390293-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1282,6 +1471,9 @@
     <t>I had a great experience while staying in the area for an extended weekend.  Bea met me at the front desk and was extremely helpful and made me feel right at home.  I had friends staying at the Hampton Inn and Suites next door and they wished they would have stayed at the Springhill Suites because of the A+ treatment the staff at Springhill Suites gave me.  They also have a bar in the main lobby which other hotels in the area did not have.  The rooms are excellent and laid out like no other hotel, very modern and comfortable.  The bed was extremely comfortable and no back pain for me which is unusual. Highly recommend this hotel.More</t>
   </si>
   <si>
+    <t>775shirleyt</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r372681560-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1309,6 +1501,9 @@
     <t>We stayed at the SpringHill Suites Dallas Lewisville the weekend of April 29th. This would have been my 2nd time staying at a SpringHill Suites. The inside and outside were clean and I, again, liked how spacious the suites were. However, as I was settling in for the night, I noticed a flosser on the floor. Small things like that can change someone's impression of their stay. The bathroom tub looked like there was dirt in it, but it didn't wash off so I am assuming it was rust spots all over the bottom of the tub. I was quite disappointed.More</t>
   </si>
   <si>
+    <t>BearAndTheCat</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r365775458-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1333,6 +1528,9 @@
     <t>I had to do some work in Lewisville and was looking for a nice, convenient Marriott to maximize my membership. =)This is a new-looking hotel with friendly staff that were ready for me (checked in via the app) as soon as I walked in.  The lobby was nice but unfortunately I was too late for the bar so I can't comment on that.  The king room was nice with a living area, desk, refrigerator, microwave, coffee maker, etc.  The bathroom with shower was nice as well, and the only knock was that the cleaning person (or previous person?) left a lot of long, brown hairs all over the floor near the sink and toilet area.Not a huge deal, obviously, but a new room should be clean.You're located very close to miscellaneous restaurants and shops (mall) as well as the freeway to get to where you need to go.Otherwise, if you have to work in the Lewisville area, this is a good choice!More</t>
   </si>
   <si>
+    <t>MemphisCat</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r362387200-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1357,6 +1555,9 @@
     <t>This hotel is beautiful inside.  Very well decorated and extremely clean.  You can tell the staff is proud of it.  Our room was huge, with a very comfortable king size bed.  The bathroom was spotless.  The suite is very nicely laid out with a good size desk area, a fold out bed that serves as a couch/chaise and a huge closet.  All the amenities you can think of - refrigerator, microwave, hair dryer, iron and ironing board, etc.  Our room was also very quiet.  The breakfast is wonderful with a lot of healthy options.  There is a bar area that offers beer and wine on week nights so you can sit and relax either inside, or outside on the porch area that had a nice fire pit.  I liked that there were canisters for recycle as well as garbage.  My husband was in town for a meeting and I tagged along to visit friends.  His company put us up here and I was so happy they did.  I would stay here again if I am ever in the area.  Highly recommend this wonderful hotel.More</t>
   </si>
   <si>
+    <t>Aqudavpey</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r357803982-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1384,6 +1585,9 @@
     <t>My little boys and I traveled to Lewisville Texas to visit my uncle for the weekend.  This hotel was by far the best hotel we have stayed at in a very long time.  The general manger Nick H. was very nice and helpful.  I was amazed with the housekeepers and also the breakfast staff. The room was very clean and modern  with a great view. My 4 year said mommy we can see the whole world from here...lol  Also my little guys enjoyed the bubble wall as we waited for the elevator.  I highly recommend this hotel to anyone that is traveling to the area.  It is kid friendly, close to the mall, department/grocery stores and restaurants. Overall the the staff made us feel welcome and we are looking for forward to our next stay this hotel.More</t>
   </si>
   <si>
+    <t>maymay2x</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r357575344-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1408,6 +1612,9 @@
     <t>The room is nice and clean . The location is perfect walking distance to the mall.Restaurants and coffee place walking distance too.We had a little problem check in but Claudia was so patient and helped us. We were there last weekend 3/18/16.More</t>
   </si>
   <si>
+    <t>Dave K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r356090227-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1435,6 +1642,9 @@
     <t>I have been traveling for 29 years. I stay over 60 nights a year in hotels. We stayed recently at the Springhill Suites in Lewisville Texas and their entire staff was extremely friendly and went above an beyond for us. It started with Nick the GM and continued on to Claudia and the remaining front desk staff. Each and every person was incredible! Nick even gave me his dress shirt collar stays because I forgot mine! I would recommend the place just because of that, but also because it was very modern, clean and located around anything you need. Great job all!!More</t>
   </si>
   <si>
+    <t>Debora J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r355323919-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1459,6 +1669,9 @@
     <t>iews5★4★3★2★1★4.410 reviewsRate and reviewJenna Fry2 weeks agoThe rooms are amazing. Clean, stylish, and spacious. My bed was comfortable and the shower was amazing. Front desk staff was friendly and helpful. I enjoyed my stay very much. I would say the breakfast could use some variation. I stayed 3 ...MoreDebora Jonesin the last weekAfter being disappointed with the reservations at another hotel Bea, the front desk clerk was very helpful, kind, and polite. I stayed for 3 nights and every evening she greeted my family with kindness. Marriott you are lucky to have Bea. How you are greeted sets the stage for your stay. She is a great asset to this company. The rooms and the rest of the property was beautiful, clean, very comfortable, spacious, so kid friendly, modern and close enough to everything. Breakfast was hot and good. The waffles and omelets needs to be an everyday item. The bar was a treat every evening. A little pricey but cool to have on sight. Although the property is fairly new and very modern, house keeping needs to give a little more attention (sliding door, vents, shower door trim) to keep this place beautiful. Enjoyed my 1st time visit to the area and this hotel. We are excited about coming back and it will most definitely be to SpringHill Suites Lewisville.More</t>
   </si>
   <si>
+    <t>JanMichell</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r355145988-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1481,6 +1694,9 @@
   </si>
   <si>
     <t>This is an extremely clean and newish hotel. They have free breakfast with scrambled eggs and several other fresh items to start your day off right (and free). Both the lobby and rooms are very stylish with a European boutique feel to it. The rooms are very functional for business with plenty of plugs, strong wifi and a good work station. The beds are the usual high-comfort ones that Marriott is known for. Great staff, easy parking and a great location next to I-35E. The gym is okay for cardio and basic dumbbell work. If you want a better gym, there's an LA Fitness 5-minute walk away. There's a good selection of chain restaurants within a 5-minute drive and the Vista Ridge Mall if you want to do some shopping (walking distance). I highly recommend this place if you want to be in far north Dallas. Getting in to Dallas will take you about 30-45 minutes driving depending on traffic. There's also the light rail if you like public transportation.More</t>
+  </si>
+  <si>
+    <t>MilionMileMan</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r354855077-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
@@ -1515,6 +1731,9 @@
 I will definitely hold my meetings here in the future and continue to recommend this hotel for my guests...Recently I reserved several rooms for a group I had visiting.  I chose this hotel for location and had another event where guests came in and  stayed here with a good experience.The hotel is newer and located close to chopping, highways and easy access to airports.The staff is excellent .  these people should be commended for their service above and beyond expectations and certainly above what is typical at a hotel of this type.The General Manager is Nick.  Nick went out of his way to help one particular guest with some personal items he forgot to bring with him.  he also made sue=re that my room got great rooms and maid service during the week they stayed.the assistant manager is Chrissy,  I cannot say enough about her friendliness and service.  she really cares about her guests and is in a perfect job in my opinion .  She in other words, is perfect for the position.there is also Vini.  she made arrangements the last time I had a group in for my meetings scheduling our meeting room and having help with all our needs.   this time she made sure my guests were all taken care of .  All of these people do a great job.  I highly recommend this hotel if visiting Dallas for business or pleasure.I will definitely hold my meetings here in the future and continue to recommend this hotel for my guests coming inMore</t>
   </si>
   <si>
+    <t>Lisa S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r352230802-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1539,6 +1758,9 @@
     <t>New hotel. Clean. Modern. But the bathroom mirror has a giant white stripe in it an it literally runs right across my face. I can't see to put on my makeup. POOR DESIGN by whoever thought this was a good idea. This is me standing in the bathroom.  Really????More</t>
   </si>
   <si>
+    <t>O3972EErichardb</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r352178902-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1554,6 +1776,9 @@
     <t>I have stayed at many of the hotels in Lewsville's Vista Ridge Mall Dr area. To me this is the one to stay at. The clerk at the front desk was very helpful. Went out of her way to get me on the top floor as I requested. The hotel looked new and was decorated in a very modern style. The suite had a seating area with a very nice work area. There was a bath and a half. The bed was comfortable and the A/C heater worked well. Morning complementary breakfast was well done with a nice assortment of choices.More</t>
   </si>
   <si>
+    <t>SEAPexplorer012</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r351724740-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1578,6 +1803,9 @@
     <t>This hotel is located by Vista Ridge Mall, very convenient to highways making many parts of the DFW area easily accessible.  You need a car, of course.  I liked that Costco was also a block or two away.  The hotel is newer and stylish.  It was priced as a basic hotel but excelled in friendliness of its staff.  The room was a good size.  It had 2 beds and a separate sitting area with a desk.  It also had separate "rooms" for the toilet and the shower which would come in handy for multiple occupants.  The bedding was comfortable and clean.  I would gladly stay here again!More</t>
   </si>
   <si>
+    <t>Ginger-Suzie</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r349221363-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1602,6 +1830,9 @@
     <t>Very crisp and clean feel and look inside. The room has a sliding glass window to the bedroom. Very unique. Outside surrounded by other hotels making late night parking a little issue. The room is great for business travelers. Breakfast each morning was fresh, clean  and ready. No crowds or young kids.More</t>
   </si>
   <si>
+    <t>Lynn H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r346184624-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1629,6 +1860,9 @@
     <t>Brand new hotel with great customer service.  Bekah welcomed me by name and always acknowledges my loyalty and makes me feel welcome.  It is my "go to" hotel in the Lewisville area. Highly recommend this hotel.More</t>
   </si>
   <si>
+    <t>Whitted</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r343637554-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1647,6 +1881,9 @@
     <t>Brand New, Clean, Modern Decor, Fantastic Customer Service, Very Pleased With The Room. At the entrance to the hotel they had welcome in about 30 different languages!I highly recommend this hotel to any traveler.More</t>
   </si>
   <si>
+    <t>SBeatty06</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r343397198-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1671,6 +1908,9 @@
     <t>Property was very modern; décor was very contemporary; outside patio &amp; firepit was a big hit for me.  Staff was very friendly, welcoming &amp; responsive to request, questions &amp; concerns.  Room was clean; spacious, very comfortable and had very modern features &amp; décor.  I also appreciated their concern for energy efficiency (lights would turn off if room key was not in slot by door).  Priced economically; well worth the stay.  Highly recommend.More</t>
   </si>
   <si>
+    <t>samrac1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r342605336-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1695,6 +1935,9 @@
     <t>This is a near perfect business hotel -- new, clean, convenient, great customer service, decent gym, free breakfast.  Unfortunately, the water is extremely SOFT and greasy.  I wish management could address this issue.More</t>
   </si>
   <si>
+    <t>James G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r339269915-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1713,6 +1956,9 @@
     <t>I had a great stay in Lewisville. Dominique provided exceptional customer service. She knew I was tired and just wanted to get back to the hotel. She provided shuttle services from where I was working and offered recommendations on where to grab dinner. Then, instead of dropping me off at the hotel, she took me to a restaurant and waited while I ran in to grab some takeout. Great service!More</t>
   </si>
   <si>
+    <t>Java B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r334290945-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1740,6 +1986,9 @@
     <t>Its not in the downtown area of Dallas but there are plenty of restaurants within walking distance if you don't mind walking a half mile. The property is new and clean and the room decor kinda chic. The bathroom is a bit too close to the bed and the TV is off center from the bed if you like to watch TV in bed its kinda awkward. The staff was great and friendly and very helpful and parking was plentiful and free and you're close to the highway so getting to where you need to go does not take long.More</t>
   </si>
   <si>
+    <t>Patrick U</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r332337800-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1767,6 +2016,9 @@
     <t>One of the best cheap/moderate priced hotels I've ever stayed in. It had a very clean lobby and rooms, everything was modern and nice looking inside and out, fire pit and pool outside, great gym with modern/new equipment and office computers with free internet and printing. Breakfast was outstanding and their was a lot to choose from. If I am ever in Dallas again I will stay here again without even thinking twice. It's worth the drive up from the airport (15-20 min).Only complaints is that the breakfast should have more healthy selections, but its not a big deal since its free. Also my room, the door frame was sticking out and I wasn't able to lock and close the door all the way. The wood needs to be trimmed down so it can fit in the slot, I tried pulling it up and theirs no room.More</t>
   </si>
   <si>
+    <t>Caveman1928</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r331913117-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1794,6 +2046,9 @@
     <t>When searching online for moderately price hotel in the area this car up with three stars on another website. Well I can only say it was wrong. I enjoyed my stay other than a broken elevator which was a bit of an inconvenience when in a hurry, but that's what stairs are for right? Clean comfortable rooms and a courteous staff. Good location with many restaurants to choose from. Some construction on the access road to 35 but as long as you avoid rush hour or know back ways in and out its no big deal. I will be back to Lewisville in the coming months I am sure and I will stay here again...More</t>
   </si>
   <si>
+    <t>FamilyTravel22220000</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r329845696-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1818,6 +2073,9 @@
     <t>My family and I traveled to Texas to visit family for the holidays, and this was a great place to stay with an amazing lobby and workers. It was very clean and very modern,  I would recommend it for anyone coming through town. Chrissy at the desk was awesome helping with anything you needed help with.More</t>
   </si>
   <si>
+    <t>VATravel36</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r329702204-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1839,6 +2097,9 @@
     <t>There are a lot of hotels in the small area off 35E, but this one really stands out. Upon entering you will see the modern, newness of this Marriott property. The staff is very friendly and helpful. The modern theme is carried into the rooms and I really like that they use the card key to power the room when you enter, thus saving energy. Excellent bed and plenty of plugs around the room for your electronics!I think this is probably my first stay at a SpringHill Suites, but it will not be my last.More</t>
   </si>
   <si>
+    <t>Stephanita</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r326912222-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1863,6 +2124,9 @@
     <t>This is a brand new hotel with a great breakfast and workout room.  There were conference and meeting rooms available and there were a couple of businesses having their meetings there the week I stayed. The toilet and shower were in separate rooms in the double queen room in which I stayed.  The hotel is next to several restaurants and between Dallas and Ft. Worth if you have business in both, which I did when I stayed here in October of 2015.  Be aware that there are many toll roads around so if you can travel in a rental that will help you avoid the annoying fees you'll be mailed.More</t>
   </si>
   <si>
+    <t>Matthew M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r321244855-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1887,6 +2151,9 @@
     <t>This is one of the best hotels I have been in. Clean rooms, clean sheets, clean bathroom and great room all around. The staff is very helpful and eager to listen. Bekah Wilburn (front counter) was very helpful with places to eat and eager to please. We had our reservation but it was not entered correctly by Booking.com. She fixed it without question and honored the quoted price that was printed prior to arrival. When we come back to the area I am staying here again with out a doubt. Best place to stay for a darn good price.More</t>
   </si>
   <si>
+    <t>mitchnkc</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r320951551-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1911,6 +2178,9 @@
     <t>Room was really bigger than what I needed and very nicely appointed.  I heard someone say it just opened this year.  I had 2 queen beds, sitting area with a couch and desk with office chair, fridge, water closet with sink separate from bathtub/shower with sink.Lobby was nice.  There was also a nice outdoor area with what looked like a gas firepit.Bea that worked the front desk on 10/20 was helpful and very engaging.More</t>
   </si>
   <si>
+    <t>GiganetSales</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r320805341-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1929,6 +2199,9 @@
     <t>I can't say enough for the management and staff. Super engaged and caring. Dominique and Chrissy were great. Really enjoyed my stay here. The bar is really great and actually has some local brews on tap. Great location with lots of decent restaurant choices around. More</t>
   </si>
   <si>
+    <t>scottjens</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r318669308-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1953,6 +2226,9 @@
     <t>Great setup in the lobby, friendly staff, and a room that was very clean.  I was upgraded for unknown reasons to a family suite which had two double beds in a room that was off the sitting area of another full room with a king.  Bathroom was oddly split into a small powder room (toilet and mini-sink) and shower room with standard sink (no toilet).More</t>
   </si>
   <si>
+    <t>Matt T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r316917666-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1977,6 +2253,9 @@
     <t>Everything top notch.. New hotel ! spotless and professional. The front desk was especially helpful. Claudia went out of her way to make my experience memorable. I will be coming back every time I am in Dallas.More</t>
   </si>
   <si>
+    <t>JayHubb</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r315444912-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -2004,6 +2283,9 @@
     <t>Where do I began. The rooms are very nice and spacious. My brother and I was visiting from New York and stayed here for 2 nights. The hotel is located in a quiet area and looks amazing. The hotel is filled with Modern Décor and is wonderful. Beautiful lobby and nice staff. I would definitely stay here again.More</t>
   </si>
   <si>
+    <t>likecomfort_10</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r313326518-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -2028,6 +2310,9 @@
     <t>Staff is great, we were able to check in early so that we could change.  I wish the hotel would consider extending the breakfast ours an extra 30 minutes on weekends, they promptly cleaned up everything at 9:30 am.  For guests that like to sleep in a little bit on Saturday or Sunday morning, that means you need to hustle and get up quick to avail yourself of the complimentary breakfast.Bathroom doors are opaque glass, looks great but when you are a light sleeper and a family member gets up to use the bathroom late at night, turning on the lights in the bathroom is irritating...More</t>
   </si>
   <si>
+    <t>Jared K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r311345969-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -2052,6 +2337,9 @@
     <t>I recently stayed at this brand new Springhill Suites location for my cousin's wedding nearby. Having recently gotten married the month before, I wanted this to go very smoothly for my wife and I. From start to finish we had a great experience. The receptionist was very welcoming and even offered to show me around. I picked up a USA newspaper, my favorite amenity of Marriott hotels, and headed up to my room. In the lobby are 3 very large, probably 50", flat screen tvs all connected, that are completely touchscreen. These can play Pandora radio, tell about the weather, and other cool stuff. My room, on the top floor as requested, was spotless. Everything was very modern and clean. My room got very cold very quickly when I turned down the thermostat. This was a big plus as I was staying during one of the hottest weekends of the year. The next morning I checked out using my mobile Marriott App on my phone and went downstairs to eat breakfast with my wife. It was delicious, hot, and fresh. We will certainly be back to this location! I rate it at 100%! SUPER crazy close to the mall. I could connect very easily to the wi-fi from my room as well.More</t>
   </si>
   <si>
+    <t>James P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r311125726-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -2074,6 +2362,9 @@
   </si>
   <si>
     <t>I travel frequently and this was my first stay at a SpringHill Suites hotel. It was my best new hotel experience in over a decade. Staff were very friendly and exceptionally helpful (Bea, Ryan, Amy, Dominique, Bekah and many others)The following were also exceptional: room design (excellent design for business, family or both), room comfort, room amenities, sound isolation (very quiet), cleanliness, housekeeping, hotel facilities, parking, location (easy access to restaurants, malls, local activities), easy access to other parts of Dallas metropolitan area by highways and main thoroughfares; all at an affordable price and an outstanding value. I mentioned room design above from a functional standpoint, but the design aesthetics of the hotel and the rooms also add substantially to the experience: creative, tasteful and pleasing. A side-lit etched glass welcome in dozens of languages at the entrance kind of says it all; it is a wonderful place to stay.More</t>
+  </si>
+  <si>
+    <t>C - M</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r308285021-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
@@ -2105,6 +2396,9 @@
 When we arrived at the hotel, immediately upon walking in, Stanley greeted me with a warm welcome. He recognized me from our last stay and addressed me by name upon my entrance. This gave for a warm feeling as it was good to know that even though we had some concerns with our last stay, staying here again was not going to be an issue. As I approached the counter, Stanley placed a beautiful gift basket on top of the counter with a note. My mouth dropped as I was extremely surprised and even more surprised when he informed me of who had put it together: AMY! (Thank you so much Amy as the gift basket was lovely). I asked for her so that I could thank her in...Our visit at this location for our stay on Saturday, August 15, 2015 certainly outshined our first stay. Friday, August 14, 2015, I contacted the hotel in efforts to inform them that I had a complimentary certificate that we would be using for the next night’s stay and I wanted to ensure that it was reflected in the system. Amy was the representative whom answered the phone at the Spring Hill Suites, Lewisville location and she assured me that she would notate the rate in the system to ensure we did not get charged for the night. She succeeded as there were NO errors with our stay from the financial perspective. When we arrived at the hotel, immediately upon walking in, Stanley greeted me with a warm welcome. He recognized me from our last stay and addressed me by name upon my entrance. This gave for a warm feeling as it was good to know that even though we had some concerns with our last stay, staying here again was not going to be an issue. As I approached the counter, Stanley placed a beautiful gift basket on top of the counter with a note. My mouth dropped as I was extremely surprised and even more surprised when he informed me of who had put it together: AMY! (Thank you so much Amy as the gift basket was lovely). I asked for her so that I could thank her in person, but she had already left for the day. Stanley then completed our check-in and gave me the keys and said that he was going to go up to the 6th floor to check on our room and place our gift basket in there. My family and I proceeded to the back of the building where we parked and entered in through the back door. Everything surrounding the parking lot and entrance appeared clean and safe for a great stay. We proceeded up to the 6th floor to our room and were able to relax. There were some cleanliness issues with the bathrooms which I did address with Stanley and another lady at the front desk during our stay. They both said that they would address those with the housekeeping staff. But our overall stay was certainly a whole lot more pleasant this time around, and because of the desire to continuously better themselves for their customers....I would definitely recommend this Springhill Suites, Lewisville to friends and family.More</t>
   </si>
   <si>
+    <t>trikkerterry</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r305869894-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -2129,6 +2423,9 @@
     <t>When staying in Lewisville, you have a great selection of hotels within walking distance.  Most Marriott brands are represented (with the exception of an actual Marriott or their premier hotels).  The Courtyard and Fairfield are the oldest, with the Springhill Suites the newest property (followed by Town Place Suites and Residence Inn).  I really like the staff at the Town Place Suites (they have periodic activities the evening), however the Springhill Suites is my second choice due to it being new and very, very large rooms (it has a very modern feel).  You won't be disappointed  (and the included breakfast was very good).More</t>
   </si>
   <si>
+    <t>Cypressman</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r305520251-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -2147,6 +2444,9 @@
     <t>My room was dirty, had not been vacuumed, there was hair on the bathroom floor, an almond and the sheets on the bed along with the pillow casings smelled less than fresh. I asked for replacements which came promptly but the gentleman didn't know what to do with them so I simply asked him to leave them and I took care He took a bewildered look around the room as I pointed out the issues; no apology and he left. The lady at the desk was very friendly and cordial throughout the ordeal and offered to help; I just wanted to unwind my day and move on. The other thing, since the AC is motion controlled, the room was hot and took about an hour to get to an agreeable temperature. The hotel is new and nice, however, they need to get the cleaning staff up to speed on Marriott expectations.More</t>
   </si>
   <si>
+    <t>sweetbabies2</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r295382491-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -2171,6 +2471,9 @@
     <t>Loved the fact that the hotel is trying to save energy by  equipping the rooms with a gadget that once you place your room key in it, activates the power in your room. Our room was very spacious  with a pull out couch, comfortable king size bed, refrigerator, microwave and a pretty big size bathroom. Downside: the coffee  machine is tiny.Daily breakfast buffet is fully stocked with fresh fruits and muffins, scrambled eggs and an array of sausages/patties. On weekends you get to make Texas shaped waffles! ! Gotta make a shoutout to Mr.Juan. We missed Sunday's  breakfast with very hungry kids,he took plates out and helped to make waffles and plate  some eggs.  Made my kids very happy and us grateful! ! Thank you! !!Breakfast time downside: coffee is very weak. Pool was very clean, chairs neatly arranged with extra towels. Front desk was very friendly and attentive.One of the maintenance guys was very disappointing. After making us wait two consecutive days (morning to noon) for him to come fix a small issue in our room he never showed up. The front desk offered to move us to another room which we declined (at that point was too hard on us)Regardless, we did love our stay, definitely return again!More</t>
   </si>
   <si>
+    <t>Stacia S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r292421745-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -2190,6 +2493,9 @@
   </si>
   <si>
     <t>The Hotel is new and has a modern feel. Lobby and lounge area are enjoyable. Great customer service by staff, friendly and accommodating from the time I arrived.  Really nice rooms as pictured, clean and eco-friendly. Overall nice place to stay.More</t>
+  </si>
+  <si>
+    <t>mnconlee</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r291913469-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
@@ -2216,6 +2522,9 @@
   <si>
     <t>My family and I had reservations to stay at the Spring Hill Suites Dallas Lewisville hotel checking in Monday, July 13, 2015 and checking out July 14, 2015. Upon making my reservations I specifically checked the box for “requesting an early check in,” because my family and I were traveling from Odessa, Texas (which is five hours away), and we were uncertain for what time we would be arriving at the hotel on the 14th.
 My family and I arrived at the hotel July 13th on or around 1 p.m. At this time there was a young lady by the name of Amy who was working the front desk. I told her my name and let her know that I was there to check in and that I had requested an early check in. I also informed her that the day before our arrival, I had contacted the hotel in efforts to ensure that an early check in would be okay. Amy informed me that they don’t allow early check-ins at this hotel. I was extremely confused considering I had just spoken to a rep the day before to confirm this matter. After sticking around for a few minutes she informed me that she found us a room and she gave us the keys for it. At that time I asked her could she please provide us with a map and a list of eateries in the area so that...My family and I had reservations to stay at the Spring Hill Suites Dallas Lewisville hotel checking in Monday, July 13, 2015 and checking out July 14, 2015. Upon making my reservations I specifically checked the box for “requesting an early check in,” because my family and I were traveling from Odessa, Texas (which is five hours away), and we were uncertain for what time we would be arriving at the hotel on the 14th.My family and I arrived at the hotel July 13th on or around 1 p.m. At this time there was a young lady by the name of Amy who was working the front desk. I told her my name and let her know that I was there to check in and that I had requested an early check in. I also informed her that the day before our arrival, I had contacted the hotel in efforts to ensure that an early check in would be okay. Amy informed me that they don’t allow early check-ins at this hotel. I was extremely confused considering I had just spoken to a rep the day before to confirm this matter. After sticking around for a few minutes she informed me that she found us a room and she gave us the keys for it. At that time I asked her could she please provide us with a map and a list of eateries in the area so that once we got settled, my family and I could go and get something to eat after our long travel. She said that the hotel had not been opened but for only one month and that they were not equipped with such lists. I asked her could she please give me ideas of places to eat in the area then since there was not a list available. She seemed very disturbed with me asking for her assistance and seemed as if she didn’t want to help me. So, I just went ahead and took my keys and proceeded with my family and luggage up to our room. She gave me the keys to room #405 and my family and I went up to the fourth floor and could not get in to our room. At this time, I saw a housekeeping representative and asked could she please help us get in to the room. She tried her key FOB and was not able to get in to the room either. So, my family and I then lugged our things down to the front desk where a gentleman by the name of Stanley and the Guest Services Manager Dominique were standing. I walked over to Stanley and explained to him that our keys did not work and that not even the housekeepers could get in to the room. I also mentioned to him that the representative Amy said that the hotel had not been open but for a month and I asked why there were no list of eateries or a map available for us. He grabbed another set of keys to that same room and went in to a drawer were he pulled out a map and a list of eateries that were in the area. I didn’t understand how he was easily able to locate them and assist us with that request when the other lady didn’t even attempt. I then slid down the counter where I addressed my concerns with Dominique. Stanley then escorted us up to our room where he too could not even get in with the new keys he made. He also tried his key FOB and was not able to enter the room. So, my family and I lugged our luggage and bodies back down to the first floor where we waited for Stanley to figure out the issue. He was kind enough to bring us each a bottle of water as we waited. Stanley ended up switching our rooms out and got us a room on the 5th floor: Room 507. He escorted us back upstairs where we were able to finally get in to a room. He let us know upon entering the room how the lights work and that the air conditioning worked off of a motion sensor which means that it only came on when it sensed people in the room.After finally getting the opportunity to put our things down and sit down for a moment, housekeeping came to the door and said that they were there to clean. The beds were made in the room so I assumed that the room had already been cleaned. The head housekeeper then checked her list and said that she was wrong and that they had already cleaned that room. I then went to the restroom to wash my face, and upon entering the restroom where the sink and shower were located, I noticed that the shower was dirty and the bathroom floor had hair on it as well as in the sink. The bathroom where the toilet was located also had pubic hair on the floor. Disgusting! My family and I then went down to the front desk where we informed Dominique of this matter and she said that she was going to send housekeeping up to clean the room while we stepped out to grab a bite to eat. When we came back to the hotel room, I saw that it appeared that the sink had been cleaned out and that the floor had been swept, but that the tub had not been touched. My family and I were just so exhausted that we took a minute to lie down and rest. We rested for a few hours to awake to the room temperature being so hot and humid. We looked at the temperature gage and it read 80 degrees. Obviously whoever thought of putting a motion sensor air conditioning system in these rooms did not think the process thorough all the way. We went down to the front desk where I mentioned to Dominique again about the bathroom and made her aware that the air conditioner was not working. She informed me at that time that she was going to send Stanley up to fix the conditioner and that if he could not fix it she could move us rooms and if we were not in the room at that time that they would move our things to the new room. I told her okay, and that we will let her know once we got back from dinner if the air conditioning still was not working. She let me know at that time that she was going to comp our room for the evening for the inconvenience of our stay and add points to my Marriott Elite rewards account. When we got back to the room for the evening it was around 10:20 p.m. or so. We went up to our room and felt that the temperature had barely even dropped as the gage still read 78 degrees. I called down to the front desk and spoke to Ryan who informed me that he was going to contact Stanley and have him come up to look at the air conditioner again. We waited for 30 to 40 minutes. No one showed, so I called back down to the front desk and was told that he should be on his way up and Dominique told me at that time that she was going to find us another room. Shortly after I talked to her, Stanley came and said that he altered something with the air conditioner that should make things cooler. Well, we waited for a good 10 to 15 minutes after he left and things did not cool down. Matter-of-fact, the temperature gage shifted back up. I called back down to the front desk where Dominique told me again that she was going to find us another room. At this point I am concerned of how many times a guest services manager can say that she is going to find you another room and it takes this many times before something happens. She calls me back about 10 to 15 minutes later to report she has found us another room. By this time my family is laid out in their beds and the thought of having to lug all of our things to another floor when it’s about midnight was outrageous. She mentioned to me that was going to find a fan that she could bring up to our room. She brought up a fan to our room and although the gesture was great, the fan did nothing but circulate all the hot air around.The next morning, Tuesday, July 14, 2015, in a rush to get out of the hotel in a timely manner, almost half way back down the road to Odessa, I noticed that I had left my curling iron in the room. I contacted the front desk at 6:30 a.m. and informed Ryan of this matter and he informed me that he would have housekeeping retrieve my curling iron and bring it to the front desk where the mangers could call me back on how they were going to get it to me. Eleven a.m. came around and I still had not heard back from a manager. I contacted the front desk again where Amy answered and I made her aware of me leaving my curling iron there in the hotel room and she informed me that she would get housekeeping to bring it down to her and she would mail it out to me free of charge. She also confirmed my address and took my phone number for the manager to call me back. No one ever called. I called over the next couple of days and left voice messages on Dominique’s v-mail and she never called me back. I contacted the hotel again on Wednesday, July 15, 2015, and spoke to Amy again. At the beginning of our conversation, Amy informed me that my curling iron had been sent off and that she would leave another message for the manager to call me. However, five more minutes in to the conversation, she asked to verify my address. This in turn let me know that she still had not sent my curling iron off. I also notified her at that time that the charge for the room was still pending on my account and that I was informed by Dominique that I would not be charged for this stay. Amy said that Dominique did not properly remove the charges from my account and that she was going to do it immediately to ensure that I would not get charged for the stay.Thursday, July 16, 2015, I looked at my bank account and noticed that there had been a hard post for the stay to my account. This let me know that no one had fixed the issue. I then contacted the hotel again and requested to speak to the hotel manager, Cynthia Young. I repeated my whole situation to Cynthia who informed me that these type of things should not be happening at her hotel and that she would ensure to get my curling iron sent off to me and that she would be sending me out an offer to stay at their hotel one night free, along with my refund for the room and points on to my Marriott Rewards account. She informed that an email would go out that same day to ensure that all this was handled. I did get the email later that afternoon for the stay and the receipt for the charges being reversed. However, I did not receive confirmation on the points being added.Monday, July 20, 2015, I finally received my payment back for the hotel but still no points and no curling iron. I contacted the hotel pertaining to this matter and was informed by Dominique that she is the one who adds the points and that she works nights and has not been able to add my points yet. She also informed me that my curling iron had been sent out, Thursday, July 16, 2015 and that it should arrive to my house by the next day. Today, is Thursday, July 23, 2015 and I still have not received my curling iron. I contacted Cynthia again this morning by email to let her know that I still have not received my item, and Dominique called me back to inform me that the tracking number shows that the curling iron is sitting at the Fed Ex facility and she provided me with the tracking number. I looked up the tracking number online and it shows that my curling iron has been sitting at Fed Ex ever since Friday, July 17, 2015, because it had wrong address on it provided by the hotel. This is outrageous. I could have drove to Dallas and got my curling iron by now.More</t>
+  </si>
+  <si>
+    <t>wanderingidiot</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r284472286-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
@@ -2256,6 +2565,9 @@
 - toiletries were removed from the shower stall, but the towels weren't taken care of....This was my first stay at a Springhill Suites property.  The rooms at this location are very modern, very sleek, and the layout is quite appealing.Location - there are several restaurants within a short drive (or quite a long walk)The complimentary breakfast is standard fare. Hot stations of scrambled eggs, sausage/bacon, and biscuits &amp; gravy.  Cold offerings include breads, muffins, yogurts, fruit, cereals, milk and juices.  Recommendation: I have seen hotels do paper bag "to go" breakfasts that customers grab from the front desk on their way out - I would love to see this offered here.The only thing from rating this hotel higher was the housekeeping service. I am platinum with Marriott, and stay in hotels  quite a bit.  It seemed the housekeeping service was not quite firing on all cylinders just yet (I believe this is a fairly new property):- forgot to address the coffee station in the room on 2 straight days (old filter remained, no replacements)- the 2 highball glasses that were at the highball station had not been cleaned from the previous guests usage.  Lipstick and fingerprints were present. I set them aside and wrote a note to housekeeping, asking for new glassware.  The note went unnoticed / unaddressed the following day. On the following day, the glasses looked like they had been wiped off.- toiletries were removed from the shower stall, but the towels weren't taken care of.Parking up front tends to fill up quickly.  There is additional parking behind the hotel. I had difficulties with the wifi on 2 days of my stay, where the login page would continue to refresh and not connect properly.  Wifi is comp'd for platinum guests, so I didn't complain while onsite.Overall, I had a good stay. The hotel is reasonably priced, the bar area looked like it attracted a decent crowd each night, and I would encourage management to help housekeeping up their game just a bit more to make sure some additional attention to details occur.More</t>
   </si>
   <si>
+    <t>sr2015334</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r283223712-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -2274,6 +2586,9 @@
     <t>How dare you, Jose. I was in ear-shot of everything that transpired and you are wrong! I stayed at the Spring Hill Suites in Lewisville, Texas for two weeks and Amy is an exemplary employee. She always goes the extra mile for every guest. She works extremely hard and always has a smile on her face. It was you who were rude. Nothing she did pleased you. Here in Texas we appreciate what we have. We tend to feel blessed to stay in such a lovely hotel. Perhaps you live a much privileged life in CA, but here in Texas, we know quality lodging, staff and people when we see it. We also do not (in the seclusion of the Internet) attempt to ruin someone via their employer. Certainly, thinking more about other people's feelings and consider how hard they work would do you good, Jose from California!More</t>
   </si>
   <si>
+    <t>Jose M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r282395643-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -2298,6 +2613,9 @@
     <t>We came late night on June 22 2015 to this hotel and were greeted by a nice lady that took care of us (don't remember the name). The next day we went to the front next to be able to check-in with a different reservation number that would extend our stay one more day. Amy completely turn our experience the other way around. Cero hospitality approach and a rude attitude. Treated us like imbeciles, was disrespectful and even throw a notebook on the desk while the other employees reacted in shock. She was so stressed and we were the only ones at the front desk. She told us that we had to be changed to another room and no rooms were available. Asked several times to be able to get a fulfilled folio for our first night until we finally received it. She was completely lost in action and never gave us full attention. Early that day my wife saw another customer arguing with Amy. Please fire Amy or move here to clean the parking lot.More</t>
   </si>
   <si>
+    <t>M01091956</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r271696798-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -2320,6 +2638,9 @@
   </si>
   <si>
     <t>Brand new but horrible customer service! My shower didn't have proper hot water and they wouldn't fix it. The floors were very filthy, breakfast was absolutely horrible. Never again will I come to this hotelMore</t>
+  </si>
+  <si>
+    <t>Pilot_Kevin</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d7392321-r271461414-SpringHill_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
@@ -2842,43 +3163,47 @@
       <c r="A2" t="n">
         <v>63587</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>177645</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>5</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -2892,50 +3217,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>63587</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>177646</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -2953,50 +3282,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>63587</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>177647</v>
+      </c>
+      <c r="C4" t="s">
+        <v>63</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="J4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="L4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="M4" t="n">
         <v>4</v>
       </c>
       <c r="N4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="O4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -3014,50 +3347,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>63587</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>177648</v>
+      </c>
+      <c r="C5" t="s">
+        <v>70</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="J5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="K5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="L5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="M5" t="n">
         <v>4</v>
       </c>
       <c r="N5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="O5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -3071,50 +3408,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>63587</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>177649</v>
+      </c>
+      <c r="C6" t="s">
+        <v>77</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="J6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="K6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="L6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="M6" t="n">
         <v>3</v>
       </c>
       <c r="N6" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="O6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -3126,56 +3467,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="X6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="Y6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>63587</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>177650</v>
+      </c>
+      <c r="C7" t="s">
+        <v>86</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="J7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="K7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="L7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="O7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P7" t="n">
         <v>5</v>
@@ -3195,50 +3540,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>63587</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>68791</v>
+      </c>
+      <c r="C8" t="s">
+        <v>93</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="J8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="K8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="L8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="O8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -3252,41 +3601,45 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>63587</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>177651</v>
+      </c>
+      <c r="C9" t="s">
+        <v>100</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="J9" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="K9" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="L9" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
@@ -3305,41 +3658,45 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>63587</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>177652</v>
+      </c>
+      <c r="C10" t="s">
+        <v>106</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="J10" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="K10" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="L10" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="M10" t="n">
         <v>4</v>
@@ -3358,50 +3715,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>63587</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>136659</v>
+      </c>
+      <c r="C11" t="s">
+        <v>112</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="J11" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="K11" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="L11" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="O11" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -3421,50 +3782,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>63587</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>177653</v>
+      </c>
+      <c r="C12" t="s">
+        <v>119</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="J12" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="K12" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="L12" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="O12" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="n">
@@ -3484,50 +3849,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>63587</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>2520</v>
+      </c>
+      <c r="C13" t="s">
+        <v>127</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="J13" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="K13" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="L13" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="M13" t="n">
         <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="O13" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P13" t="n">
         <v>5</v>
@@ -3547,41 +3916,45 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>63587</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>20558</v>
+      </c>
+      <c r="C14" t="s">
+        <v>135</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="J14" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="K14" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="L14" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="M14" t="n">
         <v>4</v>
@@ -3600,50 +3973,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>63587</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>177654</v>
+      </c>
+      <c r="C15" t="s">
+        <v>141</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="J15" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="K15" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="L15" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="O15" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="n">
@@ -3661,50 +4038,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>63587</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>177655</v>
+      </c>
+      <c r="C16" t="s">
+        <v>148</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="J16" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="K16" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="L16" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="O16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -3718,50 +4099,54 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>63587</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>177656</v>
+      </c>
+      <c r="C17" t="s">
+        <v>154</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="J17" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="K17" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="L17" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="O17" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -3775,50 +4160,54 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>63587</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>177657</v>
+      </c>
+      <c r="C18" t="s">
+        <v>160</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="J18" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="K18" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="L18" t="s">
+        <v>164</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
         <v>147</v>
       </c>
-      <c r="M18" t="n">
-        <v>5</v>
-      </c>
-      <c r="N18" t="s">
-        <v>133</v>
-      </c>
       <c r="O18" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -3832,50 +4221,54 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>63587</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>177658</v>
+      </c>
+      <c r="C19" t="s">
+        <v>165</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="J19" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="K19" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="L19" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="O19" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -3889,50 +4282,54 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>63587</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>13519</v>
+      </c>
+      <c r="C20" t="s">
+        <v>172</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="J20" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="K20" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="L20" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="O20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -3946,50 +4343,54 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>63587</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>9002</v>
+      </c>
+      <c r="C21" t="s">
+        <v>180</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="J21" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="K21" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="L21" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="M21" t="n">
         <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="O21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -4003,50 +4404,54 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>63587</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>177659</v>
+      </c>
+      <c r="C22" t="s">
+        <v>186</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>166</v>
+        <v>187</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>167</v>
+        <v>188</v>
       </c>
       <c r="J22" t="s">
-        <v>168</v>
+        <v>189</v>
       </c>
       <c r="K22" t="s">
-        <v>169</v>
+        <v>190</v>
       </c>
       <c r="L22" t="s">
-        <v>170</v>
+        <v>191</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="O22" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -4060,50 +4465,54 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>170</v>
+        <v>191</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>63587</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>639</v>
+      </c>
+      <c r="C23" t="s">
+        <v>192</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>171</v>
+        <v>193</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>172</v>
+        <v>194</v>
       </c>
       <c r="J23" t="s">
-        <v>173</v>
+        <v>195</v>
       </c>
       <c r="K23" t="s">
-        <v>174</v>
+        <v>196</v>
       </c>
       <c r="L23" t="s">
-        <v>175</v>
+        <v>197</v>
       </c>
       <c r="M23" t="n">
         <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="O23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -4117,50 +4526,54 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>176</v>
+        <v>198</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>63587</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>177660</v>
+      </c>
+      <c r="C24" t="s">
+        <v>199</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>177</v>
+        <v>200</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>178</v>
+        <v>201</v>
       </c>
       <c r="J24" t="s">
-        <v>179</v>
+        <v>202</v>
       </c>
       <c r="K24" t="s">
-        <v>180</v>
+        <v>203</v>
       </c>
       <c r="L24" t="s">
-        <v>181</v>
+        <v>204</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>182</v>
+        <v>205</v>
       </c>
       <c r="O24" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P24" t="n">
         <v>5</v>
@@ -4178,50 +4591,54 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>181</v>
+        <v>204</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>63587</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>177661</v>
+      </c>
+      <c r="C25" t="s">
+        <v>206</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>183</v>
+        <v>207</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>184</v>
+        <v>208</v>
       </c>
       <c r="J25" t="s">
-        <v>179</v>
+        <v>202</v>
       </c>
       <c r="K25" t="s">
-        <v>185</v>
+        <v>209</v>
       </c>
       <c r="L25" t="s">
-        <v>186</v>
+        <v>210</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="O25" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
@@ -4235,50 +4652,54 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>186</v>
+        <v>210</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>63587</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>15230</v>
+      </c>
+      <c r="C26" t="s">
+        <v>211</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>187</v>
+        <v>212</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>188</v>
+        <v>213</v>
       </c>
       <c r="J26" t="s">
-        <v>189</v>
+        <v>214</v>
       </c>
       <c r="K26" t="s">
-        <v>190</v>
+        <v>215</v>
       </c>
       <c r="L26" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>182</v>
+        <v>205</v>
       </c>
       <c r="O26" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
@@ -4292,50 +4713,54 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>63587</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>177662</v>
+      </c>
+      <c r="C27" t="s">
+        <v>217</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>192</v>
+        <v>218</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>193</v>
+        <v>219</v>
       </c>
       <c r="J27" t="s">
-        <v>194</v>
+        <v>220</v>
       </c>
       <c r="K27" t="s">
-        <v>195</v>
+        <v>221</v>
       </c>
       <c r="L27" t="s">
-        <v>196</v>
+        <v>222</v>
       </c>
       <c r="M27" t="n">
         <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>197</v>
+        <v>223</v>
       </c>
       <c r="O27" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
@@ -4349,50 +4774,54 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>196</v>
+        <v>222</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>63587</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>177663</v>
+      </c>
+      <c r="C28" t="s">
+        <v>225</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>199</v>
+        <v>226</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>200</v>
+        <v>227</v>
       </c>
       <c r="J28" t="s">
-        <v>201</v>
+        <v>228</v>
       </c>
       <c r="K28" t="s">
-        <v>202</v>
+        <v>229</v>
       </c>
       <c r="L28" t="s">
-        <v>203</v>
+        <v>230</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>182</v>
+        <v>205</v>
       </c>
       <c r="O28" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
@@ -4412,50 +4841,54 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>203</v>
+        <v>230</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>63587</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>177664</v>
+      </c>
+      <c r="C29" t="s">
+        <v>231</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>204</v>
+        <v>232</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>205</v>
+        <v>233</v>
       </c>
       <c r="J29" t="s">
-        <v>206</v>
+        <v>234</v>
       </c>
       <c r="K29" t="s">
-        <v>207</v>
+        <v>235</v>
       </c>
       <c r="L29" t="s">
-        <v>208</v>
+        <v>236</v>
       </c>
       <c r="M29" t="n">
         <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>197</v>
+        <v>223</v>
       </c>
       <c r="O29" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="P29" t="n">
         <v>5</v>
@@ -4475,50 +4908,54 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>208</v>
+        <v>236</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>63587</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>177665</v>
+      </c>
+      <c r="C30" t="s">
+        <v>237</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>209</v>
+        <v>238</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>210</v>
+        <v>239</v>
       </c>
       <c r="J30" t="s">
-        <v>211</v>
+        <v>240</v>
       </c>
       <c r="K30" t="s">
-        <v>212</v>
+        <v>241</v>
       </c>
       <c r="L30" t="s">
-        <v>213</v>
+        <v>242</v>
       </c>
       <c r="M30" t="n">
         <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>197</v>
+        <v>223</v>
       </c>
       <c r="O30" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P30" t="n">
         <v>5</v>
@@ -4538,50 +4975,54 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>213</v>
+        <v>242</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>63587</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>177666</v>
+      </c>
+      <c r="C31" t="s">
+        <v>243</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>214</v>
+        <v>244</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>215</v>
+        <v>245</v>
       </c>
       <c r="J31" t="s">
-        <v>216</v>
+        <v>246</v>
       </c>
       <c r="K31" t="s">
-        <v>217</v>
+        <v>247</v>
       </c>
       <c r="L31" t="s">
-        <v>218</v>
+        <v>248</v>
       </c>
       <c r="M31" t="n">
         <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>197</v>
+        <v>223</v>
       </c>
       <c r="O31" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="n">
@@ -4599,50 +5040,54 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>218</v>
+        <v>248</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>63587</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>177667</v>
+      </c>
+      <c r="C32" t="s">
+        <v>249</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>219</v>
+        <v>250</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>220</v>
+        <v>251</v>
       </c>
       <c r="J32" t="s">
-        <v>221</v>
+        <v>252</v>
       </c>
       <c r="K32" t="s">
-        <v>222</v>
+        <v>253</v>
       </c>
       <c r="L32" t="s">
-        <v>223</v>
+        <v>254</v>
       </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
       <c r="N32" t="s">
-        <v>197</v>
+        <v>223</v>
       </c>
       <c r="O32" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
@@ -4658,56 +5103,60 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>224</v>
+        <v>255</v>
       </c>
       <c r="X32" t="s">
-        <v>225</v>
+        <v>256</v>
       </c>
       <c r="Y32" t="s">
-        <v>226</v>
+        <v>257</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>63587</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>177668</v>
+      </c>
+      <c r="C33" t="s">
+        <v>258</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>227</v>
+        <v>259</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>228</v>
+        <v>260</v>
       </c>
       <c r="J33" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="K33" t="s">
-        <v>230</v>
+        <v>262</v>
       </c>
       <c r="L33" t="s">
-        <v>231</v>
+        <v>263</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>232</v>
+        <v>264</v>
       </c>
       <c r="O33" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="P33" t="n">
         <v>5</v>
@@ -4727,50 +5176,54 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>233</v>
+        <v>265</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>63587</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>177669</v>
+      </c>
+      <c r="C34" t="s">
+        <v>266</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>234</v>
+        <v>267</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>235</v>
+        <v>268</v>
       </c>
       <c r="J34" t="s">
-        <v>236</v>
+        <v>269</v>
       </c>
       <c r="K34" t="s">
-        <v>237</v>
+        <v>270</v>
       </c>
       <c r="L34" t="s">
-        <v>238</v>
+        <v>271</v>
       </c>
       <c r="M34" t="n">
         <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>232</v>
+        <v>264</v>
       </c>
       <c r="O34" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P34" t="n">
         <v>5</v>
@@ -4790,50 +5243,54 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>238</v>
+        <v>271</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>63587</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>177670</v>
+      </c>
+      <c r="C35" t="s">
+        <v>272</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>239</v>
+        <v>273</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>240</v>
+        <v>274</v>
       </c>
       <c r="J35" t="s">
-        <v>241</v>
+        <v>275</v>
       </c>
       <c r="K35" t="s">
-        <v>242</v>
+        <v>276</v>
       </c>
       <c r="L35" t="s">
-        <v>243</v>
+        <v>277</v>
       </c>
       <c r="M35" t="n">
         <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>232</v>
+        <v>264</v>
       </c>
       <c r="O35" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="s"/>
@@ -4847,50 +5304,54 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>243</v>
+        <v>277</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>63587</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>57938</v>
+      </c>
+      <c r="C36" t="s">
+        <v>278</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>244</v>
+        <v>279</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>245</v>
+        <v>280</v>
       </c>
       <c r="J36" t="s">
-        <v>241</v>
+        <v>275</v>
       </c>
       <c r="K36" t="s">
-        <v>246</v>
+        <v>281</v>
       </c>
       <c r="L36" t="s">
-        <v>247</v>
+        <v>282</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>232</v>
+        <v>264</v>
       </c>
       <c r="O36" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="s"/>
@@ -4904,50 +5365,54 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>248</v>
+        <v>283</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>63587</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>177671</v>
+      </c>
+      <c r="C37" t="s">
+        <v>284</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>249</v>
+        <v>285</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>250</v>
+        <v>286</v>
       </c>
       <c r="J37" t="s">
-        <v>251</v>
+        <v>287</v>
       </c>
       <c r="K37" t="s">
-        <v>252</v>
+        <v>288</v>
       </c>
       <c r="L37" t="s">
-        <v>253</v>
+        <v>289</v>
       </c>
       <c r="M37" t="n">
         <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>232</v>
+        <v>264</v>
       </c>
       <c r="O37" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="s"/>
@@ -4965,50 +5430,54 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>253</v>
+        <v>289</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>63587</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>177672</v>
+      </c>
+      <c r="C38" t="s">
+        <v>290</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>254</v>
+        <v>291</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>255</v>
+        <v>292</v>
       </c>
       <c r="J38" t="s">
-        <v>256</v>
+        <v>293</v>
       </c>
       <c r="K38" t="s">
-        <v>257</v>
+        <v>294</v>
       </c>
       <c r="L38" t="s">
-        <v>258</v>
+        <v>295</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>232</v>
+        <v>264</v>
       </c>
       <c r="O38" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="s"/>
@@ -5022,50 +5491,54 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>258</v>
+        <v>295</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>63587</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>177673</v>
+      </c>
+      <c r="C39" t="s">
+        <v>296</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>259</v>
+        <v>297</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>260</v>
+        <v>298</v>
       </c>
       <c r="J39" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="K39" t="s">
-        <v>262</v>
+        <v>300</v>
       </c>
       <c r="L39" t="s">
-        <v>263</v>
+        <v>301</v>
       </c>
       <c r="M39" t="n">
         <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>232</v>
+        <v>264</v>
       </c>
       <c r="O39" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="n">
@@ -5085,41 +5558,45 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>263</v>
+        <v>301</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>63587</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>7</v>
+      </c>
+      <c r="C40" t="s">
+        <v>302</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>264</v>
+        <v>303</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>265</v>
+        <v>304</v>
       </c>
       <c r="J40" t="s">
-        <v>266</v>
+        <v>305</v>
       </c>
       <c r="K40" t="s">
-        <v>267</v>
+        <v>306</v>
       </c>
       <c r="L40" t="s">
-        <v>268</v>
+        <v>307</v>
       </c>
       <c r="M40" t="n">
         <v>4</v>
@@ -5138,50 +5615,54 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>268</v>
+        <v>307</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>63587</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>177674</v>
+      </c>
+      <c r="C41" t="s">
+        <v>308</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>269</v>
+        <v>309</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>270</v>
+        <v>310</v>
       </c>
       <c r="J41" t="s">
-        <v>271</v>
+        <v>311</v>
       </c>
       <c r="K41" t="s">
-        <v>272</v>
+        <v>312</v>
       </c>
       <c r="L41" t="s">
-        <v>273</v>
+        <v>313</v>
       </c>
       <c r="M41" t="n">
         <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>274</v>
+        <v>314</v>
       </c>
       <c r="O41" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="P41" t="s"/>
       <c r="Q41" t="s"/>
@@ -5195,50 +5676,54 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>273</v>
+        <v>313</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>63587</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>177675</v>
+      </c>
+      <c r="C42" t="s">
+        <v>315</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>275</v>
+        <v>316</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>276</v>
+        <v>317</v>
       </c>
       <c r="J42" t="s">
-        <v>277</v>
+        <v>318</v>
       </c>
       <c r="K42" t="s">
-        <v>278</v>
+        <v>319</v>
       </c>
       <c r="L42" t="s">
-        <v>279</v>
+        <v>320</v>
       </c>
       <c r="M42" t="n">
         <v>4</v>
       </c>
       <c r="N42" t="s">
-        <v>274</v>
+        <v>314</v>
       </c>
       <c r="O42" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P42" t="s"/>
       <c r="Q42" t="s"/>
@@ -5258,50 +5743,54 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>279</v>
+        <v>320</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>63587</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>177676</v>
+      </c>
+      <c r="C43" t="s">
+        <v>321</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>280</v>
+        <v>322</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>281</v>
+        <v>323</v>
       </c>
       <c r="J43" t="s">
-        <v>282</v>
+        <v>324</v>
       </c>
       <c r="K43" t="s">
-        <v>283</v>
+        <v>325</v>
       </c>
       <c r="L43" t="s">
-        <v>284</v>
+        <v>326</v>
       </c>
       <c r="M43" t="n">
         <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>285</v>
+        <v>327</v>
       </c>
       <c r="O43" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P43" t="n">
         <v>5</v>
@@ -5321,50 +5810,54 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>284</v>
+        <v>326</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>63587</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>38401</v>
+      </c>
+      <c r="C44" t="s">
+        <v>328</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>286</v>
+        <v>329</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>287</v>
+        <v>330</v>
       </c>
       <c r="J44" t="s">
-        <v>288</v>
+        <v>331</v>
       </c>
       <c r="K44" t="s">
-        <v>289</v>
+        <v>332</v>
       </c>
       <c r="L44" t="s">
-        <v>290</v>
+        <v>333</v>
       </c>
       <c r="M44" t="n">
         <v>3</v>
       </c>
       <c r="N44" t="s">
-        <v>285</v>
+        <v>327</v>
       </c>
       <c r="O44" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P44" t="n">
         <v>3</v>
@@ -5382,56 +5875,60 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>291</v>
+        <v>334</v>
       </c>
       <c r="X44" t="s">
-        <v>292</v>
+        <v>335</v>
       </c>
       <c r="Y44" t="s">
-        <v>293</v>
+        <v>336</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>63587</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>177677</v>
+      </c>
+      <c r="C45" t="s">
+        <v>337</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>294</v>
+        <v>338</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>295</v>
+        <v>339</v>
       </c>
       <c r="J45" t="s">
-        <v>296</v>
+        <v>340</v>
       </c>
       <c r="K45" t="s">
-        <v>297</v>
+        <v>341</v>
       </c>
       <c r="L45" t="s">
-        <v>298</v>
+        <v>342</v>
       </c>
       <c r="M45" t="n">
         <v>5</v>
       </c>
       <c r="N45" t="s">
-        <v>285</v>
+        <v>327</v>
       </c>
       <c r="O45" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P45" t="n">
         <v>5</v>
@@ -5451,50 +5948,54 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>298</v>
+        <v>342</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>63587</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>177678</v>
+      </c>
+      <c r="C46" t="s">
+        <v>343</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>299</v>
+        <v>344</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>300</v>
+        <v>345</v>
       </c>
       <c r="J46" t="s">
-        <v>301</v>
+        <v>346</v>
       </c>
       <c r="K46" t="s">
-        <v>302</v>
+        <v>347</v>
       </c>
       <c r="L46" t="s">
-        <v>303</v>
+        <v>348</v>
       </c>
       <c r="M46" t="n">
         <v>5</v>
       </c>
       <c r="N46" t="s">
-        <v>304</v>
+        <v>349</v>
       </c>
       <c r="O46" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P46" t="n">
         <v>5</v>
@@ -5512,50 +6013,54 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>303</v>
+        <v>348</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>63587</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>177679</v>
+      </c>
+      <c r="C47" t="s">
+        <v>350</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>305</v>
+        <v>351</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>306</v>
+        <v>352</v>
       </c>
       <c r="J47" t="s">
-        <v>307</v>
+        <v>353</v>
       </c>
       <c r="K47" t="s">
-        <v>308</v>
+        <v>354</v>
       </c>
       <c r="L47" t="s">
-        <v>309</v>
+        <v>355</v>
       </c>
       <c r="M47" t="n">
         <v>5</v>
       </c>
       <c r="N47" t="s">
-        <v>310</v>
+        <v>356</v>
       </c>
       <c r="O47" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P47" t="s"/>
       <c r="Q47" t="n">
@@ -5575,50 +6080,54 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>309</v>
+        <v>355</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>63587</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>177680</v>
+      </c>
+      <c r="C48" t="s">
+        <v>357</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>311</v>
+        <v>358</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>312</v>
+        <v>359</v>
       </c>
       <c r="J48" t="s">
-        <v>313</v>
+        <v>360</v>
       </c>
       <c r="K48" t="s">
-        <v>314</v>
+        <v>361</v>
       </c>
       <c r="L48" t="s">
-        <v>315</v>
+        <v>362</v>
       </c>
       <c r="M48" t="n">
         <v>4</v>
       </c>
       <c r="N48" t="s">
-        <v>310</v>
+        <v>356</v>
       </c>
       <c r="O48" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P48" t="s"/>
       <c r="Q48" t="s"/>
@@ -5632,50 +6141,54 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>315</v>
+        <v>362</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>63587</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>177681</v>
+      </c>
+      <c r="C49" t="s">
+        <v>363</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>316</v>
+        <v>364</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>317</v>
+        <v>365</v>
       </c>
       <c r="J49" t="s">
-        <v>318</v>
+        <v>366</v>
       </c>
       <c r="K49" t="s">
-        <v>319</v>
+        <v>367</v>
       </c>
       <c r="L49" t="s">
-        <v>320</v>
+        <v>368</v>
       </c>
       <c r="M49" t="n">
         <v>5</v>
       </c>
       <c r="N49" t="s">
-        <v>310</v>
+        <v>356</v>
       </c>
       <c r="O49" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P49" t="s"/>
       <c r="Q49" t="n">
@@ -5695,50 +6208,54 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>320</v>
+        <v>368</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>63587</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>33890</v>
+      </c>
+      <c r="C50" t="s">
+        <v>369</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>321</v>
+        <v>370</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>322</v>
+        <v>371</v>
       </c>
       <c r="J50" t="s">
-        <v>323</v>
+        <v>372</v>
       </c>
       <c r="K50" t="s">
-        <v>324</v>
+        <v>373</v>
       </c>
       <c r="L50" t="s">
-        <v>325</v>
+        <v>374</v>
       </c>
       <c r="M50" t="n">
         <v>5</v>
       </c>
       <c r="N50" t="s">
-        <v>310</v>
+        <v>356</v>
       </c>
       <c r="O50" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P50" t="n">
         <v>5</v>
@@ -5758,50 +6275,54 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>325</v>
+        <v>374</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>63587</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>177682</v>
+      </c>
+      <c r="C51" t="s">
+        <v>375</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>326</v>
+        <v>376</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>327</v>
+        <v>377</v>
       </c>
       <c r="J51" t="s">
-        <v>323</v>
+        <v>372</v>
       </c>
       <c r="K51" t="s">
-        <v>328</v>
+        <v>378</v>
       </c>
       <c r="L51" t="s">
-        <v>329</v>
+        <v>379</v>
       </c>
       <c r="M51" t="n">
         <v>5</v>
       </c>
       <c r="N51" t="s">
-        <v>310</v>
+        <v>356</v>
       </c>
       <c r="O51" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P51" t="n">
         <v>5</v>
@@ -5819,50 +6340,54 @@
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>329</v>
+        <v>379</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>63587</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>47377</v>
+      </c>
+      <c r="C52" t="s">
+        <v>380</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>330</v>
+        <v>381</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>331</v>
+        <v>382</v>
       </c>
       <c r="J52" t="s">
-        <v>332</v>
+        <v>383</v>
       </c>
       <c r="K52" t="s">
-        <v>333</v>
+        <v>384</v>
       </c>
       <c r="L52" t="s">
-        <v>334</v>
+        <v>385</v>
       </c>
       <c r="M52" t="n">
         <v>5</v>
       </c>
       <c r="N52" t="s">
-        <v>310</v>
+        <v>356</v>
       </c>
       <c r="O52" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P52" t="s"/>
       <c r="Q52" t="n">
@@ -5882,50 +6407,54 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>334</v>
+        <v>385</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>63587</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>177683</v>
+      </c>
+      <c r="C53" t="s">
+        <v>386</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>335</v>
+        <v>387</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>336</v>
+        <v>388</v>
       </c>
       <c r="J53" t="s">
-        <v>337</v>
+        <v>389</v>
       </c>
       <c r="K53" t="s">
-        <v>338</v>
+        <v>390</v>
       </c>
       <c r="L53" t="s">
-        <v>339</v>
+        <v>391</v>
       </c>
       <c r="M53" t="n">
         <v>5</v>
       </c>
       <c r="N53" t="s">
-        <v>310</v>
+        <v>356</v>
       </c>
       <c r="O53" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P53" t="s"/>
       <c r="Q53" t="s"/>
@@ -5939,50 +6468,54 @@
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>339</v>
+        <v>391</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>63587</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>177684</v>
+      </c>
+      <c r="C54" t="s">
+        <v>392</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>340</v>
+        <v>393</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>341</v>
+        <v>394</v>
       </c>
       <c r="J54" t="s">
-        <v>342</v>
+        <v>395</v>
       </c>
       <c r="K54" t="s">
-        <v>343</v>
+        <v>396</v>
       </c>
       <c r="L54" t="s">
-        <v>344</v>
+        <v>397</v>
       </c>
       <c r="M54" t="n">
         <v>5</v>
       </c>
       <c r="N54" t="s">
-        <v>304</v>
+        <v>349</v>
       </c>
       <c r="O54" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P54" t="s"/>
       <c r="Q54" t="n">
@@ -6002,50 +6535,54 @@
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>344</v>
+        <v>397</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>63587</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>177685</v>
+      </c>
+      <c r="C55" t="s">
+        <v>398</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>345</v>
+        <v>399</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>346</v>
+        <v>400</v>
       </c>
       <c r="J55" t="s">
-        <v>342</v>
+        <v>395</v>
       </c>
       <c r="K55" t="s">
-        <v>347</v>
+        <v>401</v>
       </c>
       <c r="L55" t="s">
-        <v>348</v>
+        <v>402</v>
       </c>
       <c r="M55" t="n">
         <v>5</v>
       </c>
       <c r="N55" t="s">
-        <v>304</v>
+        <v>349</v>
       </c>
       <c r="O55" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P55" t="n">
         <v>5</v>
@@ -6065,50 +6602,54 @@
       <c r="W55" t="s"/>
       <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>348</v>
+        <v>402</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>63587</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>177686</v>
+      </c>
+      <c r="C56" t="s">
+        <v>403</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
+        <v>404</v>
+      </c>
+      <c r="G56" t="s">
+        <v>47</v>
+      </c>
+      <c r="H56" t="s">
+        <v>48</v>
+      </c>
+      <c r="I56" t="s">
+        <v>405</v>
+      </c>
+      <c r="J56" t="s">
+        <v>406</v>
+      </c>
+      <c r="K56" t="s">
+        <v>407</v>
+      </c>
+      <c r="L56" t="s">
+        <v>408</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
         <v>349</v>
       </c>
-      <c r="G56" t="s">
-        <v>46</v>
-      </c>
-      <c r="H56" t="s">
-        <v>47</v>
-      </c>
-      <c r="I56" t="s">
-        <v>350</v>
-      </c>
-      <c r="J56" t="s">
-        <v>351</v>
-      </c>
-      <c r="K56" t="s">
-        <v>352</v>
-      </c>
-      <c r="L56" t="s">
-        <v>353</v>
-      </c>
-      <c r="M56" t="n">
-        <v>5</v>
-      </c>
-      <c r="N56" t="s">
-        <v>304</v>
-      </c>
       <c r="O56" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P56" t="n">
         <v>5</v>
@@ -6126,56 +6667,60 @@
         <v>0</v>
       </c>
       <c r="W56" t="s">
-        <v>354</v>
+        <v>409</v>
       </c>
       <c r="X56" t="s">
-        <v>355</v>
+        <v>410</v>
       </c>
       <c r="Y56" t="s">
-        <v>356</v>
+        <v>411</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>63587</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>177687</v>
+      </c>
+      <c r="C57" t="s">
+        <v>412</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>357</v>
+        <v>413</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>358</v>
+        <v>414</v>
       </c>
       <c r="J57" t="s">
-        <v>359</v>
+        <v>415</v>
       </c>
       <c r="K57" t="s">
-        <v>360</v>
+        <v>416</v>
       </c>
       <c r="L57" t="s">
-        <v>361</v>
+        <v>417</v>
       </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
       <c r="N57" t="s">
-        <v>362</v>
+        <v>418</v>
       </c>
       <c r="O57" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P57" t="s"/>
       <c r="Q57" t="s"/>
@@ -6187,56 +6732,60 @@
         <v>0</v>
       </c>
       <c r="W57" t="s">
-        <v>354</v>
+        <v>409</v>
       </c>
       <c r="X57" t="s">
-        <v>355</v>
+        <v>410</v>
       </c>
       <c r="Y57" t="s">
-        <v>363</v>
+        <v>419</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>63587</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>172591</v>
+      </c>
+      <c r="C58" t="s">
+        <v>420</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>364</v>
+        <v>421</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>365</v>
+        <v>422</v>
       </c>
       <c r="J58" t="s">
-        <v>366</v>
+        <v>423</v>
       </c>
       <c r="K58" t="s">
-        <v>367</v>
+        <v>424</v>
       </c>
       <c r="L58" t="s">
-        <v>368</v>
+        <v>425</v>
       </c>
       <c r="M58" t="n">
         <v>4</v>
       </c>
       <c r="N58" t="s">
-        <v>362</v>
+        <v>418</v>
       </c>
       <c r="O58" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P58" t="s"/>
       <c r="Q58" t="s"/>
@@ -6250,56 +6799,60 @@
         <v>0</v>
       </c>
       <c r="W58" t="s">
-        <v>369</v>
+        <v>426</v>
       </c>
       <c r="X58" t="s">
-        <v>370</v>
+        <v>427</v>
       </c>
       <c r="Y58" t="s">
-        <v>371</v>
+        <v>428</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>63587</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>177688</v>
+      </c>
+      <c r="C59" t="s">
+        <v>429</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>372</v>
+        <v>430</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>373</v>
+        <v>431</v>
       </c>
       <c r="J59" t="s">
-        <v>374</v>
+        <v>432</v>
       </c>
       <c r="K59" t="s">
-        <v>375</v>
+        <v>433</v>
       </c>
       <c r="L59" t="s">
-        <v>376</v>
+        <v>434</v>
       </c>
       <c r="M59" t="n">
         <v>2</v>
       </c>
       <c r="N59" t="s">
-        <v>377</v>
+        <v>435</v>
       </c>
       <c r="O59" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P59" t="s"/>
       <c r="Q59" t="s"/>
@@ -6311,56 +6864,60 @@
         <v>0</v>
       </c>
       <c r="W59" t="s">
-        <v>378</v>
+        <v>436</v>
       </c>
       <c r="X59" t="s">
-        <v>379</v>
+        <v>437</v>
       </c>
       <c r="Y59" t="s">
-        <v>380</v>
+        <v>438</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>63587</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>10835</v>
+      </c>
+      <c r="C60" t="s">
+        <v>439</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>381</v>
+        <v>440</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>382</v>
+        <v>441</v>
       </c>
       <c r="J60" t="s">
-        <v>383</v>
+        <v>442</v>
       </c>
       <c r="K60" t="s">
-        <v>384</v>
+        <v>443</v>
       </c>
       <c r="L60" t="s">
-        <v>385</v>
+        <v>444</v>
       </c>
       <c r="M60" t="n">
         <v>5</v>
       </c>
       <c r="N60" t="s">
-        <v>377</v>
+        <v>435</v>
       </c>
       <c r="O60" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P60" t="s"/>
       <c r="Q60" t="s"/>
@@ -6372,56 +6929,60 @@
         <v>0</v>
       </c>
       <c r="W60" t="s">
-        <v>386</v>
+        <v>445</v>
       </c>
       <c r="X60" t="s">
-        <v>387</v>
+        <v>446</v>
       </c>
       <c r="Y60" t="s">
-        <v>388</v>
+        <v>447</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>63587</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>8110</v>
+      </c>
+      <c r="C61" t="s">
+        <v>448</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>389</v>
+        <v>449</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>390</v>
+        <v>450</v>
       </c>
       <c r="J61" t="s">
-        <v>391</v>
+        <v>451</v>
       </c>
       <c r="K61" t="s">
-        <v>392</v>
+        <v>452</v>
       </c>
       <c r="L61" t="s">
-        <v>393</v>
+        <v>453</v>
       </c>
       <c r="M61" t="n">
         <v>5</v>
       </c>
       <c r="N61" t="s">
-        <v>377</v>
+        <v>435</v>
       </c>
       <c r="O61" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P61" t="s"/>
       <c r="Q61" t="s"/>
@@ -6437,47 +6998,51 @@
         <v>0</v>
       </c>
       <c r="W61" t="s">
-        <v>394</v>
+        <v>454</v>
       </c>
       <c r="X61" t="s">
-        <v>395</v>
+        <v>455</v>
       </c>
       <c r="Y61" t="s">
-        <v>396</v>
+        <v>456</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>63587</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>177689</v>
+      </c>
+      <c r="C62" t="s">
+        <v>457</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>397</v>
+        <v>458</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>398</v>
+        <v>459</v>
       </c>
       <c r="J62" t="s">
-        <v>399</v>
+        <v>460</v>
       </c>
       <c r="K62" t="s">
-        <v>400</v>
+        <v>461</v>
       </c>
       <c r="L62" t="s">
-        <v>401</v>
+        <v>462</v>
       </c>
       <c r="M62" t="n">
         <v>5</v>
@@ -6494,56 +7059,60 @@
         <v>0</v>
       </c>
       <c r="W62" t="s">
-        <v>402</v>
+        <v>463</v>
       </c>
       <c r="X62" t="s">
-        <v>403</v>
+        <v>464</v>
       </c>
       <c r="Y62" t="s">
-        <v>404</v>
+        <v>465</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>63587</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>51827</v>
+      </c>
+      <c r="C63" t="s">
+        <v>466</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>405</v>
+        <v>467</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>406</v>
+        <v>468</v>
       </c>
       <c r="J63" t="s">
-        <v>407</v>
+        <v>469</v>
       </c>
       <c r="K63" t="s">
-        <v>408</v>
+        <v>470</v>
       </c>
       <c r="L63" t="s">
-        <v>409</v>
+        <v>471</v>
       </c>
       <c r="M63" t="n">
         <v>4</v>
       </c>
       <c r="N63" t="s">
-        <v>410</v>
+        <v>472</v>
       </c>
       <c r="O63" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P63" t="s"/>
       <c r="Q63" t="s"/>
@@ -6555,56 +7124,60 @@
         <v>0</v>
       </c>
       <c r="W63" t="s">
-        <v>402</v>
+        <v>463</v>
       </c>
       <c r="X63" t="s">
-        <v>403</v>
+        <v>464</v>
       </c>
       <c r="Y63" t="s">
-        <v>411</v>
+        <v>473</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>63587</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>177690</v>
+      </c>
+      <c r="C64" t="s">
+        <v>474</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>412</v>
+        <v>475</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>413</v>
+        <v>476</v>
       </c>
       <c r="J64" t="s">
-        <v>414</v>
+        <v>477</v>
       </c>
       <c r="K64" t="s">
-        <v>415</v>
+        <v>478</v>
       </c>
       <c r="L64" t="s">
-        <v>416</v>
+        <v>479</v>
       </c>
       <c r="M64" t="n">
         <v>5</v>
       </c>
       <c r="N64" t="s">
-        <v>362</v>
+        <v>418</v>
       </c>
       <c r="O64" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P64" t="s"/>
       <c r="Q64" t="n">
@@ -6620,56 +7193,60 @@
         <v>0</v>
       </c>
       <c r="W64" t="s">
-        <v>417</v>
+        <v>480</v>
       </c>
       <c r="X64" t="s">
-        <v>418</v>
+        <v>481</v>
       </c>
       <c r="Y64" t="s">
-        <v>419</v>
+        <v>482</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>63587</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>177691</v>
+      </c>
+      <c r="C65" t="s">
+        <v>483</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>420</v>
+        <v>484</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>421</v>
+        <v>485</v>
       </c>
       <c r="J65" t="s">
-        <v>422</v>
+        <v>486</v>
       </c>
       <c r="K65" t="s">
-        <v>423</v>
+        <v>487</v>
       </c>
       <c r="L65" t="s">
-        <v>424</v>
+        <v>488</v>
       </c>
       <c r="M65" t="n">
         <v>3</v>
       </c>
       <c r="N65" t="s">
-        <v>425</v>
+        <v>489</v>
       </c>
       <c r="O65" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P65" t="s"/>
       <c r="Q65" t="s"/>
@@ -6685,56 +7262,60 @@
         <v>0</v>
       </c>
       <c r="W65" t="s">
-        <v>426</v>
+        <v>490</v>
       </c>
       <c r="X65" t="s">
-        <v>427</v>
+        <v>491</v>
       </c>
       <c r="Y65" t="s">
-        <v>428</v>
+        <v>492</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>63587</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>177692</v>
+      </c>
+      <c r="C66" t="s">
+        <v>493</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>429</v>
+        <v>494</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>430</v>
+        <v>495</v>
       </c>
       <c r="J66" t="s">
-        <v>431</v>
+        <v>496</v>
       </c>
       <c r="K66" t="s">
-        <v>432</v>
+        <v>497</v>
       </c>
       <c r="L66" t="s">
-        <v>433</v>
+        <v>498</v>
       </c>
       <c r="M66" t="n">
         <v>4</v>
       </c>
       <c r="N66" t="s">
-        <v>425</v>
+        <v>489</v>
       </c>
       <c r="O66" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P66" t="s"/>
       <c r="Q66" t="s"/>
@@ -6750,56 +7331,60 @@
         <v>0</v>
       </c>
       <c r="W66" t="s">
-        <v>434</v>
+        <v>499</v>
       </c>
       <c r="X66" t="s">
-        <v>435</v>
+        <v>500</v>
       </c>
       <c r="Y66" t="s">
-        <v>436</v>
+        <v>501</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>63587</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>177693</v>
+      </c>
+      <c r="C67" t="s">
+        <v>502</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>437</v>
+        <v>503</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>438</v>
+        <v>504</v>
       </c>
       <c r="J67" t="s">
-        <v>439</v>
+        <v>505</v>
       </c>
       <c r="K67" t="s">
-        <v>440</v>
+        <v>506</v>
       </c>
       <c r="L67" t="s">
-        <v>441</v>
+        <v>507</v>
       </c>
       <c r="M67" t="n">
         <v>5</v>
       </c>
       <c r="N67" t="s">
-        <v>425</v>
+        <v>489</v>
       </c>
       <c r="O67" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P67" t="n">
         <v>5</v>
@@ -6817,56 +7402,60 @@
         <v>0</v>
       </c>
       <c r="W67" t="s">
-        <v>442</v>
+        <v>508</v>
       </c>
       <c r="X67" t="s">
-        <v>443</v>
+        <v>509</v>
       </c>
       <c r="Y67" t="s">
-        <v>444</v>
+        <v>510</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>63587</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>177694</v>
+      </c>
+      <c r="C68" t="s">
+        <v>511</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>445</v>
+        <v>512</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>446</v>
+        <v>513</v>
       </c>
       <c r="J68" t="s">
-        <v>447</v>
+        <v>514</v>
       </c>
       <c r="K68" t="s">
-        <v>448</v>
+        <v>515</v>
       </c>
       <c r="L68" t="s">
-        <v>449</v>
+        <v>516</v>
       </c>
       <c r="M68" t="n">
         <v>5</v>
       </c>
       <c r="N68" t="s">
-        <v>450</v>
+        <v>517</v>
       </c>
       <c r="O68" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P68" t="s"/>
       <c r="Q68" t="s"/>
@@ -6882,56 +7471,60 @@
         <v>0</v>
       </c>
       <c r="W68" t="s">
-        <v>451</v>
+        <v>518</v>
       </c>
       <c r="X68" t="s">
-        <v>452</v>
+        <v>519</v>
       </c>
       <c r="Y68" t="s">
-        <v>453</v>
+        <v>520</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>63587</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>177695</v>
+      </c>
+      <c r="C69" t="s">
+        <v>521</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>454</v>
+        <v>522</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I69" t="s">
-        <v>455</v>
+        <v>523</v>
       </c>
       <c r="J69" t="s">
-        <v>456</v>
+        <v>524</v>
       </c>
       <c r="K69" t="s">
-        <v>457</v>
+        <v>525</v>
       </c>
       <c r="L69" t="s">
-        <v>458</v>
+        <v>526</v>
       </c>
       <c r="M69" t="n">
         <v>5</v>
       </c>
       <c r="N69" t="s">
-        <v>450</v>
+        <v>517</v>
       </c>
       <c r="O69" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P69" t="n">
         <v>5</v>
@@ -6949,56 +7542,60 @@
         <v>0</v>
       </c>
       <c r="W69" t="s">
-        <v>459</v>
+        <v>527</v>
       </c>
       <c r="X69" t="s">
-        <v>460</v>
+        <v>528</v>
       </c>
       <c r="Y69" t="s">
-        <v>461</v>
+        <v>529</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>63587</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>36980</v>
+      </c>
+      <c r="C70" t="s">
+        <v>530</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>462</v>
+        <v>531</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s">
-        <v>463</v>
+        <v>532</v>
       </c>
       <c r="J70" t="s">
-        <v>464</v>
+        <v>533</v>
       </c>
       <c r="K70" t="s">
-        <v>465</v>
+        <v>534</v>
       </c>
       <c r="L70" t="s">
-        <v>466</v>
+        <v>535</v>
       </c>
       <c r="M70" t="n">
         <v>5</v>
       </c>
       <c r="N70" t="s">
-        <v>467</v>
+        <v>536</v>
       </c>
       <c r="O70" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="P70" t="n">
         <v>5</v>
@@ -7016,56 +7613,60 @@
         <v>0</v>
       </c>
       <c r="W70" t="s">
-        <v>468</v>
+        <v>537</v>
       </c>
       <c r="X70" t="s">
-        <v>469</v>
+        <v>538</v>
       </c>
       <c r="Y70" t="s">
-        <v>470</v>
+        <v>539</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>63587</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>177696</v>
+      </c>
+      <c r="C71" t="s">
+        <v>540</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>471</v>
+        <v>541</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I71" t="s">
-        <v>472</v>
+        <v>542</v>
       </c>
       <c r="J71" t="s">
-        <v>473</v>
+        <v>543</v>
       </c>
       <c r="K71" t="s">
-        <v>474</v>
+        <v>544</v>
       </c>
       <c r="L71" t="s">
-        <v>475</v>
+        <v>545</v>
       </c>
       <c r="M71" t="n">
         <v>5</v>
       </c>
       <c r="N71" t="s">
-        <v>450</v>
+        <v>517</v>
       </c>
       <c r="O71" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P71" t="s"/>
       <c r="Q71" t="s"/>
@@ -7077,56 +7678,60 @@
         <v>0</v>
       </c>
       <c r="W71" t="s">
-        <v>476</v>
+        <v>546</v>
       </c>
       <c r="X71" t="s">
-        <v>477</v>
+        <v>547</v>
       </c>
       <c r="Y71" t="s">
-        <v>478</v>
+        <v>548</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>63587</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>177697</v>
+      </c>
+      <c r="C72" t="s">
+        <v>549</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>479</v>
+        <v>550</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I72" t="s">
-        <v>480</v>
+        <v>551</v>
       </c>
       <c r="J72" t="s">
-        <v>481</v>
+        <v>552</v>
       </c>
       <c r="K72" t="s">
-        <v>482</v>
+        <v>553</v>
       </c>
       <c r="L72" t="s">
-        <v>483</v>
+        <v>554</v>
       </c>
       <c r="M72" t="n">
         <v>4</v>
       </c>
       <c r="N72" t="s">
-        <v>450</v>
+        <v>517</v>
       </c>
       <c r="O72" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P72" t="s"/>
       <c r="Q72" t="s"/>
@@ -7144,56 +7749,60 @@
         <v>0</v>
       </c>
       <c r="W72" t="s">
-        <v>484</v>
+        <v>555</v>
       </c>
       <c r="X72" t="s">
-        <v>485</v>
+        <v>556</v>
       </c>
       <c r="Y72" t="s">
-        <v>486</v>
+        <v>557</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>63587</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>177698</v>
+      </c>
+      <c r="C73" t="s">
+        <v>558</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>487</v>
+        <v>559</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I73" t="s">
-        <v>488</v>
+        <v>560</v>
       </c>
       <c r="J73" t="s">
-        <v>489</v>
+        <v>561</v>
       </c>
       <c r="K73" t="s">
-        <v>490</v>
+        <v>562</v>
       </c>
       <c r="L73" t="s">
-        <v>491</v>
+        <v>563</v>
       </c>
       <c r="M73" t="n">
         <v>5</v>
       </c>
       <c r="N73" t="s">
-        <v>467</v>
+        <v>536</v>
       </c>
       <c r="O73" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="P73" t="s"/>
       <c r="Q73" t="n">
@@ -7211,56 +7820,60 @@
         <v>0</v>
       </c>
       <c r="W73" t="s">
-        <v>484</v>
+        <v>555</v>
       </c>
       <c r="X73" t="s">
-        <v>485</v>
+        <v>556</v>
       </c>
       <c r="Y73" t="s">
-        <v>492</v>
+        <v>564</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>63587</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>2379</v>
+      </c>
+      <c r="C74" t="s">
+        <v>565</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F74" t="s">
-        <v>493</v>
+        <v>566</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I74" t="s">
-        <v>494</v>
+        <v>567</v>
       </c>
       <c r="J74" t="s">
-        <v>495</v>
+        <v>568</v>
       </c>
       <c r="K74" t="s">
-        <v>496</v>
+        <v>569</v>
       </c>
       <c r="L74" t="s">
-        <v>497</v>
+        <v>570</v>
       </c>
       <c r="M74" t="n">
         <v>3</v>
       </c>
       <c r="N74" t="s">
-        <v>450</v>
+        <v>517</v>
       </c>
       <c r="O74" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P74" t="s"/>
       <c r="Q74" t="s"/>
@@ -7272,56 +7885,60 @@
         <v>0</v>
       </c>
       <c r="W74" t="s">
-        <v>498</v>
+        <v>571</v>
       </c>
       <c r="X74" t="s">
-        <v>499</v>
+        <v>572</v>
       </c>
       <c r="Y74" t="s">
-        <v>500</v>
+        <v>573</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>63587</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>21964</v>
+      </c>
+      <c r="C75" t="s">
+        <v>574</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F75" t="s">
-        <v>501</v>
+        <v>575</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I75" t="s">
-        <v>502</v>
+        <v>576</v>
       </c>
       <c r="J75" t="s">
-        <v>495</v>
+        <v>568</v>
       </c>
       <c r="K75" t="s">
-        <v>503</v>
+        <v>577</v>
       </c>
       <c r="L75" t="s">
-        <v>504</v>
+        <v>578</v>
       </c>
       <c r="M75" t="n">
         <v>5</v>
       </c>
       <c r="N75" t="s">
-        <v>467</v>
+        <v>536</v>
       </c>
       <c r="O75" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P75" t="s"/>
       <c r="Q75" t="s"/>
@@ -7337,56 +7954,60 @@
         <v>0</v>
       </c>
       <c r="W75" t="s">
-        <v>498</v>
+        <v>571</v>
       </c>
       <c r="X75" t="s">
-        <v>499</v>
+        <v>572</v>
       </c>
       <c r="Y75" t="s">
-        <v>505</v>
+        <v>579</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>63587</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>177699</v>
+      </c>
+      <c r="C76" t="s">
+        <v>580</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F76" t="s">
-        <v>506</v>
+        <v>581</v>
       </c>
       <c r="G76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I76" t="s">
-        <v>507</v>
+        <v>582</v>
       </c>
       <c r="J76" t="s">
-        <v>508</v>
+        <v>583</v>
       </c>
       <c r="K76" t="s">
-        <v>509</v>
+        <v>584</v>
       </c>
       <c r="L76" t="s">
-        <v>510</v>
+        <v>585</v>
       </c>
       <c r="M76" t="n">
         <v>4</v>
       </c>
       <c r="N76" t="s">
-        <v>467</v>
+        <v>536</v>
       </c>
       <c r="O76" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P76" t="s"/>
       <c r="Q76" t="n">
@@ -7402,56 +8023,60 @@
         <v>0</v>
       </c>
       <c r="W76" t="s">
-        <v>511</v>
+        <v>586</v>
       </c>
       <c r="X76" t="s">
-        <v>512</v>
+        <v>587</v>
       </c>
       <c r="Y76" t="s">
-        <v>513</v>
+        <v>588</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>63587</v>
       </c>
-      <c r="B77" t="s"/>
-      <c r="C77" t="s"/>
+      <c r="B77" t="n">
+        <v>33701</v>
+      </c>
+      <c r="C77" t="s">
+        <v>589</v>
+      </c>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F77" t="s">
-        <v>514</v>
+        <v>590</v>
       </c>
       <c r="G77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I77" t="s">
-        <v>515</v>
+        <v>591</v>
       </c>
       <c r="J77" t="s">
-        <v>516</v>
+        <v>592</v>
       </c>
       <c r="K77" t="s">
-        <v>517</v>
+        <v>593</v>
       </c>
       <c r="L77" t="s">
-        <v>518</v>
+        <v>594</v>
       </c>
       <c r="M77" t="n">
         <v>4</v>
       </c>
       <c r="N77" t="s">
-        <v>467</v>
+        <v>536</v>
       </c>
       <c r="O77" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P77" t="s"/>
       <c r="Q77" t="s"/>
@@ -7469,56 +8094,60 @@
         <v>0</v>
       </c>
       <c r="W77" t="s">
-        <v>519</v>
+        <v>595</v>
       </c>
       <c r="X77" t="s">
-        <v>520</v>
+        <v>596</v>
       </c>
       <c r="Y77" t="s">
-        <v>521</v>
+        <v>597</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>63587</v>
       </c>
-      <c r="B78" t="s"/>
-      <c r="C78" t="s"/>
+      <c r="B78" t="n">
+        <v>43985</v>
+      </c>
+      <c r="C78" t="s">
+        <v>598</v>
+      </c>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F78" t="s">
-        <v>522</v>
+        <v>599</v>
       </c>
       <c r="G78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I78" t="s">
-        <v>523</v>
+        <v>600</v>
       </c>
       <c r="J78" t="s">
-        <v>524</v>
+        <v>601</v>
       </c>
       <c r="K78" t="s">
-        <v>525</v>
+        <v>602</v>
       </c>
       <c r="L78" t="s">
-        <v>526</v>
+        <v>603</v>
       </c>
       <c r="M78" t="n">
         <v>5</v>
       </c>
       <c r="N78" t="s">
-        <v>527</v>
+        <v>604</v>
       </c>
       <c r="O78" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P78" t="s"/>
       <c r="Q78" t="n">
@@ -7536,56 +8165,60 @@
         <v>0</v>
       </c>
       <c r="W78" t="s">
-        <v>528</v>
+        <v>605</v>
       </c>
       <c r="X78" t="s">
-        <v>529</v>
+        <v>606</v>
       </c>
       <c r="Y78" t="s">
-        <v>530</v>
+        <v>607</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>63587</v>
       </c>
-      <c r="B79" t="s"/>
-      <c r="C79" t="s"/>
+      <c r="B79" t="n">
+        <v>177700</v>
+      </c>
+      <c r="C79" t="s">
+        <v>608</v>
+      </c>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F79" t="s">
-        <v>531</v>
+        <v>609</v>
       </c>
       <c r="G79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H79" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I79" t="s">
-        <v>532</v>
+        <v>610</v>
       </c>
       <c r="J79" t="s">
-        <v>533</v>
+        <v>611</v>
       </c>
       <c r="K79" t="s">
-        <v>534</v>
+        <v>612</v>
       </c>
       <c r="L79" t="s">
-        <v>535</v>
+        <v>613</v>
       </c>
       <c r="M79" t="n">
         <v>5</v>
       </c>
       <c r="N79" t="s">
-        <v>527</v>
+        <v>604</v>
       </c>
       <c r="O79" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P79" t="s"/>
       <c r="Q79" t="s"/>
@@ -7601,56 +8234,60 @@
         <v>0</v>
       </c>
       <c r="W79" t="s">
-        <v>528</v>
+        <v>605</v>
       </c>
       <c r="X79" t="s">
-        <v>529</v>
+        <v>606</v>
       </c>
       <c r="Y79" t="s">
-        <v>536</v>
+        <v>614</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>63587</v>
       </c>
-      <c r="B80" t="s"/>
-      <c r="C80" t="s"/>
+      <c r="B80" t="n">
+        <v>177701</v>
+      </c>
+      <c r="C80" t="s">
+        <v>615</v>
+      </c>
       <c r="D80" t="n">
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F80" t="s">
-        <v>537</v>
+        <v>616</v>
       </c>
       <c r="G80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H80" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I80" t="s">
-        <v>538</v>
+        <v>617</v>
       </c>
       <c r="J80" t="s">
-        <v>539</v>
+        <v>618</v>
       </c>
       <c r="K80" t="s">
-        <v>540</v>
+        <v>619</v>
       </c>
       <c r="L80" t="s">
-        <v>541</v>
+        <v>620</v>
       </c>
       <c r="M80" t="n">
         <v>5</v>
       </c>
       <c r="N80" t="s">
-        <v>527</v>
+        <v>604</v>
       </c>
       <c r="O80" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P80" t="s"/>
       <c r="Q80" t="n">
@@ -7666,56 +8303,60 @@
         <v>0</v>
       </c>
       <c r="W80" t="s">
-        <v>542</v>
+        <v>621</v>
       </c>
       <c r="X80" t="s">
-        <v>543</v>
+        <v>622</v>
       </c>
       <c r="Y80" t="s">
-        <v>544</v>
+        <v>623</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>63587</v>
       </c>
-      <c r="B81" t="s"/>
-      <c r="C81" t="s"/>
+      <c r="B81" t="n">
+        <v>177702</v>
+      </c>
+      <c r="C81" t="s">
+        <v>624</v>
+      </c>
       <c r="D81" t="n">
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F81" t="s">
-        <v>545</v>
+        <v>625</v>
       </c>
       <c r="G81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H81" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I81" t="s">
-        <v>546</v>
+        <v>626</v>
       </c>
       <c r="J81" t="s">
-        <v>547</v>
+        <v>627</v>
       </c>
       <c r="K81" t="s">
-        <v>548</v>
+        <v>628</v>
       </c>
       <c r="L81" t="s">
-        <v>549</v>
+        <v>629</v>
       </c>
       <c r="M81" t="n">
         <v>3</v>
       </c>
       <c r="N81" t="s">
-        <v>527</v>
+        <v>604</v>
       </c>
       <c r="O81" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P81" t="s"/>
       <c r="Q81" t="n">
@@ -7733,47 +8374,51 @@
         <v>0</v>
       </c>
       <c r="W81" t="s">
-        <v>550</v>
+        <v>630</v>
       </c>
       <c r="X81" t="s">
-        <v>551</v>
+        <v>631</v>
       </c>
       <c r="Y81" t="s">
-        <v>552</v>
+        <v>632</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>63587</v>
       </c>
-      <c r="B82" t="s"/>
-      <c r="C82" t="s"/>
+      <c r="B82" t="n">
+        <v>7909</v>
+      </c>
+      <c r="C82" t="s">
+        <v>633</v>
+      </c>
       <c r="D82" t="n">
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F82" t="s">
-        <v>553</v>
+        <v>634</v>
       </c>
       <c r="G82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H82" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I82" t="s">
-        <v>554</v>
+        <v>635</v>
       </c>
       <c r="J82" t="s">
-        <v>555</v>
+        <v>636</v>
       </c>
       <c r="K82" t="s">
-        <v>556</v>
+        <v>637</v>
       </c>
       <c r="L82" t="s">
-        <v>557</v>
+        <v>638</v>
       </c>
       <c r="M82" t="n">
         <v>5</v>
@@ -7790,56 +8435,60 @@
         <v>0</v>
       </c>
       <c r="W82" t="s">
-        <v>550</v>
+        <v>630</v>
       </c>
       <c r="X82" t="s">
-        <v>551</v>
+        <v>631</v>
       </c>
       <c r="Y82" t="s">
-        <v>558</v>
+        <v>639</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>63587</v>
       </c>
-      <c r="B83" t="s"/>
-      <c r="C83" t="s"/>
+      <c r="B83" t="n">
+        <v>177703</v>
+      </c>
+      <c r="C83" t="s">
+        <v>640</v>
+      </c>
       <c r="D83" t="n">
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F83" t="s">
-        <v>559</v>
+        <v>641</v>
       </c>
       <c r="G83" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H83" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I83" t="s">
-        <v>560</v>
+        <v>642</v>
       </c>
       <c r="J83" t="s">
-        <v>561</v>
+        <v>643</v>
       </c>
       <c r="K83" t="s">
-        <v>562</v>
+        <v>644</v>
       </c>
       <c r="L83" t="s">
-        <v>563</v>
+        <v>645</v>
       </c>
       <c r="M83" t="n">
         <v>5</v>
       </c>
       <c r="N83" t="s">
-        <v>564</v>
+        <v>646</v>
       </c>
       <c r="O83" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P83" t="n">
         <v>4</v>
@@ -7857,56 +8506,60 @@
         <v>0</v>
       </c>
       <c r="W83" t="s">
-        <v>565</v>
+        <v>647</v>
       </c>
       <c r="X83" t="s">
-        <v>566</v>
+        <v>648</v>
       </c>
       <c r="Y83" t="s">
-        <v>567</v>
+        <v>649</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>63587</v>
       </c>
-      <c r="B84" t="s"/>
-      <c r="C84" t="s"/>
+      <c r="B84" t="n">
+        <v>177704</v>
+      </c>
+      <c r="C84" t="s">
+        <v>650</v>
+      </c>
       <c r="D84" t="n">
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F84" t="s">
-        <v>568</v>
+        <v>651</v>
       </c>
       <c r="G84" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H84" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I84" t="s">
-        <v>569</v>
+        <v>652</v>
       </c>
       <c r="J84" t="s">
-        <v>570</v>
+        <v>653</v>
       </c>
       <c r="K84" t="s">
-        <v>571</v>
+        <v>654</v>
       </c>
       <c r="L84" t="s">
-        <v>572</v>
+        <v>655</v>
       </c>
       <c r="M84" t="n">
         <v>5</v>
       </c>
       <c r="N84" t="s">
-        <v>573</v>
+        <v>656</v>
       </c>
       <c r="O84" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="P84" t="s"/>
       <c r="Q84" t="n">
@@ -7924,56 +8577,60 @@
         <v>0</v>
       </c>
       <c r="W84" t="s">
-        <v>574</v>
+        <v>657</v>
       </c>
       <c r="X84" t="s">
-        <v>575</v>
+        <v>658</v>
       </c>
       <c r="Y84" t="s">
-        <v>576</v>
+        <v>659</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
         <v>63587</v>
       </c>
-      <c r="B85" t="s"/>
-      <c r="C85" t="s"/>
+      <c r="B85" t="n">
+        <v>177705</v>
+      </c>
+      <c r="C85" t="s">
+        <v>660</v>
+      </c>
       <c r="D85" t="n">
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F85" t="s">
-        <v>577</v>
+        <v>661</v>
       </c>
       <c r="G85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H85" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I85" t="s">
-        <v>578</v>
+        <v>662</v>
       </c>
       <c r="J85" t="s">
-        <v>579</v>
+        <v>663</v>
       </c>
       <c r="K85" t="s">
-        <v>580</v>
+        <v>664</v>
       </c>
       <c r="L85" t="s">
-        <v>581</v>
+        <v>665</v>
       </c>
       <c r="M85" t="n">
         <v>4</v>
       </c>
       <c r="N85" t="s">
-        <v>582</v>
+        <v>666</v>
       </c>
       <c r="O85" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P85" t="s"/>
       <c r="Q85" t="s"/>
@@ -7985,56 +8642,60 @@
         <v>0</v>
       </c>
       <c r="W85" t="s">
-        <v>583</v>
+        <v>667</v>
       </c>
       <c r="X85" t="s">
-        <v>584</v>
+        <v>668</v>
       </c>
       <c r="Y85" t="s">
-        <v>585</v>
+        <v>669</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
         <v>63587</v>
       </c>
-      <c r="B86" t="s"/>
-      <c r="C86" t="s"/>
+      <c r="B86" t="n">
+        <v>177706</v>
+      </c>
+      <c r="C86" t="s">
+        <v>670</v>
+      </c>
       <c r="D86" t="n">
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F86" t="s">
-        <v>586</v>
+        <v>671</v>
       </c>
       <c r="G86" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H86" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I86" t="s">
-        <v>587</v>
+        <v>672</v>
       </c>
       <c r="J86" t="s">
-        <v>588</v>
+        <v>673</v>
       </c>
       <c r="K86" t="s">
-        <v>589</v>
+        <v>674</v>
       </c>
       <c r="L86" t="s">
-        <v>590</v>
+        <v>675</v>
       </c>
       <c r="M86" t="n">
         <v>5</v>
       </c>
       <c r="N86" t="s">
-        <v>582</v>
+        <v>666</v>
       </c>
       <c r="O86" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P86" t="n">
         <v>5</v>
@@ -8052,56 +8713,60 @@
         <v>0</v>
       </c>
       <c r="W86" t="s">
-        <v>591</v>
+        <v>676</v>
       </c>
       <c r="X86" t="s">
-        <v>592</v>
+        <v>677</v>
       </c>
       <c r="Y86" t="s">
-        <v>593</v>
+        <v>678</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
         <v>63587</v>
       </c>
-      <c r="B87" t="s"/>
-      <c r="C87" t="s"/>
+      <c r="B87" t="n">
+        <v>177707</v>
+      </c>
+      <c r="C87" t="s">
+        <v>679</v>
+      </c>
       <c r="D87" t="n">
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F87" t="s">
-        <v>594</v>
+        <v>680</v>
       </c>
       <c r="G87" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H87" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I87" t="s">
-        <v>595</v>
+        <v>681</v>
       </c>
       <c r="J87" t="s">
-        <v>588</v>
+        <v>673</v>
       </c>
       <c r="K87" t="s">
-        <v>596</v>
+        <v>682</v>
       </c>
       <c r="L87" t="s">
-        <v>597</v>
+        <v>683</v>
       </c>
       <c r="M87" t="n">
         <v>5</v>
       </c>
       <c r="N87" t="s">
-        <v>582</v>
+        <v>666</v>
       </c>
       <c r="O87" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="P87" t="n">
         <v>5</v>
@@ -8117,56 +8782,60 @@
         <v>0</v>
       </c>
       <c r="W87" t="s">
-        <v>598</v>
+        <v>684</v>
       </c>
       <c r="X87" t="s">
-        <v>599</v>
+        <v>685</v>
       </c>
       <c r="Y87" t="s">
-        <v>600</v>
+        <v>686</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
         <v>63587</v>
       </c>
-      <c r="B88" t="s"/>
-      <c r="C88" t="s"/>
+      <c r="B88" t="n">
+        <v>177708</v>
+      </c>
+      <c r="C88" t="s">
+        <v>687</v>
+      </c>
       <c r="D88" t="n">
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F88" t="s">
-        <v>601</v>
+        <v>688</v>
       </c>
       <c r="G88" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H88" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I88" t="s">
-        <v>602</v>
+        <v>689</v>
       </c>
       <c r="J88" t="s">
-        <v>603</v>
+        <v>690</v>
       </c>
       <c r="K88" t="s">
-        <v>604</v>
+        <v>691</v>
       </c>
       <c r="L88" t="s">
-        <v>605</v>
+        <v>692</v>
       </c>
       <c r="M88" t="n">
         <v>5</v>
       </c>
       <c r="N88" t="s">
-        <v>564</v>
+        <v>646</v>
       </c>
       <c r="O88" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P88" t="s"/>
       <c r="Q88" t="s"/>
@@ -8184,56 +8853,60 @@
         <v>0</v>
       </c>
       <c r="W88" t="s">
-        <v>606</v>
+        <v>693</v>
       </c>
       <c r="X88" t="s">
-        <v>607</v>
+        <v>694</v>
       </c>
       <c r="Y88" t="s">
-        <v>608</v>
+        <v>695</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
         <v>63587</v>
       </c>
-      <c r="B89" t="s"/>
-      <c r="C89" t="s"/>
+      <c r="B89" t="n">
+        <v>14046</v>
+      </c>
+      <c r="C89" t="s">
+        <v>696</v>
+      </c>
       <c r="D89" t="n">
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F89" t="s">
-        <v>609</v>
+        <v>697</v>
       </c>
       <c r="G89" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H89" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I89" t="s">
-        <v>610</v>
+        <v>698</v>
       </c>
       <c r="J89" t="s">
-        <v>611</v>
+        <v>699</v>
       </c>
       <c r="K89" t="s">
-        <v>612</v>
+        <v>700</v>
       </c>
       <c r="L89" t="s">
-        <v>613</v>
+        <v>701</v>
       </c>
       <c r="M89" t="n">
         <v>5</v>
       </c>
       <c r="N89" t="s">
-        <v>564</v>
+        <v>646</v>
       </c>
       <c r="O89" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P89" t="s"/>
       <c r="Q89" t="s"/>
@@ -8245,56 +8918,60 @@
         <v>0</v>
       </c>
       <c r="W89" t="s">
-        <v>614</v>
+        <v>702</v>
       </c>
       <c r="X89" t="s">
-        <v>615</v>
+        <v>703</v>
       </c>
       <c r="Y89" t="s">
-        <v>616</v>
+        <v>704</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
         <v>63587</v>
       </c>
-      <c r="B90" t="s"/>
-      <c r="C90" t="s"/>
+      <c r="B90" t="n">
+        <v>177709</v>
+      </c>
+      <c r="C90" t="s">
+        <v>705</v>
+      </c>
       <c r="D90" t="n">
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F90" t="s">
-        <v>617</v>
+        <v>706</v>
       </c>
       <c r="G90" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H90" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I90" t="s">
-        <v>618</v>
+        <v>707</v>
       </c>
       <c r="J90" t="s">
-        <v>619</v>
+        <v>708</v>
       </c>
       <c r="K90" t="s">
-        <v>620</v>
+        <v>709</v>
       </c>
       <c r="L90" t="s">
-        <v>621</v>
+        <v>710</v>
       </c>
       <c r="M90" t="n">
         <v>5</v>
       </c>
       <c r="N90" t="s">
-        <v>564</v>
+        <v>646</v>
       </c>
       <c r="O90" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P90" t="s"/>
       <c r="Q90" t="s"/>
@@ -8312,56 +8989,60 @@
         <v>0</v>
       </c>
       <c r="W90" t="s">
-        <v>622</v>
+        <v>711</v>
       </c>
       <c r="X90" t="s">
-        <v>623</v>
+        <v>712</v>
       </c>
       <c r="Y90" t="s">
-        <v>624</v>
+        <v>713</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
         <v>63587</v>
       </c>
-      <c r="B91" t="s"/>
-      <c r="C91" t="s"/>
+      <c r="B91" t="n">
+        <v>177710</v>
+      </c>
+      <c r="C91" t="s">
+        <v>714</v>
+      </c>
       <c r="D91" t="n">
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F91" t="s">
-        <v>625</v>
+        <v>715</v>
       </c>
       <c r="G91" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H91" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I91" t="s">
-        <v>626</v>
+        <v>716</v>
       </c>
       <c r="J91" t="s">
-        <v>627</v>
+        <v>717</v>
       </c>
       <c r="K91" t="s">
-        <v>628</v>
+        <v>718</v>
       </c>
       <c r="L91" t="s">
-        <v>629</v>
+        <v>719</v>
       </c>
       <c r="M91" t="n">
         <v>5</v>
       </c>
       <c r="N91" t="s">
-        <v>564</v>
+        <v>646</v>
       </c>
       <c r="O91" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P91" t="s"/>
       <c r="Q91" t="s"/>
@@ -8373,56 +9054,60 @@
         <v>0</v>
       </c>
       <c r="W91" t="s">
-        <v>622</v>
+        <v>711</v>
       </c>
       <c r="X91" t="s">
-        <v>623</v>
+        <v>712</v>
       </c>
       <c r="Y91" t="s">
-        <v>630</v>
+        <v>720</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
         <v>63587</v>
       </c>
-      <c r="B92" t="s"/>
-      <c r="C92" t="s"/>
+      <c r="B92" t="n">
+        <v>17164</v>
+      </c>
+      <c r="C92" t="s">
+        <v>721</v>
+      </c>
       <c r="D92" t="n">
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F92" t="s">
-        <v>631</v>
+        <v>722</v>
       </c>
       <c r="G92" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H92" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I92" t="s">
-        <v>632</v>
+        <v>723</v>
       </c>
       <c r="J92" t="s">
-        <v>633</v>
+        <v>724</v>
       </c>
       <c r="K92" t="s">
-        <v>634</v>
+        <v>725</v>
       </c>
       <c r="L92" t="s">
-        <v>635</v>
+        <v>726</v>
       </c>
       <c r="M92" t="n">
         <v>5</v>
       </c>
       <c r="N92" t="s">
-        <v>564</v>
+        <v>646</v>
       </c>
       <c r="O92" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P92" t="s"/>
       <c r="Q92" t="s"/>
@@ -8438,56 +9123,60 @@
         <v>0</v>
       </c>
       <c r="W92" t="s">
-        <v>636</v>
+        <v>727</v>
       </c>
       <c r="X92" t="s">
-        <v>637</v>
+        <v>728</v>
       </c>
       <c r="Y92" t="s">
-        <v>638</v>
+        <v>729</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
         <v>63587</v>
       </c>
-      <c r="B93" t="s"/>
-      <c r="C93" t="s"/>
+      <c r="B93" t="n">
+        <v>2715</v>
+      </c>
+      <c r="C93" t="s">
+        <v>730</v>
+      </c>
       <c r="D93" t="n">
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F93" t="s">
-        <v>639</v>
+        <v>731</v>
       </c>
       <c r="G93" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H93" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I93" t="s">
-        <v>640</v>
+        <v>732</v>
       </c>
       <c r="J93" t="s">
-        <v>641</v>
+        <v>733</v>
       </c>
       <c r="K93" t="s">
-        <v>642</v>
+        <v>734</v>
       </c>
       <c r="L93" t="s">
-        <v>643</v>
+        <v>735</v>
       </c>
       <c r="M93" t="n">
         <v>5</v>
       </c>
       <c r="N93" t="s">
-        <v>564</v>
+        <v>646</v>
       </c>
       <c r="O93" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P93" t="s"/>
       <c r="Q93" t="s"/>
@@ -8505,56 +9194,60 @@
         <v>0</v>
       </c>
       <c r="W93" t="s">
-        <v>644</v>
+        <v>736</v>
       </c>
       <c r="X93" t="s">
-        <v>645</v>
+        <v>737</v>
       </c>
       <c r="Y93" t="s">
-        <v>646</v>
+        <v>738</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
         <v>63587</v>
       </c>
-      <c r="B94" t="s"/>
-      <c r="C94" t="s"/>
+      <c r="B94" t="n">
+        <v>177711</v>
+      </c>
+      <c r="C94" t="s">
+        <v>739</v>
+      </c>
       <c r="D94" t="n">
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F94" t="s">
-        <v>647</v>
+        <v>740</v>
       </c>
       <c r="G94" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H94" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I94" t="s">
-        <v>648</v>
+        <v>741</v>
       </c>
       <c r="J94" t="s">
-        <v>649</v>
+        <v>742</v>
       </c>
       <c r="K94" t="s">
-        <v>650</v>
+        <v>743</v>
       </c>
       <c r="L94" t="s">
-        <v>651</v>
+        <v>744</v>
       </c>
       <c r="M94" t="n">
         <v>5</v>
       </c>
       <c r="N94" t="s">
-        <v>652</v>
+        <v>745</v>
       </c>
       <c r="O94" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P94" t="s"/>
       <c r="Q94" t="n">
@@ -8572,56 +9265,60 @@
         <v>0</v>
       </c>
       <c r="W94" t="s">
-        <v>653</v>
+        <v>746</v>
       </c>
       <c r="X94" t="s">
-        <v>654</v>
+        <v>747</v>
       </c>
       <c r="Y94" t="s">
-        <v>655</v>
+        <v>748</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
         <v>63587</v>
       </c>
-      <c r="B95" t="s"/>
-      <c r="C95" t="s"/>
+      <c r="B95" t="n">
+        <v>134775</v>
+      </c>
+      <c r="C95" t="s">
+        <v>749</v>
+      </c>
       <c r="D95" t="n">
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F95" t="s">
-        <v>656</v>
+        <v>750</v>
       </c>
       <c r="G95" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H95" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I95" t="s">
-        <v>657</v>
+        <v>751</v>
       </c>
       <c r="J95" t="s">
-        <v>658</v>
+        <v>752</v>
       </c>
       <c r="K95" t="s">
-        <v>659</v>
+        <v>753</v>
       </c>
       <c r="L95" t="s">
-        <v>660</v>
+        <v>754</v>
       </c>
       <c r="M95" t="n">
         <v>5</v>
       </c>
       <c r="N95" t="s">
-        <v>652</v>
+        <v>745</v>
       </c>
       <c r="O95" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P95" t="s"/>
       <c r="Q95" t="n">
@@ -8639,56 +9336,60 @@
         <v>0</v>
       </c>
       <c r="W95" t="s">
-        <v>661</v>
+        <v>755</v>
       </c>
       <c r="X95" t="s">
-        <v>662</v>
+        <v>756</v>
       </c>
       <c r="Y95" t="s">
-        <v>663</v>
+        <v>757</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
         <v>63587</v>
       </c>
-      <c r="B96" t="s"/>
-      <c r="C96" t="s"/>
+      <c r="B96" t="n">
+        <v>177712</v>
+      </c>
+      <c r="C96" t="s">
+        <v>758</v>
+      </c>
       <c r="D96" t="n">
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F96" t="s">
-        <v>664</v>
+        <v>759</v>
       </c>
       <c r="G96" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H96" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I96" t="s">
-        <v>665</v>
+        <v>760</v>
       </c>
       <c r="J96" t="s">
-        <v>666</v>
+        <v>761</v>
       </c>
       <c r="K96" t="s">
-        <v>667</v>
+        <v>762</v>
       </c>
       <c r="L96" t="s">
-        <v>668</v>
+        <v>763</v>
       </c>
       <c r="M96" t="n">
         <v>5</v>
       </c>
       <c r="N96" t="s">
-        <v>652</v>
+        <v>745</v>
       </c>
       <c r="O96" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P96" t="s"/>
       <c r="Q96" t="s"/>
@@ -8704,56 +9405,60 @@
         <v>0</v>
       </c>
       <c r="W96" t="s">
-        <v>669</v>
+        <v>764</v>
       </c>
       <c r="X96" t="s">
-        <v>670</v>
+        <v>765</v>
       </c>
       <c r="Y96" t="s">
-        <v>671</v>
+        <v>766</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
         <v>63587</v>
       </c>
-      <c r="B97" t="s"/>
-      <c r="C97" t="s"/>
+      <c r="B97" t="n">
+        <v>1260</v>
+      </c>
+      <c r="C97" t="s">
+        <v>767</v>
+      </c>
       <c r="D97" t="n">
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F97" t="s">
-        <v>672</v>
+        <v>768</v>
       </c>
       <c r="G97" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H97" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I97" t="s">
-        <v>673</v>
+        <v>769</v>
       </c>
       <c r="J97" t="s">
-        <v>674</v>
+        <v>770</v>
       </c>
       <c r="K97" t="s">
-        <v>675</v>
+        <v>771</v>
       </c>
       <c r="L97" t="s">
-        <v>676</v>
+        <v>772</v>
       </c>
       <c r="M97" t="n">
         <v>5</v>
       </c>
       <c r="N97" t="s">
-        <v>652</v>
+        <v>745</v>
       </c>
       <c r="O97" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P97" t="n">
         <v>5</v>
@@ -8771,56 +9476,60 @@
         <v>0</v>
       </c>
       <c r="W97" t="s">
-        <v>677</v>
+        <v>773</v>
       </c>
       <c r="X97" t="s">
-        <v>678</v>
+        <v>774</v>
       </c>
       <c r="Y97" t="s">
-        <v>679</v>
+        <v>775</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
         <v>63587</v>
       </c>
-      <c r="B98" t="s"/>
-      <c r="C98" t="s"/>
+      <c r="B98" t="n">
+        <v>177713</v>
+      </c>
+      <c r="C98" t="s">
+        <v>776</v>
+      </c>
       <c r="D98" t="n">
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F98" t="s">
-        <v>680</v>
+        <v>777</v>
       </c>
       <c r="G98" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H98" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I98" t="s">
-        <v>681</v>
+        <v>778</v>
       </c>
       <c r="J98" t="s">
-        <v>682</v>
+        <v>779</v>
       </c>
       <c r="K98" t="s">
-        <v>683</v>
+        <v>780</v>
       </c>
       <c r="L98" t="s">
-        <v>684</v>
+        <v>781</v>
       </c>
       <c r="M98" t="n">
         <v>4</v>
       </c>
       <c r="N98" t="s">
-        <v>685</v>
+        <v>782</v>
       </c>
       <c r="O98" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P98" t="s"/>
       <c r="Q98" t="s"/>
@@ -8838,56 +9547,60 @@
         <v>0</v>
       </c>
       <c r="W98" t="s">
-        <v>686</v>
+        <v>783</v>
       </c>
       <c r="X98" t="s">
-        <v>687</v>
+        <v>784</v>
       </c>
       <c r="Y98" t="s">
-        <v>688</v>
+        <v>785</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
         <v>63587</v>
       </c>
-      <c r="B99" t="s"/>
-      <c r="C99" t="s"/>
+      <c r="B99" t="n">
+        <v>100066</v>
+      </c>
+      <c r="C99" t="s">
+        <v>786</v>
+      </c>
       <c r="D99" t="n">
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F99" t="s">
-        <v>689</v>
+        <v>787</v>
       </c>
       <c r="G99" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H99" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I99" t="s">
-        <v>690</v>
+        <v>788</v>
       </c>
       <c r="J99" t="s">
-        <v>691</v>
+        <v>789</v>
       </c>
       <c r="K99" t="s">
-        <v>692</v>
+        <v>790</v>
       </c>
       <c r="L99" t="s">
-        <v>693</v>
+        <v>791</v>
       </c>
       <c r="M99" t="n">
         <v>5</v>
       </c>
       <c r="N99" t="s">
-        <v>685</v>
+        <v>782</v>
       </c>
       <c r="O99" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P99" t="s"/>
       <c r="Q99" t="s"/>
@@ -8903,56 +9616,60 @@
         <v>0</v>
       </c>
       <c r="W99" t="s">
-        <v>694</v>
+        <v>792</v>
       </c>
       <c r="X99" t="s">
-        <v>695</v>
+        <v>793</v>
       </c>
       <c r="Y99" t="s">
-        <v>696</v>
+        <v>794</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
         <v>63587</v>
       </c>
-      <c r="B100" t="s"/>
-      <c r="C100" t="s"/>
+      <c r="B100" t="n">
+        <v>136869</v>
+      </c>
+      <c r="C100" t="s">
+        <v>795</v>
+      </c>
       <c r="D100" t="n">
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F100" t="s">
-        <v>697</v>
+        <v>796</v>
       </c>
       <c r="G100" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H100" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I100" t="s">
-        <v>698</v>
+        <v>797</v>
       </c>
       <c r="J100" t="s">
-        <v>699</v>
+        <v>798</v>
       </c>
       <c r="K100" t="s">
-        <v>700</v>
+        <v>799</v>
       </c>
       <c r="L100" t="s">
-        <v>701</v>
+        <v>800</v>
       </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
       <c r="N100" t="s">
-        <v>685</v>
+        <v>782</v>
       </c>
       <c r="O100" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P100" t="s"/>
       <c r="Q100" t="s"/>
@@ -8964,56 +9681,60 @@
         <v>0</v>
       </c>
       <c r="W100" t="s">
-        <v>694</v>
+        <v>792</v>
       </c>
       <c r="X100" t="s">
-        <v>695</v>
+        <v>793</v>
       </c>
       <c r="Y100" t="s">
-        <v>702</v>
+        <v>801</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
         <v>63587</v>
       </c>
-      <c r="B101" t="s"/>
-      <c r="C101" t="s"/>
+      <c r="B101" t="n">
+        <v>177714</v>
+      </c>
+      <c r="C101" t="s">
+        <v>802</v>
+      </c>
       <c r="D101" t="n">
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F101" t="s">
-        <v>703</v>
+        <v>803</v>
       </c>
       <c r="G101" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H101" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I101" t="s">
-        <v>704</v>
+        <v>804</v>
       </c>
       <c r="J101" t="s">
-        <v>705</v>
+        <v>805</v>
       </c>
       <c r="K101" t="s">
-        <v>706</v>
+        <v>806</v>
       </c>
       <c r="L101" t="s">
-        <v>707</v>
+        <v>807</v>
       </c>
       <c r="M101" t="n">
         <v>4</v>
       </c>
       <c r="N101" t="s">
-        <v>685</v>
+        <v>782</v>
       </c>
       <c r="O101" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P101" t="s"/>
       <c r="Q101" t="s"/>
@@ -9025,56 +9746,60 @@
         <v>0</v>
       </c>
       <c r="W101" t="s">
-        <v>708</v>
+        <v>808</v>
       </c>
       <c r="X101" t="s">
-        <v>709</v>
+        <v>809</v>
       </c>
       <c r="Y101" t="s">
-        <v>710</v>
+        <v>810</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
         <v>63587</v>
       </c>
-      <c r="B102" t="s"/>
-      <c r="C102" t="s"/>
+      <c r="B102" t="n">
+        <v>177715</v>
+      </c>
+      <c r="C102" t="s">
+        <v>811</v>
+      </c>
       <c r="D102" t="n">
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F102" t="s">
-        <v>711</v>
+        <v>812</v>
       </c>
       <c r="G102" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H102" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I102" t="s">
-        <v>712</v>
+        <v>813</v>
       </c>
       <c r="J102" t="s">
-        <v>713</v>
+        <v>814</v>
       </c>
       <c r="K102" t="s">
-        <v>714</v>
+        <v>815</v>
       </c>
       <c r="L102" t="s">
-        <v>715</v>
+        <v>816</v>
       </c>
       <c r="M102" t="n">
         <v>4</v>
       </c>
       <c r="N102" t="s">
-        <v>716</v>
+        <v>817</v>
       </c>
       <c r="O102" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="P102" t="n">
         <v>5</v>
@@ -9090,56 +9815,60 @@
         <v>0</v>
       </c>
       <c r="W102" t="s">
-        <v>708</v>
+        <v>808</v>
       </c>
       <c r="X102" t="s">
-        <v>709</v>
+        <v>809</v>
       </c>
       <c r="Y102" t="s">
-        <v>717</v>
+        <v>818</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
         <v>63587</v>
       </c>
-      <c r="B103" t="s"/>
-      <c r="C103" t="s"/>
+      <c r="B103" t="n">
+        <v>177716</v>
+      </c>
+      <c r="C103" t="s">
+        <v>819</v>
+      </c>
       <c r="D103" t="n">
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F103" t="s">
-        <v>718</v>
+        <v>820</v>
       </c>
       <c r="G103" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H103" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I103" t="s">
-        <v>719</v>
+        <v>821</v>
       </c>
       <c r="J103" t="s">
-        <v>720</v>
+        <v>822</v>
       </c>
       <c r="K103" t="s">
-        <v>721</v>
+        <v>823</v>
       </c>
       <c r="L103" t="s">
-        <v>722</v>
+        <v>824</v>
       </c>
       <c r="M103" t="n">
         <v>2</v>
       </c>
       <c r="N103" t="s">
-        <v>716</v>
+        <v>817</v>
       </c>
       <c r="O103" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P103" t="s"/>
       <c r="Q103" t="s"/>
@@ -9155,56 +9884,60 @@
         <v>0</v>
       </c>
       <c r="W103" t="s">
-        <v>723</v>
+        <v>825</v>
       </c>
       <c r="X103" t="s">
-        <v>724</v>
+        <v>826</v>
       </c>
       <c r="Y103" t="s">
-        <v>725</v>
+        <v>827</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
         <v>63587</v>
       </c>
-      <c r="B104" t="s"/>
-      <c r="C104" t="s"/>
+      <c r="B104" t="n">
+        <v>177717</v>
+      </c>
+      <c r="C104" t="s">
+        <v>828</v>
+      </c>
       <c r="D104" t="n">
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F104" t="s">
-        <v>726</v>
+        <v>829</v>
       </c>
       <c r="G104" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H104" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I104" t="s">
-        <v>727</v>
+        <v>830</v>
       </c>
       <c r="J104" t="s">
-        <v>728</v>
+        <v>831</v>
       </c>
       <c r="K104" t="s">
-        <v>729</v>
+        <v>832</v>
       </c>
       <c r="L104" t="s">
-        <v>730</v>
+        <v>833</v>
       </c>
       <c r="M104" t="n">
         <v>3</v>
       </c>
       <c r="N104" t="s">
-        <v>410</v>
+        <v>472</v>
       </c>
       <c r="O104" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P104" t="s"/>
       <c r="Q104" t="s"/>
@@ -9222,56 +9955,60 @@
         <v>0</v>
       </c>
       <c r="W104" t="s">
-        <v>731</v>
+        <v>834</v>
       </c>
       <c r="X104" t="s">
-        <v>732</v>
+        <v>835</v>
       </c>
       <c r="Y104" t="s">
-        <v>733</v>
+        <v>836</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
         <v>63587</v>
       </c>
-      <c r="B105" t="s"/>
-      <c r="C105" t="s"/>
+      <c r="B105" t="n">
+        <v>177718</v>
+      </c>
+      <c r="C105" t="s">
+        <v>837</v>
+      </c>
       <c r="D105" t="n">
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F105" t="s">
-        <v>734</v>
+        <v>838</v>
       </c>
       <c r="G105" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H105" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I105" t="s">
-        <v>735</v>
+        <v>839</v>
       </c>
       <c r="J105" t="s">
-        <v>736</v>
+        <v>840</v>
       </c>
       <c r="K105" t="s">
-        <v>737</v>
+        <v>841</v>
       </c>
       <c r="L105" t="s">
-        <v>738</v>
+        <v>842</v>
       </c>
       <c r="M105" t="n">
         <v>5</v>
       </c>
       <c r="N105" t="s">
-        <v>410</v>
+        <v>472</v>
       </c>
       <c r="O105" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P105" t="s"/>
       <c r="Q105" t="s"/>
@@ -9289,50 +10026,54 @@
       <c r="W105" t="s"/>
       <c r="X105" t="s"/>
       <c r="Y105" t="s">
-        <v>739</v>
+        <v>843</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
         <v>63587</v>
       </c>
-      <c r="B106" t="s"/>
-      <c r="C106" t="s"/>
+      <c r="B106" t="n">
+        <v>26802</v>
+      </c>
+      <c r="C106" t="s">
+        <v>844</v>
+      </c>
       <c r="D106" t="n">
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F106" t="s">
-        <v>740</v>
+        <v>845</v>
       </c>
       <c r="G106" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H106" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I106" t="s">
-        <v>741</v>
+        <v>846</v>
       </c>
       <c r="J106" t="s">
-        <v>742</v>
+        <v>847</v>
       </c>
       <c r="K106" t="s">
-        <v>743</v>
+        <v>848</v>
       </c>
       <c r="L106" t="s">
-        <v>744</v>
+        <v>849</v>
       </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
       <c r="N106" t="s">
-        <v>410</v>
+        <v>472</v>
       </c>
       <c r="O106" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P106" t="s"/>
       <c r="Q106" t="n">
@@ -9348,56 +10089,60 @@
         <v>0</v>
       </c>
       <c r="W106" t="s">
-        <v>745</v>
+        <v>850</v>
       </c>
       <c r="X106" t="s">
-        <v>746</v>
+        <v>851</v>
       </c>
       <c r="Y106" t="s">
-        <v>747</v>
+        <v>852</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
         <v>63587</v>
       </c>
-      <c r="B107" t="s"/>
-      <c r="C107" t="s"/>
+      <c r="B107" t="n">
+        <v>177719</v>
+      </c>
+      <c r="C107" t="s">
+        <v>853</v>
+      </c>
       <c r="D107" t="n">
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F107" t="s">
-        <v>748</v>
+        <v>854</v>
       </c>
       <c r="G107" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H107" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I107" t="s">
-        <v>749</v>
+        <v>855</v>
       </c>
       <c r="J107" t="s">
-        <v>750</v>
+        <v>856</v>
       </c>
       <c r="K107" t="s">
-        <v>642</v>
+        <v>734</v>
       </c>
       <c r="L107" t="s">
-        <v>751</v>
+        <v>857</v>
       </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
       <c r="N107" t="s">
-        <v>752</v>
+        <v>858</v>
       </c>
       <c r="O107" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P107" t="s"/>
       <c r="Q107" t="s"/>
@@ -9409,56 +10154,60 @@
         <v>0</v>
       </c>
       <c r="W107" t="s">
-        <v>753</v>
+        <v>859</v>
       </c>
       <c r="X107" t="s">
-        <v>754</v>
+        <v>860</v>
       </c>
       <c r="Y107" t="s">
-        <v>755</v>
+        <v>861</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
         <v>63587</v>
       </c>
-      <c r="B108" t="s"/>
-      <c r="C108" t="s"/>
+      <c r="B108" t="n">
+        <v>177720</v>
+      </c>
+      <c r="C108" t="s">
+        <v>862</v>
+      </c>
       <c r="D108" t="n">
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F108" t="s">
-        <v>756</v>
+        <v>863</v>
       </c>
       <c r="G108" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H108" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I108" t="s">
-        <v>757</v>
+        <v>864</v>
       </c>
       <c r="J108" t="s">
-        <v>758</v>
+        <v>865</v>
       </c>
       <c r="K108" t="s">
-        <v>759</v>
+        <v>866</v>
       </c>
       <c r="L108" t="s">
-        <v>760</v>
+        <v>867</v>
       </c>
       <c r="M108" t="n">
         <v>4</v>
       </c>
       <c r="N108" t="s">
-        <v>752</v>
+        <v>858</v>
       </c>
       <c r="O108" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P108" t="s"/>
       <c r="Q108" t="s"/>
@@ -9476,13 +10225,13 @@
         <v>0</v>
       </c>
       <c r="W108" t="s">
-        <v>708</v>
+        <v>808</v>
       </c>
       <c r="X108" t="s">
-        <v>709</v>
+        <v>809</v>
       </c>
       <c r="Y108" t="s">
-        <v>761</v>
+        <v>868</v>
       </c>
     </row>
   </sheetData>
